--- a/ガントチャート/PM演習_管理ツール_戸張研A班.xlsx
+++ b/ガントチャート/PM演習_管理ツール_戸張研A班.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
   <si>
     <t>WBS番号</t>
     <rPh sb="3" eb="5">
@@ -49,10 +49,6 @@
     <rPh sb="2" eb="3">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0.0.0</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -132,16 +128,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プロジェクト憲章作成</t>
-    <rPh sb="6" eb="8">
-      <t>ケンショウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">WBS要素名
 </t>
@@ -168,10 +154,6 @@
     <rPh sb="15" eb="17">
       <t>ヒョウゲン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チームビルディング</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -204,13 +186,6 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>キュウコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　プロジェクト立上げ</t>
-    <rPh sb="7" eb="9">
-      <t>タチア</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -264,20 +239,6 @@
   </si>
   <si>
     <t>担当A</t>
-    <rPh sb="0" eb="2">
-      <t>タントウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>担当B</t>
-    <rPh sb="0" eb="2">
-      <t>タントウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>担当C</t>
     <rPh sb="0" eb="2">
       <t>タントウ</t>
     </rPh>
@@ -402,13 +363,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>担当D</t>
-    <rPh sb="0" eb="2">
-      <t>タントウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SV</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -422,16 +376,6 @@
   </si>
   <si>
     <t>CPI</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プロジェクト憲章承認</t>
-    <rPh sb="6" eb="8">
-      <t>ケンショウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ショウニン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -449,19 +393,6 @@
   </si>
   <si>
     <t>○</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>承認版プロジェクト憲章</t>
-    <rPh sb="0" eb="2">
-      <t>ショウニン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ケンショウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -624,6 +555,85 @@
     <rPh sb="0" eb="2">
       <t>トバリ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.0.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義書作成</t>
+    <rPh sb="0" eb="5">
+      <t>ヨウケンテイギショ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト憲章</t>
+    <rPh sb="6" eb="8">
+      <t>ケンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト憲章作成</t>
+    <rPh sb="6" eb="8">
+      <t>ケンショウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>佐藤</t>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加藤</t>
+    <rPh sb="0" eb="2">
+      <t>カトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.10.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト計画書</t>
+    <rPh sb="6" eb="9">
+      <t>ケイカクショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要求定義書</t>
+    <rPh sb="0" eb="5">
+      <t>ヨウキュウテイギショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">統合マネジメント
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコープマネジメント</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1322,29 +1332,35 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1362,29 +1378,23 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2367,11 +2377,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="126376448"/>
-        <c:axId val="126428864"/>
+        <c:axId val="126352896"/>
+        <c:axId val="126363328"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="126376448"/>
+        <c:axId val="126352896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2381,14 +2391,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126428864"/>
+        <c:crossAx val="126363328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="126428864"/>
+        <c:axId val="126363328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2409,7 +2419,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126376448"/>
+        <c:crossAx val="126352896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2903,10 +2913,10 @@
   <dimension ref="A1:DS227"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="4" topLeftCell="K11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="U1" sqref="U1:Z1"/>
+      <selection pane="bottomRight" activeCell="C21" sqref="C21:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2923,121 +2933,121 @@
   <sheetData>
     <row r="1" spans="1:122" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="87" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="88"/>
+        <v>3</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="76"/>
       <c r="D1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="V1" s="87"/>
+      <c r="W1" s="87"/>
+      <c r="X1" s="87"/>
+      <c r="Y1" s="87"/>
+      <c r="Z1" s="88"/>
+      <c r="AA1" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="85" t="s">
-        <v>3</v>
-      </c>
-      <c r="V1" s="75"/>
-      <c r="W1" s="75"/>
-      <c r="X1" s="75"/>
-      <c r="Y1" s="75"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="82" t="s">
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="85"/>
+      <c r="AD1" s="86" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE1" s="87"/>
+      <c r="AF1" s="87"/>
+      <c r="AG1" s="87"/>
+      <c r="AH1" s="88"/>
+      <c r="AI1" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="AB1" s="83"/>
-      <c r="AC1" s="84"/>
-      <c r="AD1" s="85" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE1" s="75"/>
-      <c r="AF1" s="75"/>
-      <c r="AG1" s="75"/>
-      <c r="AH1" s="76"/>
-      <c r="AI1" s="79" t="s">
-        <v>7</v>
-      </c>
-      <c r="AJ1" s="79"/>
-      <c r="AK1" s="79"/>
-      <c r="AL1" s="74">
+      <c r="AJ1" s="81"/>
+      <c r="AK1" s="81"/>
+      <c r="AL1" s="89">
         <v>42131</v>
       </c>
-      <c r="AM1" s="75"/>
-      <c r="AN1" s="75"/>
-      <c r="AO1" s="75"/>
-      <c r="AP1" s="76"/>
+      <c r="AM1" s="87"/>
+      <c r="AN1" s="87"/>
+      <c r="AO1" s="87"/>
+      <c r="AP1" s="88"/>
     </row>
     <row r="2" spans="1:122" x14ac:dyDescent="0.15">
       <c r="A2" s="48"/>
       <c r="D2" s="49" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E2" s="50">
         <f t="array" ref="E2">SUM(IF(MOD(ROW(J5:J146),2)=1,J5:J146,0))/20</f>
-        <v>0.35</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G2" s="51"/>
       <c r="H2" s="49" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I2" s="50">
         <f t="array" ref="I2">SUM(IF(MOD(ROW(J5:J146),2)=0,J5:J146,0))/20</f>
         <v>0</v>
       </c>
       <c r="J2" s="51" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K2" s="51"/>
       <c r="L2" s="51"/>
     </row>
     <row r="3" spans="1:122" ht="29.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="80" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="80" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="80" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="80" t="s">
+      <c r="A3" s="90" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="81" t="s">
-        <v>64</v>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="82" t="s">
+        <v>55</v>
       </c>
       <c r="J3" s="52" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K3" s="53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L3" s="53"/>
       <c r="M3" s="53"/>
@@ -3060,7 +3070,7 @@
       <c r="AD3" s="53"/>
       <c r="AE3" s="54"/>
       <c r="AF3" s="53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG3" s="53"/>
       <c r="AH3" s="53"/>
@@ -3093,7 +3103,7 @@
       <c r="BI3" s="53"/>
       <c r="BJ3" s="54"/>
       <c r="BK3" s="55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BL3" s="53"/>
       <c r="BM3" s="53"/>
@@ -3125,7 +3135,7 @@
       <c r="CM3" s="53"/>
       <c r="CN3" s="54"/>
       <c r="CO3" s="55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CP3" s="53"/>
       <c r="CQ3" s="53"/>
@@ -3158,29 +3168,29 @@
       <c r="DR3" s="54"/>
     </row>
     <row r="4" spans="1:122" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="78"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
+      <c r="A4" s="91"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
       <c r="E4" s="56" t="str">
         <f>データ!A2</f>
-        <v>担当A</v>
+        <v>佐藤</v>
       </c>
       <c r="F4" s="56" t="str">
         <f>データ!A3</f>
-        <v>担当B</v>
+        <v>加藤</v>
       </c>
       <c r="G4" s="56" t="str">
         <f>データ!A4</f>
-        <v>担当C</v>
+        <v>戸張</v>
       </c>
       <c r="H4" s="56" t="str">
         <f>IF(データ!A5&lt;&gt;"",データ!A5,"－")</f>
-        <v>担当D</v>
-      </c>
-      <c r="I4" s="81"/>
+        <v>－</v>
+      </c>
+      <c r="I4" s="82"/>
       <c r="J4" s="57" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K4" s="61">
         <v>42104</v>
@@ -3533,7 +3543,7 @@
       <c r="F5" s="67"/>
       <c r="G5" s="67"/>
       <c r="H5" s="67"/>
-      <c r="I5" s="86"/>
+      <c r="I5" s="74"/>
       <c r="J5" s="58" t="str">
         <f>IF(C5&lt;&gt;"",SUM(K5:DR5)/データ!$D$2,"")</f>
         <v/>
@@ -3660,7 +3670,7 @@
       <c r="F6" s="67"/>
       <c r="G6" s="67"/>
       <c r="H6" s="67"/>
-      <c r="I6" s="86"/>
+      <c r="I6" s="74"/>
       <c r="J6" s="59" t="str">
         <f>IF(C5&lt;&gt;"",SUM(K6:DR6)/データ!$D$2,"")</f>
         <v/>
@@ -3783,7 +3793,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="66" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="C7" s="70"/>
       <c r="D7" s="70"/>
@@ -3791,7 +3801,7 @@
       <c r="F7" s="67"/>
       <c r="G7" s="67"/>
       <c r="H7" s="67"/>
-      <c r="I7" s="86"/>
+      <c r="I7" s="74"/>
       <c r="J7" s="58" t="str">
         <f>IF(C7&lt;&gt;"",SUM(K7:DR7)/データ!$D$2,"")</f>
         <v/>
@@ -3918,7 +3928,7 @@
       <c r="F8" s="67"/>
       <c r="G8" s="67"/>
       <c r="H8" s="67"/>
-      <c r="I8" s="86"/>
+      <c r="I8" s="74"/>
       <c r="J8" s="59" t="str">
         <f>IF(C7&lt;&gt;"",SUM(K8:DR8)/データ!$D$2,"")</f>
         <v/>
@@ -4042,22 +4052,22 @@
       </c>
       <c r="B9" s="66"/>
       <c r="C9" s="70" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="D9" s="70" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E9" s="72" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F9" s="72" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G9" s="72" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H9" s="72" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I9" s="68">
         <v>0.1</v>
@@ -4324,23 +4334,21 @@
       </c>
       <c r="B11" s="66"/>
       <c r="C11" s="70" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D11" s="70" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E11" s="72" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F11" s="72" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G11" s="72" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="72" t="s">
-        <v>48</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="H11" s="72"/>
       <c r="I11" s="68">
         <v>0</v>
       </c>
@@ -4598,33 +4606,29 @@
     </row>
     <row r="13" spans="1:122" x14ac:dyDescent="0.15">
       <c r="A13" s="66">
-        <v>1.3</v>
-      </c>
-      <c r="B13" s="66"/>
-      <c r="C13" s="70" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="70" t="s">
-        <v>49</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B13" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
       <c r="E13" s="72" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F13" s="72" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G13" s="72" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="72" t="s">
-        <v>48</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="H13" s="72"/>
       <c r="I13" s="68">
         <v>0</v>
       </c>
-      <c r="J13" s="58">
+      <c r="J13" s="58" t="str">
         <f>IF(C13&lt;&gt;"",SUM(K13:DR13)/データ!$D$2,"")</f>
-        <v>1.5</v>
+        <v/>
       </c>
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
@@ -4751,9 +4755,9 @@
       <c r="G14" s="73"/>
       <c r="H14" s="73"/>
       <c r="I14" s="69"/>
-      <c r="J14" s="59">
+      <c r="J14" s="59" t="str">
         <f>IF(C13&lt;&gt;"",SUM(K14:DR14)/データ!$D$2,"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="K14" s="20"/>
       <c r="L14" s="20"/>
@@ -4869,18 +4873,28 @@
       <c r="DR14" s="21"/>
     </row>
     <row r="15" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A15" s="70"/>
+      <c r="A15" s="70">
+        <v>2.1</v>
+      </c>
       <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
+      <c r="C15" s="70" t="s">
+        <v>63</v>
+      </c>
       <c r="D15" s="70"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
+      <c r="E15" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="72" t="s">
+        <v>64</v>
+      </c>
       <c r="H15" s="72"/>
       <c r="I15" s="68"/>
-      <c r="J15" s="58" t="str">
+      <c r="J15" s="58">
         <f>IF(C15&lt;&gt;"",SUM(K15:DR15)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K15" s="18"/>
       <c r="L15" s="18"/>
@@ -5005,9 +5019,9 @@
       <c r="G16" s="73"/>
       <c r="H16" s="73"/>
       <c r="I16" s="69"/>
-      <c r="J16" s="59" t="str">
+      <c r="J16" s="59">
         <f>IF(C15&lt;&gt;"",SUM(K16:DR16)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K16" s="20"/>
       <c r="L16" s="20"/>
@@ -5123,18 +5137,28 @@
       <c r="DR16" s="21"/>
     </row>
     <row r="17" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A17" s="70"/>
+      <c r="A17" s="70">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
+      <c r="C17" s="70" t="s">
+        <v>61</v>
+      </c>
       <c r="D17" s="70"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
+      <c r="E17" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="72" t="s">
+        <v>64</v>
+      </c>
       <c r="H17" s="72"/>
       <c r="I17" s="68"/>
-      <c r="J17" s="58" t="str">
+      <c r="J17" s="58">
         <f>IF(C17&lt;&gt;"",SUM(K17:DR17)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K17" s="18"/>
       <c r="L17" s="18"/>
@@ -5259,9 +5283,9 @@
       <c r="G18" s="73"/>
       <c r="H18" s="73"/>
       <c r="I18" s="69"/>
-      <c r="J18" s="59" t="str">
+      <c r="J18" s="59">
         <f>IF(C17&lt;&gt;"",SUM(K18:DR18)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K18" s="20"/>
       <c r="L18" s="20"/>
@@ -5377,8 +5401,12 @@
       <c r="DR18" s="21"/>
     </row>
     <row r="19" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A19" s="70"/>
-      <c r="B19" s="70"/>
+      <c r="A19" s="70">
+        <v>3</v>
+      </c>
+      <c r="B19" s="70" t="s">
+        <v>68</v>
+      </c>
       <c r="C19" s="70"/>
       <c r="D19" s="70"/>
       <c r="E19" s="72"/>
@@ -5631,18 +5659,22 @@
       <c r="DR20" s="21"/>
     </row>
     <row r="21" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="70"/>
+      <c r="A21" s="70">
+        <v>3.1</v>
+      </c>
       <c r="B21" s="70"/>
-      <c r="C21" s="70"/>
+      <c r="C21" s="70" t="s">
+        <v>70</v>
+      </c>
       <c r="D21" s="70"/>
       <c r="E21" s="72"/>
       <c r="F21" s="72"/>
       <c r="G21" s="72"/>
       <c r="H21" s="72"/>
       <c r="I21" s="68"/>
-      <c r="J21" s="58" t="str">
+      <c r="J21" s="58">
         <f>IF(C21&lt;&gt;"",SUM(K21:DR21)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K21" s="18"/>
       <c r="L21" s="18"/>
@@ -5767,9 +5799,9 @@
       <c r="G22" s="73"/>
       <c r="H22" s="73"/>
       <c r="I22" s="69"/>
-      <c r="J22" s="59" t="str">
+      <c r="J22" s="59">
         <f>IF(C21&lt;&gt;"",SUM(K22:DR22)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K22" s="20"/>
       <c r="L22" s="20"/>
@@ -5885,18 +5917,22 @@
       <c r="DR22" s="21"/>
     </row>
     <row r="23" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A23" s="70"/>
+      <c r="A23" s="70">
+        <v>3.2</v>
+      </c>
       <c r="B23" s="70"/>
-      <c r="C23" s="70"/>
+      <c r="C23" s="70" t="s">
+        <v>71</v>
+      </c>
       <c r="D23" s="70"/>
       <c r="E23" s="72"/>
       <c r="F23" s="72"/>
       <c r="G23" s="72"/>
       <c r="H23" s="72"/>
       <c r="I23" s="68"/>
-      <c r="J23" s="58" t="str">
+      <c r="J23" s="58">
         <f>IF(C23&lt;&gt;"",SUM(K23:DR23)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K23" s="18"/>
       <c r="L23" s="18"/>
@@ -6021,9 +6057,9 @@
       <c r="G24" s="73"/>
       <c r="H24" s="73"/>
       <c r="I24" s="69"/>
-      <c r="J24" s="59" t="str">
+      <c r="J24" s="59">
         <f>IF(C23&lt;&gt;"",SUM(K24:DR24)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K24" s="20"/>
       <c r="L24" s="20"/>
@@ -6139,7 +6175,9 @@
       <c r="DR24" s="21"/>
     </row>
     <row r="25" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="70"/>
+      <c r="A25" s="70">
+        <v>3.3</v>
+      </c>
       <c r="B25" s="70"/>
       <c r="C25" s="70"/>
       <c r="D25" s="70"/>
@@ -6393,7 +6431,9 @@
       <c r="DR26" s="21"/>
     </row>
     <row r="27" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="70"/>
+      <c r="A27" s="70">
+        <v>3.4</v>
+      </c>
       <c r="B27" s="70"/>
       <c r="C27" s="70"/>
       <c r="D27" s="70"/>
@@ -6647,7 +6687,9 @@
       <c r="DR28" s="21"/>
     </row>
     <row r="29" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A29" s="70"/>
+      <c r="A29" s="70">
+        <v>3.5</v>
+      </c>
       <c r="B29" s="70"/>
       <c r="C29" s="70"/>
       <c r="D29" s="70"/>
@@ -6901,7 +6943,9 @@
       <c r="DR30" s="21"/>
     </row>
     <row r="31" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A31" s="70"/>
+      <c r="A31" s="70">
+        <v>3.6</v>
+      </c>
       <c r="B31" s="70"/>
       <c r="C31" s="70"/>
       <c r="D31" s="70"/>
@@ -7155,7 +7199,9 @@
       <c r="DR32" s="21"/>
     </row>
     <row r="33" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="70"/>
+      <c r="A33" s="70">
+        <v>3.7</v>
+      </c>
       <c r="B33" s="70"/>
       <c r="C33" s="70"/>
       <c r="D33" s="70"/>
@@ -7409,7 +7455,9 @@
       <c r="DR34" s="21"/>
     </row>
     <row r="35" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A35" s="70"/>
+      <c r="A35" s="70">
+        <v>3.8</v>
+      </c>
       <c r="B35" s="70"/>
       <c r="C35" s="70"/>
       <c r="D35" s="70"/>
@@ -7663,7 +7711,9 @@
       <c r="DR36" s="21"/>
     </row>
     <row r="37" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A37" s="70"/>
+      <c r="A37" s="70">
+        <v>3.9</v>
+      </c>
       <c r="B37" s="70"/>
       <c r="C37" s="70"/>
       <c r="D37" s="70"/>
@@ -7917,7 +7967,9 @@
       <c r="DR38" s="21"/>
     </row>
     <row r="39" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="70"/>
+      <c r="A39" s="70" t="s">
+        <v>67</v>
+      </c>
       <c r="B39" s="70"/>
       <c r="C39" s="70"/>
       <c r="D39" s="70"/>
@@ -8171,7 +8223,9 @@
       <c r="DR40" s="21"/>
     </row>
     <row r="41" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A41" s="70"/>
+      <c r="A41" s="70">
+        <v>3.11</v>
+      </c>
       <c r="B41" s="70"/>
       <c r="C41" s="70"/>
       <c r="D41" s="70"/>
@@ -21635,7 +21689,7 @@
     <row r="148" spans="1:123" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A148" s="10"/>
       <c r="J148" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K148" s="13">
         <f t="array" ref="K148">SUM(IF(MOD(ROW(K$5:K$146),2)=1,K$5:K$146,0))</f>
@@ -22089,7 +22143,7 @@
     <row r="149" spans="1:123" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A149" s="10"/>
       <c r="J149" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K149" s="13">
         <f t="array" ref="K149">SUM(IF(MOD(ROW(K$5:K$146),2)=0,K$5:K$146,0))</f>
@@ -22543,7 +22597,7 @@
     <row r="150" spans="1:123" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A150" s="10"/>
       <c r="J150" s="12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K150" s="13">
         <f t="shared" ref="K150:AP150" si="0">SUM(K157:K192)</f>
@@ -22998,7 +23052,7 @@
     <row r="151" spans="1:123" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A151" s="10"/>
       <c r="J151" s="12" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K151" s="16">
         <f>K4</f>
@@ -23453,7 +23507,7 @@
     <row r="152" spans="1:123" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A152" s="10"/>
       <c r="J152" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K152" s="15">
         <f>K148</f>
@@ -23907,7 +23961,7 @@
     <row r="153" spans="1:123" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A153" s="10"/>
       <c r="J153" s="12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="K153" s="15">
         <f>K149</f>
@@ -24361,7 +24415,7 @@
     <row r="154" spans="1:123" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A154" s="10"/>
       <c r="J154" s="12" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="K154" s="15">
         <f>SUM(K157:K227)*データ!$D$2</f>
@@ -24834,7 +24888,7 @@
     <row r="157" spans="1:123" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A157" s="10"/>
       <c r="J157" s="12" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K157" s="14">
         <f>IF($J5&lt;&gt;"",$I5*IF(COUNTA(L6:$DR6)=0,$J5,0),0)</f>
@@ -56809,372 +56863,269 @@
     <filterColumn colId="0" showButton="0"/>
   </autoFilter>
   <mergeCells count="653">
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="E125:E126"/>
-    <mergeCell ref="F125:F126"/>
-    <mergeCell ref="G125:G126"/>
-    <mergeCell ref="H125:H126"/>
-    <mergeCell ref="I125:I126"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="G123:G124"/>
-    <mergeCell ref="H123:H124"/>
-    <mergeCell ref="I123:I124"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="F121:F122"/>
-    <mergeCell ref="G121:G122"/>
-    <mergeCell ref="H121:H122"/>
-    <mergeCell ref="I121:I122"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="H119:H120"/>
-    <mergeCell ref="I119:I120"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="H117:H118"/>
-    <mergeCell ref="I117:I118"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="H115:H116"/>
-    <mergeCell ref="I115:I116"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="H113:H114"/>
-    <mergeCell ref="I113:I114"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="H111:H112"/>
-    <mergeCell ref="I111:I112"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="H109:H110"/>
-    <mergeCell ref="I109:I110"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="H107:H108"/>
-    <mergeCell ref="I107:I108"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="H105:H106"/>
-    <mergeCell ref="I105:I106"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="I103:I104"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="H99:H100"/>
-    <mergeCell ref="I99:I100"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="H97:H98"/>
-    <mergeCell ref="I97:I98"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="I95:I96"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E1:O1"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="E145:E146"/>
+    <mergeCell ref="F145:F146"/>
+    <mergeCell ref="G145:G146"/>
+    <mergeCell ref="H145:H146"/>
+    <mergeCell ref="I145:I146"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="G143:G144"/>
+    <mergeCell ref="H143:H144"/>
+    <mergeCell ref="I143:I144"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="G141:G142"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="I141:I142"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="E139:E140"/>
+    <mergeCell ref="F139:F140"/>
+    <mergeCell ref="G139:G140"/>
+    <mergeCell ref="H139:H140"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="D137:D138"/>
+    <mergeCell ref="E137:E138"/>
+    <mergeCell ref="F137:F138"/>
+    <mergeCell ref="G137:G138"/>
+    <mergeCell ref="H137:H138"/>
+    <mergeCell ref="I137:I138"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="D135:D136"/>
+    <mergeCell ref="E135:E136"/>
+    <mergeCell ref="F135:F136"/>
+    <mergeCell ref="G135:G136"/>
+    <mergeCell ref="H135:H136"/>
+    <mergeCell ref="I135:I136"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="F133:F134"/>
+    <mergeCell ref="G133:G134"/>
+    <mergeCell ref="H133:H134"/>
+    <mergeCell ref="I133:I134"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="F131:F132"/>
+    <mergeCell ref="G131:G132"/>
+    <mergeCell ref="H131:H132"/>
+    <mergeCell ref="I131:I132"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="D129:D130"/>
+    <mergeCell ref="E129:E130"/>
+    <mergeCell ref="F129:F130"/>
+    <mergeCell ref="G129:G130"/>
+    <mergeCell ref="H129:H130"/>
+    <mergeCell ref="I129:I130"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="F127:F128"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="H127:H128"/>
+    <mergeCell ref="I127:I128"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="AL1:AP1"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AH1"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="H37:H38"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="C35:C36"/>
@@ -57199,269 +57150,372 @@
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="F33:F34"/>
     <mergeCell ref="H33:H34"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AD1:AH1"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="AL1:AP1"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="E127:E128"/>
-    <mergeCell ref="F127:F128"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="H127:H128"/>
-    <mergeCell ref="I127:I128"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="D129:D130"/>
-    <mergeCell ref="E129:E130"/>
-    <mergeCell ref="F129:F130"/>
-    <mergeCell ref="G129:G130"/>
-    <mergeCell ref="H129:H130"/>
-    <mergeCell ref="I129:I130"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="E131:E132"/>
-    <mergeCell ref="F131:F132"/>
-    <mergeCell ref="G131:G132"/>
-    <mergeCell ref="H131:H132"/>
-    <mergeCell ref="I131:I132"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="E133:E134"/>
-    <mergeCell ref="F133:F134"/>
-    <mergeCell ref="G133:G134"/>
-    <mergeCell ref="H133:H134"/>
-    <mergeCell ref="I133:I134"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="D135:D136"/>
-    <mergeCell ref="E135:E136"/>
-    <mergeCell ref="F135:F136"/>
-    <mergeCell ref="G135:G136"/>
-    <mergeCell ref="H135:H136"/>
-    <mergeCell ref="I135:I136"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="D137:D138"/>
-    <mergeCell ref="E137:E138"/>
-    <mergeCell ref="F137:F138"/>
-    <mergeCell ref="G137:G138"/>
-    <mergeCell ref="H137:H138"/>
-    <mergeCell ref="I137:I138"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="C139:C140"/>
-    <mergeCell ref="D139:D140"/>
-    <mergeCell ref="E139:E140"/>
-    <mergeCell ref="F139:F140"/>
-    <mergeCell ref="G139:G140"/>
-    <mergeCell ref="H139:H140"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="D141:D142"/>
-    <mergeCell ref="E141:E142"/>
-    <mergeCell ref="F141:F142"/>
-    <mergeCell ref="G141:G142"/>
-    <mergeCell ref="H141:H142"/>
-    <mergeCell ref="I141:I142"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="D143:D144"/>
-    <mergeCell ref="E143:E144"/>
-    <mergeCell ref="F143:F144"/>
-    <mergeCell ref="G143:G144"/>
-    <mergeCell ref="H143:H144"/>
-    <mergeCell ref="I143:I144"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="E145:E146"/>
-    <mergeCell ref="F145:F146"/>
-    <mergeCell ref="G145:G146"/>
-    <mergeCell ref="H145:H146"/>
-    <mergeCell ref="I145:I146"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E1:O1"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="H97:H98"/>
+    <mergeCell ref="I97:I98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="H99:H100"/>
+    <mergeCell ref="I99:I100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="I103:I104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="H105:H106"/>
+    <mergeCell ref="I105:I106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="H107:H108"/>
+    <mergeCell ref="I107:I108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="H109:H110"/>
+    <mergeCell ref="I109:I110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="H111:H112"/>
+    <mergeCell ref="I111:I112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="H113:H114"/>
+    <mergeCell ref="I113:I114"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="G115:G116"/>
+    <mergeCell ref="H115:H116"/>
+    <mergeCell ref="I115:I116"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="H117:H118"/>
+    <mergeCell ref="I117:I118"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="H119:H120"/>
+    <mergeCell ref="I119:I120"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="G121:G122"/>
+    <mergeCell ref="H121:H122"/>
+    <mergeCell ref="I121:I122"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="G123:G124"/>
+    <mergeCell ref="H123:H124"/>
+    <mergeCell ref="I123:I124"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="F125:F126"/>
+    <mergeCell ref="G125:G126"/>
+    <mergeCell ref="H125:H126"/>
+    <mergeCell ref="I125:I126"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="K151:DR151 K4:DR70">
@@ -59665,7 +59719,7 @@
     </row>
     <row r="31" spans="1:113" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A31" s="24" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B31" s="25">
         <f t="shared" ref="B31:AG31" ca="1" si="0">IF(ISERR(B30-B28),NA(),B30-B28)</f>
@@ -60118,7 +60172,7 @@
     </row>
     <row r="32" spans="1:113" x14ac:dyDescent="0.15">
       <c r="A32" s="22" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B32" s="23">
         <f t="shared" ref="B32:AG32" ca="1" si="4">IF(ISERR(B30-B29),NA(),B30-B29)</f>
@@ -60571,7 +60625,7 @@
     </row>
     <row r="33" spans="1:113" x14ac:dyDescent="0.15">
       <c r="A33" s="22" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B33" s="28">
         <f t="shared" ref="B33:AG33" ca="1" si="8">IF(ISERR(B30/B28),NA(),B30/B28)</f>
@@ -61024,7 +61078,7 @@
     </row>
     <row r="34" spans="1:113" x14ac:dyDescent="0.15">
       <c r="A34" s="22" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B34" s="28" t="e">
         <f t="shared" ref="B34:AG34" ca="1" si="12">IF(ISERR(B30/B29),NA(),B30/B29)</f>
@@ -61521,56 +61575,56 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A1" s="38" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="33" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="39" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H4" s="37"/>
     </row>
@@ -61948,7 +62002,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -61959,25 +62013,25 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B1" s="92" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C1" s="92"/>
       <c r="D1" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="B2" s="8">
         <v>42124</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D2" s="9">
         <v>8</v>
@@ -61985,26 +62039,24 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="B3" s="8">
         <v>42125</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="C5" s="7"/>
     </row>

--- a/ガントチャート/PM演習_管理ツール_戸張研A班.xlsx
+++ b/ガントチャート/PM演習_管理ツール_戸張研A班.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\戸張　琢斗\Documents\GitHub\horiuchi-lab-teamA-\ガントチャート\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="18315" windowHeight="7110"/>
+    <workbookView xWindow="480" yWindow="585" windowWidth="18315" windowHeight="7110" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ガント" sheetId="1" r:id="rId1"/>
@@ -21,12 +26,12 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">ガント!$A:$J,ガント!$1:$4</definedName>
     <definedName name="Z_F3151B71_E979_4754_A481_4BA5C6EA412C_.wvu.FilterData" localSheetId="2" hidden="1">懸案!$A$3:$H$29</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="117">
   <si>
     <t>WBS番号</t>
     <rPh sb="3" eb="5">
@@ -636,6 +641,381 @@
     <t>スコープマネジメント</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>タイムマネジメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コストマネジメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品質マネジメント</t>
+    <rPh sb="0" eb="2">
+      <t>ヒンシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人的資源マネジメント</t>
+    <rPh sb="0" eb="4">
+      <t>ジンテキシゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニケーションマネジメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リスクマネジメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>調達マネジメント</t>
+    <rPh sb="0" eb="2">
+      <t>チョウタツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステークホルダーマネジメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コスト見積書</t>
+    <rPh sb="3" eb="6">
+      <t>ミツモリショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コスト見積書作成</t>
+    <rPh sb="3" eb="6">
+      <t>ミツモリショ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮契約書</t>
+    <rPh sb="0" eb="4">
+      <t>カリケイヤクショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮契約書作成</t>
+    <rPh sb="0" eb="4">
+      <t>カリケイヤクショ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部設計書</t>
+    <rPh sb="0" eb="5">
+      <t>ガイブセッケイショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト憲章確認</t>
+    <rPh sb="6" eb="8">
+      <t>ケンショウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム概要設計書作成</t>
+    <rPh sb="4" eb="6">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム機能設計書作成</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム画面設計書作成</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>理論データ設計書作成</t>
+    <rPh sb="0" eb="2">
+      <t>リロン</t>
+    </rPh>
+    <rPh sb="5" eb="10">
+      <t>セッケイショサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト計画書</t>
+    <rPh sb="3" eb="6">
+      <t>ケイカクショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト計画書作成</t>
+    <rPh sb="3" eb="6">
+      <t>ケイカクショ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中間発表資料</t>
+    <rPh sb="0" eb="4">
+      <t>チュウカンハッピョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中間発表資料作成</t>
+    <rPh sb="0" eb="4">
+      <t>チュウカンハッピョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中間発表</t>
+    <rPh sb="0" eb="4">
+      <t>チュウカンハッピョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引渡書</t>
+    <rPh sb="0" eb="3">
+      <t>ヒキワタシショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引渡書作成</t>
+    <rPh sb="0" eb="3">
+      <t>ヒキワタシショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクトマネジメント計画書（見直し）</t>
+    <rPh sb="12" eb="15">
+      <t>ケイカクショ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ミナオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクトマネジメント計画書の変更</t>
+    <rPh sb="12" eb="15">
+      <t>ケイカクショ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義書の変更</t>
+    <rPh sb="0" eb="5">
+      <t>ヨウケンテイギショ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト計画書の変更</t>
+    <rPh sb="3" eb="6">
+      <t>ケイカクショ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部設計書の変更</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コスト見積書（正式）</t>
+    <rPh sb="3" eb="6">
+      <t>ミツモリショ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本契約</t>
+    <rPh sb="0" eb="3">
+      <t>ホンケイヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本見積書作成</t>
+    <rPh sb="0" eb="4">
+      <t>ホンミツモリショ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本契約書作成</t>
+    <rPh sb="0" eb="4">
+      <t>ホンケイヤクショ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内部設計書</t>
+    <rPh sb="0" eb="5">
+      <t>ナイブセッケイショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム処理設計書作成</t>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物理データ設計書作成</t>
+    <rPh sb="0" eb="2">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プログラム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プログラミング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト報告書</t>
+    <rPh sb="3" eb="6">
+      <t>ホウコクショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単体テスト</t>
+    <rPh sb="0" eb="2">
+      <t>タンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総合テスト</t>
+    <rPh sb="0" eb="2">
+      <t>ソウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムテスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト報告書作成</t>
+    <rPh sb="3" eb="6">
+      <t>ホウコクショ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1076,7 +1456,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1332,35 +1712,29 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1378,26 +1752,36 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2375,13 +2759,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="126352896"/>
-        <c:axId val="126363328"/>
+        <c:axId val="439304792"/>
+        <c:axId val="439304008"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="126352896"/>
+        <c:axId val="439304792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2391,14 +2774,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126363328"/>
+        <c:crossAx val="439304008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="126363328"/>
+        <c:axId val="439304008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2419,7 +2802,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126352896"/>
+        <c:crossAx val="439304792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2624,7 +3007,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2666,7 +3049,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2701,7 +3084,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2912,11 +3295,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DS227"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="K11" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="10" ySplit="4" topLeftCell="K95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C21" sqref="C21:C22"/>
+      <selection pane="bottomRight" activeCell="C137" sqref="C137:C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2935,65 +3318,65 @@
       <c r="A1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="76"/>
+      <c r="C1" s="88"/>
       <c r="D1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="78" t="s">
+      <c r="E1" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="86" t="s">
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="87"/>
-      <c r="W1" s="87"/>
-      <c r="X1" s="87"/>
-      <c r="Y1" s="87"/>
-      <c r="Z1" s="88"/>
-      <c r="AA1" s="83" t="s">
+      <c r="V1" s="75"/>
+      <c r="W1" s="75"/>
+      <c r="X1" s="75"/>
+      <c r="Y1" s="75"/>
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="AB1" s="84"/>
-      <c r="AC1" s="85"/>
-      <c r="AD1" s="86" t="s">
+      <c r="AB1" s="83"/>
+      <c r="AC1" s="84"/>
+      <c r="AD1" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="AE1" s="87"/>
-      <c r="AF1" s="87"/>
-      <c r="AG1" s="87"/>
-      <c r="AH1" s="88"/>
-      <c r="AI1" s="81" t="s">
+      <c r="AE1" s="75"/>
+      <c r="AF1" s="75"/>
+      <c r="AG1" s="75"/>
+      <c r="AH1" s="76"/>
+      <c r="AI1" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="AJ1" s="81"/>
-      <c r="AK1" s="81"/>
-      <c r="AL1" s="89">
+      <c r="AJ1" s="79"/>
+      <c r="AK1" s="79"/>
+      <c r="AL1" s="74">
         <v>42131</v>
       </c>
-      <c r="AM1" s="87"/>
-      <c r="AN1" s="87"/>
-      <c r="AO1" s="87"/>
-      <c r="AP1" s="88"/>
+      <c r="AM1" s="75"/>
+      <c r="AN1" s="75"/>
+      <c r="AO1" s="75"/>
+      <c r="AP1" s="76"/>
     </row>
     <row r="2" spans="1:122" x14ac:dyDescent="0.15">
       <c r="A2" s="48"/>
@@ -3022,25 +3405,25 @@
       <c r="L2" s="51"/>
     </row>
     <row r="3" spans="1:122" ht="29.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="77" t="s">
+      <c r="E3" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="82" t="s">
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="81" t="s">
         <v>55</v>
       </c>
       <c r="J3" s="52" t="s">
@@ -3168,10 +3551,10 @@
       <c r="DR3" s="54"/>
     </row>
     <row r="4" spans="1:122" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="91"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
       <c r="E4" s="56" t="str">
         <f>データ!A2</f>
         <v>佐藤</v>
@@ -3188,7 +3571,7 @@
         <f>IF(データ!A5&lt;&gt;"",データ!A5,"－")</f>
         <v>－</v>
       </c>
-      <c r="I4" s="82"/>
+      <c r="I4" s="81"/>
       <c r="J4" s="57" t="s">
         <v>18</v>
       </c>
@@ -3543,7 +3926,7 @@
       <c r="F5" s="67"/>
       <c r="G5" s="67"/>
       <c r="H5" s="67"/>
-      <c r="I5" s="74"/>
+      <c r="I5" s="86"/>
       <c r="J5" s="58" t="str">
         <f>IF(C5&lt;&gt;"",SUM(K5:DR5)/データ!$D$2,"")</f>
         <v/>
@@ -3670,7 +4053,7 @@
       <c r="F6" s="67"/>
       <c r="G6" s="67"/>
       <c r="H6" s="67"/>
-      <c r="I6" s="74"/>
+      <c r="I6" s="86"/>
       <c r="J6" s="59" t="str">
         <f>IF(C5&lt;&gt;"",SUM(K6:DR6)/データ!$D$2,"")</f>
         <v/>
@@ -3801,7 +4184,7 @@
       <c r="F7" s="67"/>
       <c r="G7" s="67"/>
       <c r="H7" s="67"/>
-      <c r="I7" s="74"/>
+      <c r="I7" s="86"/>
       <c r="J7" s="58" t="str">
         <f>IF(C7&lt;&gt;"",SUM(K7:DR7)/データ!$D$2,"")</f>
         <v/>
@@ -3928,7 +4311,7 @@
       <c r="F8" s="67"/>
       <c r="G8" s="67"/>
       <c r="H8" s="67"/>
-      <c r="I8" s="74"/>
+      <c r="I8" s="86"/>
       <c r="J8" s="59" t="str">
         <f>IF(C7&lt;&gt;"",SUM(K8:DR8)/データ!$D$2,"")</f>
         <v/>
@@ -6179,16 +6562,18 @@
         <v>3.3</v>
       </c>
       <c r="B25" s="70"/>
-      <c r="C25" s="70"/>
+      <c r="C25" s="70" t="s">
+        <v>72</v>
+      </c>
       <c r="D25" s="70"/>
       <c r="E25" s="72"/>
       <c r="F25" s="72"/>
       <c r="G25" s="72"/>
       <c r="H25" s="72"/>
       <c r="I25" s="68"/>
-      <c r="J25" s="58" t="str">
+      <c r="J25" s="58">
         <f>IF(C25&lt;&gt;"",SUM(K25:DR25)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K25" s="18"/>
       <c r="L25" s="18"/>
@@ -6313,9 +6698,9 @@
       <c r="G26" s="73"/>
       <c r="H26" s="73"/>
       <c r="I26" s="69"/>
-      <c r="J26" s="59" t="str">
+      <c r="J26" s="59">
         <f>IF(C25&lt;&gt;"",SUM(K26:DR26)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K26" s="20"/>
       <c r="L26" s="20"/>
@@ -6435,16 +6820,18 @@
         <v>3.4</v>
       </c>
       <c r="B27" s="70"/>
-      <c r="C27" s="70"/>
+      <c r="C27" s="70" t="s">
+        <v>73</v>
+      </c>
       <c r="D27" s="70"/>
       <c r="E27" s="72"/>
       <c r="F27" s="72"/>
       <c r="G27" s="72"/>
       <c r="H27" s="72"/>
       <c r="I27" s="68"/>
-      <c r="J27" s="58" t="str">
+      <c r="J27" s="58">
         <f>IF(C27&lt;&gt;"",SUM(K27:DR27)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K27" s="18"/>
       <c r="L27" s="18"/>
@@ -6569,9 +6956,9 @@
       <c r="G28" s="73"/>
       <c r="H28" s="73"/>
       <c r="I28" s="69"/>
-      <c r="J28" s="59" t="str">
+      <c r="J28" s="59">
         <f>IF(C27&lt;&gt;"",SUM(K28:DR28)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K28" s="20"/>
       <c r="L28" s="20"/>
@@ -6691,16 +7078,18 @@
         <v>3.5</v>
       </c>
       <c r="B29" s="70"/>
-      <c r="C29" s="70"/>
+      <c r="C29" s="70" t="s">
+        <v>74</v>
+      </c>
       <c r="D29" s="70"/>
       <c r="E29" s="72"/>
       <c r="F29" s="72"/>
       <c r="G29" s="72"/>
       <c r="H29" s="72"/>
       <c r="I29" s="68"/>
-      <c r="J29" s="58" t="str">
+      <c r="J29" s="58">
         <f>IF(C29&lt;&gt;"",SUM(K29:DR29)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K29" s="18"/>
       <c r="L29" s="18"/>
@@ -6825,9 +7214,9 @@
       <c r="G30" s="73"/>
       <c r="H30" s="73"/>
       <c r="I30" s="69"/>
-      <c r="J30" s="59" t="str">
+      <c r="J30" s="59">
         <f>IF(C29&lt;&gt;"",SUM(K30:DR30)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K30" s="20"/>
       <c r="L30" s="20"/>
@@ -6947,16 +7336,18 @@
         <v>3.6</v>
       </c>
       <c r="B31" s="70"/>
-      <c r="C31" s="70"/>
+      <c r="C31" s="70" t="s">
+        <v>75</v>
+      </c>
       <c r="D31" s="70"/>
       <c r="E31" s="72"/>
       <c r="F31" s="72"/>
       <c r="G31" s="72"/>
       <c r="H31" s="72"/>
       <c r="I31" s="68"/>
-      <c r="J31" s="58" t="str">
+      <c r="J31" s="58">
         <f>IF(C31&lt;&gt;"",SUM(K31:DR31)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K31" s="18"/>
       <c r="L31" s="18"/>
@@ -7081,9 +7472,9 @@
       <c r="G32" s="73"/>
       <c r="H32" s="73"/>
       <c r="I32" s="69"/>
-      <c r="J32" s="59" t="str">
+      <c r="J32" s="59">
         <f>IF(C31&lt;&gt;"",SUM(K32:DR32)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K32" s="20"/>
       <c r="L32" s="20"/>
@@ -7203,16 +7594,18 @@
         <v>3.7</v>
       </c>
       <c r="B33" s="70"/>
-      <c r="C33" s="70"/>
+      <c r="C33" s="70" t="s">
+        <v>76</v>
+      </c>
       <c r="D33" s="70"/>
       <c r="E33" s="72"/>
       <c r="F33" s="72"/>
       <c r="G33" s="72"/>
       <c r="H33" s="72"/>
       <c r="I33" s="68"/>
-      <c r="J33" s="58" t="str">
+      <c r="J33" s="58">
         <f>IF(C33&lt;&gt;"",SUM(K33:DR33)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K33" s="18"/>
       <c r="L33" s="18"/>
@@ -7337,9 +7730,9 @@
       <c r="G34" s="73"/>
       <c r="H34" s="73"/>
       <c r="I34" s="69"/>
-      <c r="J34" s="59" t="str">
+      <c r="J34" s="59">
         <f>IF(C33&lt;&gt;"",SUM(K34:DR34)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K34" s="20"/>
       <c r="L34" s="20"/>
@@ -7459,16 +7852,18 @@
         <v>3.8</v>
       </c>
       <c r="B35" s="70"/>
-      <c r="C35" s="70"/>
+      <c r="C35" s="70" t="s">
+        <v>77</v>
+      </c>
       <c r="D35" s="70"/>
       <c r="E35" s="72"/>
       <c r="F35" s="72"/>
       <c r="G35" s="72"/>
       <c r="H35" s="72"/>
       <c r="I35" s="68"/>
-      <c r="J35" s="58" t="str">
+      <c r="J35" s="58">
         <f>IF(C35&lt;&gt;"",SUM(K35:DR35)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K35" s="18"/>
       <c r="L35" s="18"/>
@@ -7593,9 +7988,9 @@
       <c r="G36" s="73"/>
       <c r="H36" s="73"/>
       <c r="I36" s="69"/>
-      <c r="J36" s="59" t="str">
+      <c r="J36" s="59">
         <f>IF(C35&lt;&gt;"",SUM(K36:DR36)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K36" s="20"/>
       <c r="L36" s="20"/>
@@ -7715,16 +8110,18 @@
         <v>3.9</v>
       </c>
       <c r="B37" s="70"/>
-      <c r="C37" s="70"/>
+      <c r="C37" s="70" t="s">
+        <v>78</v>
+      </c>
       <c r="D37" s="70"/>
       <c r="E37" s="72"/>
       <c r="F37" s="72"/>
       <c r="G37" s="72"/>
       <c r="H37" s="72"/>
       <c r="I37" s="68"/>
-      <c r="J37" s="58" t="str">
+      <c r="J37" s="58">
         <f>IF(C37&lt;&gt;"",SUM(K37:DR37)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K37" s="18"/>
       <c r="L37" s="18"/>
@@ -7849,9 +8246,9 @@
       <c r="G38" s="73"/>
       <c r="H38" s="73"/>
       <c r="I38" s="69"/>
-      <c r="J38" s="59" t="str">
+      <c r="J38" s="59">
         <f>IF(C37&lt;&gt;"",SUM(K38:DR38)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K38" s="20"/>
       <c r="L38" s="20"/>
@@ -7971,16 +8368,18 @@
         <v>67</v>
       </c>
       <c r="B39" s="70"/>
-      <c r="C39" s="70"/>
+      <c r="C39" s="70" t="s">
+        <v>79</v>
+      </c>
       <c r="D39" s="70"/>
       <c r="E39" s="72"/>
       <c r="F39" s="72"/>
       <c r="G39" s="72"/>
       <c r="H39" s="72"/>
       <c r="I39" s="68"/>
-      <c r="J39" s="58" t="str">
+      <c r="J39" s="58">
         <f>IF(C39&lt;&gt;"",SUM(K39:DR39)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K39" s="18"/>
       <c r="L39" s="18"/>
@@ -8105,9 +8504,9 @@
       <c r="G40" s="73"/>
       <c r="H40" s="73"/>
       <c r="I40" s="69"/>
-      <c r="J40" s="59" t="str">
+      <c r="J40" s="59">
         <f>IF(C39&lt;&gt;"",SUM(K40:DR40)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K40" s="20"/>
       <c r="L40" s="20"/>
@@ -8227,16 +8626,18 @@
         <v>3.11</v>
       </c>
       <c r="B41" s="70"/>
-      <c r="C41" s="70"/>
+      <c r="C41" s="70" t="s">
+        <v>80</v>
+      </c>
       <c r="D41" s="70"/>
       <c r="E41" s="72"/>
       <c r="F41" s="72"/>
       <c r="G41" s="72"/>
       <c r="H41" s="72"/>
       <c r="I41" s="68"/>
-      <c r="J41" s="58" t="str">
+      <c r="J41" s="58">
         <f>IF(C41&lt;&gt;"",SUM(K41:DR41)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K41" s="18"/>
       <c r="L41" s="18"/>
@@ -8361,9 +8762,9 @@
       <c r="G42" s="73"/>
       <c r="H42" s="73"/>
       <c r="I42" s="69"/>
-      <c r="J42" s="59" t="str">
+      <c r="J42" s="59">
         <f>IF(C41&lt;&gt;"",SUM(K42:DR42)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K42" s="20"/>
       <c r="L42" s="20"/>
@@ -8479,8 +8880,12 @@
       <c r="DR42" s="21"/>
     </row>
     <row r="43" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A43" s="66"/>
-      <c r="B43" s="66"/>
+      <c r="A43" s="66">
+        <v>4</v>
+      </c>
+      <c r="B43" s="66" t="s">
+        <v>81</v>
+      </c>
       <c r="C43" s="66"/>
       <c r="D43" s="66"/>
       <c r="E43" s="67"/>
@@ -8733,18 +9138,22 @@
       <c r="DR44" s="21"/>
     </row>
     <row r="45" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A45" s="66"/>
+      <c r="A45" s="66">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="B45" s="66"/>
-      <c r="C45" s="66"/>
+      <c r="C45" s="66" t="s">
+        <v>82</v>
+      </c>
       <c r="D45" s="66"/>
       <c r="E45" s="67"/>
       <c r="F45" s="67"/>
       <c r="G45" s="67"/>
       <c r="H45" s="67"/>
       <c r="I45" s="68"/>
-      <c r="J45" s="58" t="str">
+      <c r="J45" s="58">
         <f>IF(C45&lt;&gt;"",SUM(K45:DR45)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K45" s="18"/>
       <c r="L45" s="18"/>
@@ -8869,9 +9278,9 @@
       <c r="G46" s="67"/>
       <c r="H46" s="67"/>
       <c r="I46" s="69"/>
-      <c r="J46" s="59" t="str">
+      <c r="J46" s="59">
         <f>IF(C45&lt;&gt;"",SUM(K46:DR46)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K46" s="20"/>
       <c r="L46" s="20"/>
@@ -8987,18 +9396,22 @@
       <c r="DR46" s="21"/>
     </row>
     <row r="47" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A47" s="66"/>
+      <c r="A47" s="66">
+        <v>4.2</v>
+      </c>
       <c r="B47" s="66"/>
-      <c r="C47" s="66"/>
+      <c r="C47" s="66" t="s">
+        <v>80</v>
+      </c>
       <c r="D47" s="66"/>
       <c r="E47" s="67"/>
       <c r="F47" s="67"/>
       <c r="G47" s="67"/>
       <c r="H47" s="67"/>
       <c r="I47" s="68"/>
-      <c r="J47" s="58" t="str">
+      <c r="J47" s="58">
         <f>IF(C47&lt;&gt;"",SUM(K47:DR47)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K47" s="18"/>
       <c r="L47" s="18"/>
@@ -9123,9 +9536,9 @@
       <c r="G48" s="67"/>
       <c r="H48" s="67"/>
       <c r="I48" s="69"/>
-      <c r="J48" s="59" t="str">
+      <c r="J48" s="59">
         <f>IF(C47&lt;&gt;"",SUM(K48:DR48)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K48" s="20"/>
       <c r="L48" s="20"/>
@@ -9241,8 +9654,12 @@
       <c r="DR48" s="21"/>
     </row>
     <row r="49" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A49" s="66"/>
-      <c r="B49" s="66"/>
+      <c r="A49" s="66">
+        <v>5</v>
+      </c>
+      <c r="B49" s="66" t="s">
+        <v>83</v>
+      </c>
       <c r="C49" s="66"/>
       <c r="D49" s="66"/>
       <c r="E49" s="67"/>
@@ -9495,18 +9912,22 @@
       <c r="DR50" s="21"/>
     </row>
     <row r="51" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A51" s="66"/>
+      <c r="A51" s="66">
+        <v>5.0999999999999996</v>
+      </c>
       <c r="B51" s="66"/>
-      <c r="C51" s="66"/>
+      <c r="C51" s="66" t="s">
+        <v>84</v>
+      </c>
       <c r="D51" s="66"/>
       <c r="E51" s="67"/>
       <c r="F51" s="67"/>
       <c r="G51" s="67"/>
       <c r="H51" s="67"/>
       <c r="I51" s="68"/>
-      <c r="J51" s="58" t="str">
+      <c r="J51" s="58">
         <f>IF(C51&lt;&gt;"",SUM(K51:DR51)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K51" s="18"/>
       <c r="L51" s="18"/>
@@ -9631,9 +10052,9 @@
       <c r="G52" s="67"/>
       <c r="H52" s="67"/>
       <c r="I52" s="69"/>
-      <c r="J52" s="59" t="str">
+      <c r="J52" s="59">
         <f>IF(C51&lt;&gt;"",SUM(K52:DR52)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K52" s="20"/>
       <c r="L52" s="20"/>
@@ -9749,18 +10170,22 @@
       <c r="DR52" s="21"/>
     </row>
     <row r="53" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A53" s="66"/>
+      <c r="A53" s="66">
+        <v>5.2</v>
+      </c>
       <c r="B53" s="66"/>
-      <c r="C53" s="66"/>
+      <c r="C53" s="66" t="s">
+        <v>80</v>
+      </c>
       <c r="D53" s="66"/>
       <c r="E53" s="67"/>
       <c r="F53" s="67"/>
       <c r="G53" s="67"/>
       <c r="H53" s="67"/>
       <c r="I53" s="68"/>
-      <c r="J53" s="58" t="str">
+      <c r="J53" s="58">
         <f>IF(C53&lt;&gt;"",SUM(K53:DR53)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K53" s="18"/>
       <c r="L53" s="18"/>
@@ -9885,9 +10310,9 @@
       <c r="G54" s="67"/>
       <c r="H54" s="67"/>
       <c r="I54" s="69"/>
-      <c r="J54" s="59" t="str">
+      <c r="J54" s="59">
         <f>IF(C53&lt;&gt;"",SUM(K54:DR54)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K54" s="20"/>
       <c r="L54" s="20"/>
@@ -10003,8 +10428,12 @@
       <c r="DR54" s="21"/>
     </row>
     <row r="55" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A55" s="66"/>
-      <c r="B55" s="66"/>
+      <c r="A55" s="66">
+        <v>6</v>
+      </c>
+      <c r="B55" s="66" t="s">
+        <v>85</v>
+      </c>
       <c r="C55" s="66"/>
       <c r="D55" s="66"/>
       <c r="E55" s="67"/>
@@ -10257,18 +10686,22 @@
       <c r="DR56" s="21"/>
     </row>
     <row r="57" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A57" s="66"/>
+      <c r="A57" s="66">
+        <v>6.1</v>
+      </c>
       <c r="B57" s="66"/>
-      <c r="C57" s="66"/>
+      <c r="C57" s="66" t="s">
+        <v>86</v>
+      </c>
       <c r="D57" s="66"/>
       <c r="E57" s="67"/>
       <c r="F57" s="67"/>
       <c r="G57" s="67"/>
       <c r="H57" s="67"/>
       <c r="I57" s="68"/>
-      <c r="J57" s="58" t="str">
+      <c r="J57" s="58">
         <f>IF(C57&lt;&gt;"",SUM(K57:DR57)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K57" s="18"/>
       <c r="L57" s="18"/>
@@ -10393,9 +10826,9 @@
       <c r="G58" s="67"/>
       <c r="H58" s="67"/>
       <c r="I58" s="69"/>
-      <c r="J58" s="59" t="str">
+      <c r="J58" s="59">
         <f>IF(C57&lt;&gt;"",SUM(K58:DR58)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K58" s="20"/>
       <c r="L58" s="20"/>
@@ -10511,18 +10944,22 @@
       <c r="DR58" s="21"/>
     </row>
     <row r="59" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A59" s="66"/>
+      <c r="A59" s="66">
+        <v>6.2</v>
+      </c>
       <c r="B59" s="66"/>
-      <c r="C59" s="66"/>
+      <c r="C59" s="66" t="s">
+        <v>87</v>
+      </c>
       <c r="D59" s="66"/>
       <c r="E59" s="67"/>
       <c r="F59" s="67"/>
       <c r="G59" s="67"/>
       <c r="H59" s="67"/>
       <c r="I59" s="68"/>
-      <c r="J59" s="58" t="str">
+      <c r="J59" s="58">
         <f>IF(C59&lt;&gt;"",SUM(K59:DR59)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K59" s="18"/>
       <c r="L59" s="18"/>
@@ -10647,9 +11084,9 @@
       <c r="G60" s="67"/>
       <c r="H60" s="67"/>
       <c r="I60" s="69"/>
-      <c r="J60" s="59" t="str">
+      <c r="J60" s="59">
         <f>IF(C59&lt;&gt;"",SUM(K60:DR60)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K60" s="20"/>
       <c r="L60" s="20"/>
@@ -10765,18 +11202,22 @@
       <c r="DR60" s="21"/>
     </row>
     <row r="61" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A61" s="66"/>
+      <c r="A61" s="66">
+        <v>6.3</v>
+      </c>
       <c r="B61" s="66"/>
-      <c r="C61" s="66"/>
+      <c r="C61" s="66" t="s">
+        <v>88</v>
+      </c>
       <c r="D61" s="66"/>
       <c r="E61" s="67"/>
       <c r="F61" s="67"/>
       <c r="G61" s="67"/>
       <c r="H61" s="67"/>
       <c r="I61" s="68"/>
-      <c r="J61" s="58" t="str">
+      <c r="J61" s="58">
         <f>IF(C61&lt;&gt;"",SUM(K61:DR61)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K61" s="18"/>
       <c r="L61" s="18"/>
@@ -10901,9 +11342,9 @@
       <c r="G62" s="67"/>
       <c r="H62" s="67"/>
       <c r="I62" s="69"/>
-      <c r="J62" s="59" t="str">
+      <c r="J62" s="59">
         <f>IF(C61&lt;&gt;"",SUM(K62:DR62)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K62" s="20"/>
       <c r="L62" s="20"/>
@@ -11019,18 +11460,22 @@
       <c r="DR62" s="21"/>
     </row>
     <row r="63" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A63" s="66"/>
+      <c r="A63" s="66">
+        <v>6.4</v>
+      </c>
       <c r="B63" s="66"/>
-      <c r="C63" s="66"/>
+      <c r="C63" s="66" t="s">
+        <v>89</v>
+      </c>
       <c r="D63" s="66"/>
       <c r="E63" s="67"/>
       <c r="F63" s="67"/>
       <c r="G63" s="67"/>
       <c r="H63" s="67"/>
       <c r="I63" s="68"/>
-      <c r="J63" s="58" t="str">
+      <c r="J63" s="58">
         <f>IF(C63&lt;&gt;"",SUM(K63:DR63)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K63" s="18"/>
       <c r="L63" s="18"/>
@@ -11155,9 +11600,9 @@
       <c r="G64" s="67"/>
       <c r="H64" s="67"/>
       <c r="I64" s="69"/>
-      <c r="J64" s="59" t="str">
+      <c r="J64" s="59">
         <f>IF(C63&lt;&gt;"",SUM(K64:DR64)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K64" s="20"/>
       <c r="L64" s="20"/>
@@ -11273,18 +11718,22 @@
       <c r="DR64" s="21"/>
     </row>
     <row r="65" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A65" s="70"/>
+      <c r="A65" s="66">
+        <v>6.5</v>
+      </c>
       <c r="B65" s="70"/>
-      <c r="C65" s="70"/>
+      <c r="C65" s="70" t="s">
+        <v>90</v>
+      </c>
       <c r="D65" s="70"/>
       <c r="E65" s="72"/>
       <c r="F65" s="72"/>
       <c r="G65" s="72"/>
       <c r="H65" s="72"/>
       <c r="I65" s="68"/>
-      <c r="J65" s="58" t="str">
+      <c r="J65" s="58">
         <f>IF(C65&lt;&gt;"",SUM(K65:DR65)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K65" s="18"/>
       <c r="L65" s="18"/>
@@ -11400,7 +11849,7 @@
       <c r="DR65" s="19"/>
     </row>
     <row r="66" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A66" s="71"/>
+      <c r="A66" s="66"/>
       <c r="B66" s="71"/>
       <c r="C66" s="71"/>
       <c r="D66" s="71"/>
@@ -11409,9 +11858,9 @@
       <c r="G66" s="73"/>
       <c r="H66" s="73"/>
       <c r="I66" s="69"/>
-      <c r="J66" s="59" t="str">
+      <c r="J66" s="59">
         <f>IF(C65&lt;&gt;"",SUM(K66:DR66)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K66" s="20"/>
       <c r="L66" s="20"/>
@@ -11527,18 +11976,22 @@
       <c r="DR66" s="21"/>
     </row>
     <row r="67" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A67" s="66"/>
+      <c r="A67" s="66">
+        <v>6.6</v>
+      </c>
       <c r="B67" s="66"/>
-      <c r="C67" s="66"/>
+      <c r="C67" s="66" t="s">
+        <v>80</v>
+      </c>
       <c r="D67" s="66"/>
       <c r="E67" s="67"/>
       <c r="F67" s="67"/>
       <c r="G67" s="67"/>
       <c r="H67" s="67"/>
       <c r="I67" s="68"/>
-      <c r="J67" s="58" t="str">
+      <c r="J67" s="58">
         <f>IF(C67&lt;&gt;"",SUM(K67:DR67)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K67" s="18"/>
       <c r="L67" s="18"/>
@@ -11663,9 +12116,9 @@
       <c r="G68" s="67"/>
       <c r="H68" s="67"/>
       <c r="I68" s="69"/>
-      <c r="J68" s="59" t="str">
+      <c r="J68" s="59">
         <f>IF(C67&lt;&gt;"",SUM(K68:DR68)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K68" s="20"/>
       <c r="L68" s="20"/>
@@ -11781,8 +12234,12 @@
       <c r="DR68" s="21"/>
     </row>
     <row r="69" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A69" s="66"/>
-      <c r="B69" s="66"/>
+      <c r="A69" s="66">
+        <v>7</v>
+      </c>
+      <c r="B69" s="66" t="s">
+        <v>91</v>
+      </c>
       <c r="C69" s="66"/>
       <c r="D69" s="66"/>
       <c r="E69" s="67"/>
@@ -12035,18 +12492,22 @@
       <c r="DR70" s="21"/>
     </row>
     <row r="71" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A71" s="70"/>
+      <c r="A71" s="70">
+        <v>7.1</v>
+      </c>
       <c r="B71" s="70"/>
-      <c r="C71" s="70"/>
+      <c r="C71" s="70" t="s">
+        <v>92</v>
+      </c>
       <c r="D71" s="70"/>
       <c r="E71" s="72"/>
       <c r="F71" s="72"/>
       <c r="G71" s="72"/>
       <c r="H71" s="72"/>
       <c r="I71" s="68"/>
-      <c r="J71" s="58" t="str">
+      <c r="J71" s="58">
         <f>IF(C71&lt;&gt;"",SUM(K71:DR71)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K71" s="18"/>
       <c r="L71" s="18"/>
@@ -12171,9 +12632,9 @@
       <c r="G72" s="73"/>
       <c r="H72" s="73"/>
       <c r="I72" s="69"/>
-      <c r="J72" s="59" t="str">
+      <c r="J72" s="59">
         <f>IF(C71&lt;&gt;"",SUM(K72:DR72)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K72" s="20"/>
       <c r="L72" s="20"/>
@@ -12289,18 +12750,22 @@
       <c r="DR72" s="21"/>
     </row>
     <row r="73" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A73" s="70"/>
+      <c r="A73" s="70">
+        <v>7.2</v>
+      </c>
       <c r="B73" s="70"/>
-      <c r="C73" s="70"/>
+      <c r="C73" s="70" t="s">
+        <v>80</v>
+      </c>
       <c r="D73" s="70"/>
       <c r="E73" s="72"/>
       <c r="F73" s="72"/>
       <c r="G73" s="72"/>
       <c r="H73" s="72"/>
       <c r="I73" s="68"/>
-      <c r="J73" s="58" t="str">
+      <c r="J73" s="58">
         <f>IF(C73&lt;&gt;"",SUM(K73:DR73)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K73" s="18"/>
       <c r="L73" s="18"/>
@@ -12425,9 +12890,9 @@
       <c r="G74" s="73"/>
       <c r="H74" s="73"/>
       <c r="I74" s="69"/>
-      <c r="J74" s="59" t="str">
+      <c r="J74" s="59">
         <f>IF(C73&lt;&gt;"",SUM(K74:DR74)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K74" s="20"/>
       <c r="L74" s="20"/>
@@ -12543,8 +13008,12 @@
       <c r="DR74" s="21"/>
     </row>
     <row r="75" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A75" s="70"/>
-      <c r="B75" s="70"/>
+      <c r="A75" s="70">
+        <v>8</v>
+      </c>
+      <c r="B75" s="70" t="s">
+        <v>93</v>
+      </c>
       <c r="C75" s="70"/>
       <c r="D75" s="70"/>
       <c r="E75" s="72"/>
@@ -12797,18 +13266,22 @@
       <c r="DR76" s="21"/>
     </row>
     <row r="77" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="70"/>
+      <c r="A77" s="70">
+        <v>8.1</v>
+      </c>
       <c r="B77" s="70"/>
-      <c r="C77" s="70"/>
+      <c r="C77" s="70" t="s">
+        <v>94</v>
+      </c>
       <c r="D77" s="70"/>
       <c r="E77" s="72"/>
       <c r="F77" s="72"/>
       <c r="G77" s="72"/>
       <c r="H77" s="72"/>
       <c r="I77" s="68"/>
-      <c r="J77" s="58" t="str">
+      <c r="J77" s="58">
         <f>IF(C77&lt;&gt;"",SUM(K77:DR77)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K77" s="18"/>
       <c r="L77" s="18"/>
@@ -12933,9 +13406,9 @@
       <c r="G78" s="73"/>
       <c r="H78" s="73"/>
       <c r="I78" s="69"/>
-      <c r="J78" s="59" t="str">
+      <c r="J78" s="59">
         <f>IF(C77&lt;&gt;"",SUM(K78:DR78)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K78" s="20"/>
       <c r="L78" s="20"/>
@@ -13051,18 +13524,22 @@
       <c r="DR78" s="21"/>
     </row>
     <row r="79" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A79" s="70"/>
+      <c r="A79" s="70">
+        <v>8.1999999999999993</v>
+      </c>
       <c r="B79" s="70"/>
-      <c r="C79" s="70"/>
+      <c r="C79" s="70" t="s">
+        <v>95</v>
+      </c>
       <c r="D79" s="70"/>
       <c r="E79" s="72"/>
       <c r="F79" s="72"/>
       <c r="G79" s="72"/>
       <c r="H79" s="72"/>
       <c r="I79" s="68"/>
-      <c r="J79" s="58" t="str">
+      <c r="J79" s="58">
         <f>IF(C79&lt;&gt;"",SUM(K79:DR79)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K79" s="18"/>
       <c r="L79" s="18"/>
@@ -13187,9 +13664,9 @@
       <c r="G80" s="73"/>
       <c r="H80" s="73"/>
       <c r="I80" s="69"/>
-      <c r="J80" s="59" t="str">
+      <c r="J80" s="59">
         <f>IF(C79&lt;&gt;"",SUM(K80:DR80)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K80" s="20"/>
       <c r="L80" s="20"/>
@@ -13305,8 +13782,12 @@
       <c r="DR80" s="21"/>
     </row>
     <row r="81" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="70"/>
-      <c r="B81" s="70"/>
+      <c r="A81" s="70">
+        <v>9</v>
+      </c>
+      <c r="B81" s="70" t="s">
+        <v>96</v>
+      </c>
       <c r="C81" s="70"/>
       <c r="D81" s="70"/>
       <c r="E81" s="72"/>
@@ -13559,18 +14040,22 @@
       <c r="DR82" s="21"/>
     </row>
     <row r="83" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="70"/>
+      <c r="A83" s="70">
+        <v>9.1</v>
+      </c>
       <c r="B83" s="70"/>
-      <c r="C83" s="70"/>
+      <c r="C83" s="70" t="s">
+        <v>97</v>
+      </c>
       <c r="D83" s="70"/>
       <c r="E83" s="72"/>
       <c r="F83" s="72"/>
       <c r="G83" s="72"/>
       <c r="H83" s="72"/>
       <c r="I83" s="68"/>
-      <c r="J83" s="58" t="str">
+      <c r="J83" s="58">
         <f>IF(C83&lt;&gt;"",SUM(K83:DR83)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K83" s="18"/>
       <c r="L83" s="18"/>
@@ -13695,9 +14180,9 @@
       <c r="G84" s="73"/>
       <c r="H84" s="73"/>
       <c r="I84" s="69"/>
-      <c r="J84" s="59" t="str">
+      <c r="J84" s="59">
         <f>IF(C83&lt;&gt;"",SUM(K84:DR84)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K84" s="20"/>
       <c r="L84" s="20"/>
@@ -13813,18 +14298,22 @@
       <c r="DR84" s="21"/>
     </row>
     <row r="85" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A85" s="70"/>
+      <c r="A85" s="70">
+        <v>9.1999999999999993</v>
+      </c>
       <c r="B85" s="70"/>
-      <c r="C85" s="70"/>
+      <c r="C85" s="70" t="s">
+        <v>80</v>
+      </c>
       <c r="D85" s="70"/>
       <c r="E85" s="72"/>
       <c r="F85" s="72"/>
       <c r="G85" s="72"/>
       <c r="H85" s="72"/>
       <c r="I85" s="68"/>
-      <c r="J85" s="58" t="str">
+      <c r="J85" s="58">
         <f>IF(C85&lt;&gt;"",SUM(K85:DR85)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K85" s="18"/>
       <c r="L85" s="18"/>
@@ -13949,9 +14438,9 @@
       <c r="G86" s="73"/>
       <c r="H86" s="73"/>
       <c r="I86" s="69"/>
-      <c r="J86" s="59" t="str">
+      <c r="J86" s="59">
         <f>IF(C85&lt;&gt;"",SUM(K86:DR86)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K86" s="20"/>
       <c r="L86" s="20"/>
@@ -14067,8 +14556,12 @@
       <c r="DR86" s="21"/>
     </row>
     <row r="87" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A87" s="70"/>
-      <c r="B87" s="70"/>
+      <c r="A87" s="70">
+        <v>10</v>
+      </c>
+      <c r="B87" s="70" t="s">
+        <v>98</v>
+      </c>
       <c r="C87" s="70"/>
       <c r="D87" s="70"/>
       <c r="E87" s="72"/>
@@ -14321,18 +14814,22 @@
       <c r="DR88" s="21"/>
     </row>
     <row r="89" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="70"/>
-      <c r="B89" s="70"/>
-      <c r="C89" s="70"/>
+      <c r="A89" s="70">
+        <v>10.1</v>
+      </c>
+      <c r="B89" s="93"/>
+      <c r="C89" s="70" t="s">
+        <v>99</v>
+      </c>
       <c r="D89" s="70"/>
       <c r="E89" s="72"/>
       <c r="F89" s="72"/>
       <c r="G89" s="72"/>
       <c r="H89" s="72"/>
       <c r="I89" s="68"/>
-      <c r="J89" s="58" t="str">
+      <c r="J89" s="58">
         <f>IF(C89&lt;&gt;"",SUM(K89:DR89)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K89" s="18"/>
       <c r="L89" s="18"/>
@@ -14449,7 +14946,7 @@
     </row>
     <row r="90" spans="1:122" x14ac:dyDescent="0.15">
       <c r="A90" s="71"/>
-      <c r="B90" s="71"/>
+      <c r="B90" s="93"/>
       <c r="C90" s="71"/>
       <c r="D90" s="71"/>
       <c r="E90" s="73"/>
@@ -14457,9 +14954,9 @@
       <c r="G90" s="73"/>
       <c r="H90" s="73"/>
       <c r="I90" s="69"/>
-      <c r="J90" s="59" t="str">
+      <c r="J90" s="59">
         <f>IF(C89&lt;&gt;"",SUM(K90:DR90)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K90" s="20"/>
       <c r="L90" s="20"/>
@@ -14574,19 +15071,23 @@
       <c r="DQ90" s="20"/>
       <c r="DR90" s="21"/>
     </row>
-    <row r="91" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A91" s="70"/>
+    <row r="91" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="70">
+        <v>10.199999999999999</v>
+      </c>
       <c r="B91" s="70"/>
-      <c r="C91" s="70"/>
+      <c r="C91" s="70" t="s">
+        <v>100</v>
+      </c>
       <c r="D91" s="70"/>
       <c r="E91" s="72"/>
       <c r="F91" s="72"/>
       <c r="G91" s="72"/>
       <c r="H91" s="72"/>
       <c r="I91" s="68"/>
-      <c r="J91" s="58" t="str">
+      <c r="J91" s="58">
         <f>IF(C91&lt;&gt;"",SUM(K91:DR91)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K91" s="18"/>
       <c r="L91" s="18"/>
@@ -14711,9 +15212,9 @@
       <c r="G92" s="73"/>
       <c r="H92" s="73"/>
       <c r="I92" s="69"/>
-      <c r="J92" s="59" t="str">
+      <c r="J92" s="59">
         <f>IF(C91&lt;&gt;"",SUM(K92:DR92)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K92" s="20"/>
       <c r="L92" s="20"/>
@@ -14829,18 +15330,22 @@
       <c r="DR92" s="21"/>
     </row>
     <row r="93" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A93" s="70"/>
+      <c r="A93" s="70">
+        <v>10.3</v>
+      </c>
       <c r="B93" s="70"/>
-      <c r="C93" s="70"/>
+      <c r="C93" s="70" t="s">
+        <v>102</v>
+      </c>
       <c r="D93" s="70"/>
       <c r="E93" s="72"/>
       <c r="F93" s="72"/>
       <c r="G93" s="72"/>
       <c r="H93" s="72"/>
       <c r="I93" s="68"/>
-      <c r="J93" s="58" t="str">
+      <c r="J93" s="58">
         <f>IF(C93&lt;&gt;"",SUM(K93:DR93)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K93" s="18"/>
       <c r="L93" s="18"/>
@@ -14965,9 +15470,9 @@
       <c r="G94" s="73"/>
       <c r="H94" s="73"/>
       <c r="I94" s="69"/>
-      <c r="J94" s="59" t="str">
+      <c r="J94" s="59">
         <f>IF(C93&lt;&gt;"",SUM(K94:DR94)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K94" s="20"/>
       <c r="L94" s="20"/>
@@ -15083,18 +15588,22 @@
       <c r="DR94" s="21"/>
     </row>
     <row r="95" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="70"/>
+      <c r="A95" s="70">
+        <v>10.4</v>
+      </c>
       <c r="B95" s="70"/>
-      <c r="C95" s="70"/>
+      <c r="C95" s="70" t="s">
+        <v>101</v>
+      </c>
       <c r="D95" s="70"/>
       <c r="E95" s="72"/>
       <c r="F95" s="72"/>
       <c r="G95" s="72"/>
       <c r="H95" s="72"/>
       <c r="I95" s="68"/>
-      <c r="J95" s="58" t="str">
+      <c r="J95" s="58">
         <f>IF(C95&lt;&gt;"",SUM(K95:DR95)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K95" s="18"/>
       <c r="L95" s="18"/>
@@ -15219,9 +15728,9 @@
       <c r="G96" s="73"/>
       <c r="H96" s="73"/>
       <c r="I96" s="69"/>
-      <c r="J96" s="59" t="str">
+      <c r="J96" s="59">
         <f>IF(C95&lt;&gt;"",SUM(K96:DR96)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K96" s="20"/>
       <c r="L96" s="20"/>
@@ -15337,18 +15846,22 @@
       <c r="DR96" s="21"/>
     </row>
     <row r="97" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A97" s="70"/>
+      <c r="A97" s="70">
+        <v>10.5</v>
+      </c>
       <c r="B97" s="70"/>
-      <c r="C97" s="70"/>
+      <c r="C97" s="70" t="s">
+        <v>80</v>
+      </c>
       <c r="D97" s="70"/>
       <c r="E97" s="72"/>
       <c r="F97" s="72"/>
       <c r="G97" s="72"/>
       <c r="H97" s="72"/>
       <c r="I97" s="68"/>
-      <c r="J97" s="58" t="str">
+      <c r="J97" s="58">
         <f>IF(C97&lt;&gt;"",SUM(K97:DR97)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K97" s="18"/>
       <c r="L97" s="18"/>
@@ -15473,9 +15986,9 @@
       <c r="G98" s="73"/>
       <c r="H98" s="73"/>
       <c r="I98" s="69"/>
-      <c r="J98" s="59" t="str">
+      <c r="J98" s="59">
         <f>IF(C97&lt;&gt;"",SUM(K98:DR98)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K98" s="20"/>
       <c r="L98" s="20"/>
@@ -15591,8 +16104,12 @@
       <c r="DR98" s="21"/>
     </row>
     <row r="99" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A99" s="66"/>
-      <c r="B99" s="66"/>
+      <c r="A99" s="66">
+        <v>11</v>
+      </c>
+      <c r="B99" s="66" t="s">
+        <v>103</v>
+      </c>
       <c r="C99" s="66"/>
       <c r="D99" s="66"/>
       <c r="E99" s="67"/>
@@ -15845,18 +16362,22 @@
       <c r="DR100" s="21"/>
     </row>
     <row r="101" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A101" s="66"/>
+      <c r="A101" s="66">
+        <v>11.1</v>
+      </c>
       <c r="B101" s="66"/>
-      <c r="C101" s="66"/>
+      <c r="C101" s="66" t="s">
+        <v>82</v>
+      </c>
       <c r="D101" s="66"/>
       <c r="E101" s="67"/>
       <c r="F101" s="67"/>
       <c r="G101" s="67"/>
       <c r="H101" s="67"/>
       <c r="I101" s="68"/>
-      <c r="J101" s="58" t="str">
+      <c r="J101" s="58">
         <f>IF(C101&lt;&gt;"",SUM(K101:DR101)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K101" s="18"/>
       <c r="L101" s="18"/>
@@ -15981,9 +16502,9 @@
       <c r="G102" s="67"/>
       <c r="H102" s="67"/>
       <c r="I102" s="69"/>
-      <c r="J102" s="59" t="str">
+      <c r="J102" s="59">
         <f>IF(C101&lt;&gt;"",SUM(K102:DR102)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K102" s="20"/>
       <c r="L102" s="20"/>
@@ -16099,18 +16620,22 @@
       <c r="DR102" s="21"/>
     </row>
     <row r="103" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A103" s="66"/>
+      <c r="A103" s="66">
+        <v>11.2</v>
+      </c>
       <c r="B103" s="66"/>
-      <c r="C103" s="66"/>
+      <c r="C103" s="66" t="s">
+        <v>80</v>
+      </c>
       <c r="D103" s="66"/>
       <c r="E103" s="67"/>
       <c r="F103" s="67"/>
       <c r="G103" s="67"/>
       <c r="H103" s="67"/>
       <c r="I103" s="68"/>
-      <c r="J103" s="58" t="str">
+      <c r="J103" s="58">
         <f>IF(C103&lt;&gt;"",SUM(K103:DR103)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K103" s="18"/>
       <c r="L103" s="18"/>
@@ -16235,9 +16760,9 @@
       <c r="G104" s="67"/>
       <c r="H104" s="67"/>
       <c r="I104" s="69"/>
-      <c r="J104" s="59" t="str">
+      <c r="J104" s="59">
         <f>IF(C103&lt;&gt;"",SUM(K104:DR104)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K104" s="20"/>
       <c r="L104" s="20"/>
@@ -16353,8 +16878,12 @@
       <c r="DR104" s="21"/>
     </row>
     <row r="105" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A105" s="66"/>
-      <c r="B105" s="66"/>
+      <c r="A105" s="66">
+        <v>12</v>
+      </c>
+      <c r="B105" s="66" t="s">
+        <v>104</v>
+      </c>
       <c r="C105" s="66"/>
       <c r="D105" s="66"/>
       <c r="E105" s="67"/>
@@ -16607,18 +17136,22 @@
       <c r="DR106" s="21"/>
     </row>
     <row r="107" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A107" s="66"/>
+      <c r="A107" s="66">
+        <v>12.1</v>
+      </c>
       <c r="B107" s="66"/>
-      <c r="C107" s="66"/>
+      <c r="C107" s="66" t="s">
+        <v>105</v>
+      </c>
       <c r="D107" s="66"/>
       <c r="E107" s="67"/>
       <c r="F107" s="67"/>
       <c r="G107" s="67"/>
       <c r="H107" s="67"/>
       <c r="I107" s="68"/>
-      <c r="J107" s="58" t="str">
+      <c r="J107" s="58">
         <f>IF(C107&lt;&gt;"",SUM(K107:DR107)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K107" s="18"/>
       <c r="L107" s="18"/>
@@ -16743,9 +17276,9 @@
       <c r="G108" s="67"/>
       <c r="H108" s="67"/>
       <c r="I108" s="69"/>
-      <c r="J108" s="59" t="str">
+      <c r="J108" s="59">
         <f>IF(C107&lt;&gt;"",SUM(K108:DR108)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K108" s="20"/>
       <c r="L108" s="20"/>
@@ -16861,18 +17394,22 @@
       <c r="DR108" s="21"/>
     </row>
     <row r="109" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A109" s="66"/>
+      <c r="A109" s="66">
+        <v>12.2</v>
+      </c>
       <c r="B109" s="66"/>
-      <c r="C109" s="66"/>
+      <c r="C109" s="66" t="s">
+        <v>106</v>
+      </c>
       <c r="D109" s="66"/>
       <c r="E109" s="67"/>
       <c r="F109" s="67"/>
       <c r="G109" s="67"/>
       <c r="H109" s="67"/>
       <c r="I109" s="68"/>
-      <c r="J109" s="58" t="str">
+      <c r="J109" s="58">
         <f>IF(C109&lt;&gt;"",SUM(K109:DR109)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K109" s="18"/>
       <c r="L109" s="18"/>
@@ -16997,9 +17534,9 @@
       <c r="G110" s="67"/>
       <c r="H110" s="67"/>
       <c r="I110" s="69"/>
-      <c r="J110" s="59" t="str">
+      <c r="J110" s="59">
         <f>IF(C109&lt;&gt;"",SUM(K110:DR110)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K110" s="20"/>
       <c r="L110" s="20"/>
@@ -17115,18 +17652,22 @@
       <c r="DR110" s="21"/>
     </row>
     <row r="111" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A111" s="66"/>
+      <c r="A111" s="66">
+        <v>12.3</v>
+      </c>
       <c r="B111" s="66"/>
-      <c r="C111" s="66"/>
+      <c r="C111" s="66" t="s">
+        <v>80</v>
+      </c>
       <c r="D111" s="66"/>
       <c r="E111" s="67"/>
       <c r="F111" s="67"/>
       <c r="G111" s="67"/>
       <c r="H111" s="67"/>
       <c r="I111" s="68"/>
-      <c r="J111" s="58" t="str">
+      <c r="J111" s="58">
         <f>IF(C111&lt;&gt;"",SUM(K111:DR111)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K111" s="18"/>
       <c r="L111" s="18"/>
@@ -17251,9 +17792,9 @@
       <c r="G112" s="67"/>
       <c r="H112" s="67"/>
       <c r="I112" s="69"/>
-      <c r="J112" s="59" t="str">
+      <c r="J112" s="59">
         <f>IF(C111&lt;&gt;"",SUM(K112:DR112)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K112" s="20"/>
       <c r="L112" s="20"/>
@@ -17369,8 +17910,12 @@
       <c r="DR112" s="21"/>
     </row>
     <row r="113" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A113" s="66"/>
-      <c r="B113" s="66"/>
+      <c r="A113" s="66">
+        <v>13</v>
+      </c>
+      <c r="B113" s="66" t="s">
+        <v>107</v>
+      </c>
       <c r="C113" s="66"/>
       <c r="D113" s="66"/>
       <c r="E113" s="67"/>
@@ -17623,18 +18168,22 @@
       <c r="DR114" s="21"/>
     </row>
     <row r="115" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A115" s="66"/>
+      <c r="A115" s="66">
+        <v>13.1</v>
+      </c>
       <c r="B115" s="66"/>
-      <c r="C115" s="66"/>
+      <c r="C115" s="66" t="s">
+        <v>108</v>
+      </c>
       <c r="D115" s="66"/>
       <c r="E115" s="67"/>
       <c r="F115" s="67"/>
       <c r="G115" s="67"/>
       <c r="H115" s="67"/>
       <c r="I115" s="68"/>
-      <c r="J115" s="58" t="str">
+      <c r="J115" s="58">
         <f>IF(C115&lt;&gt;"",SUM(K115:DR115)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K115" s="18"/>
       <c r="L115" s="18"/>
@@ -17759,9 +18308,9 @@
       <c r="G116" s="67"/>
       <c r="H116" s="67"/>
       <c r="I116" s="69"/>
-      <c r="J116" s="59" t="str">
+      <c r="J116" s="59">
         <f>IF(C115&lt;&gt;"",SUM(K116:DR116)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K116" s="20"/>
       <c r="L116" s="20"/>
@@ -17877,18 +18426,22 @@
       <c r="DR116" s="21"/>
     </row>
     <row r="117" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A117" s="66"/>
+      <c r="A117" s="66">
+        <v>13.2</v>
+      </c>
       <c r="B117" s="66"/>
-      <c r="C117" s="66"/>
+      <c r="C117" s="66" t="s">
+        <v>109</v>
+      </c>
       <c r="D117" s="66"/>
       <c r="E117" s="67"/>
       <c r="F117" s="67"/>
       <c r="G117" s="67"/>
       <c r="H117" s="67"/>
       <c r="I117" s="68"/>
-      <c r="J117" s="58" t="str">
+      <c r="J117" s="58">
         <f>IF(C117&lt;&gt;"",SUM(K117:DR117)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K117" s="18"/>
       <c r="L117" s="18"/>
@@ -18013,9 +18566,9 @@
       <c r="G118" s="67"/>
       <c r="H118" s="67"/>
       <c r="I118" s="69"/>
-      <c r="J118" s="59" t="str">
+      <c r="J118" s="59">
         <f>IF(C117&lt;&gt;"",SUM(K118:DR118)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K118" s="20"/>
       <c r="L118" s="20"/>
@@ -18131,18 +18684,22 @@
       <c r="DR118" s="21"/>
     </row>
     <row r="119" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A119" s="66"/>
+      <c r="A119" s="66">
+        <v>13.3</v>
+      </c>
       <c r="B119" s="66"/>
-      <c r="C119" s="66"/>
+      <c r="C119" s="66" t="s">
+        <v>80</v>
+      </c>
       <c r="D119" s="66"/>
       <c r="E119" s="67"/>
       <c r="F119" s="67"/>
       <c r="G119" s="67"/>
       <c r="H119" s="67"/>
       <c r="I119" s="68"/>
-      <c r="J119" s="58" t="str">
+      <c r="J119" s="58">
         <f>IF(C119&lt;&gt;"",SUM(K119:DR119)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K119" s="18"/>
       <c r="L119" s="18"/>
@@ -18267,9 +18824,9 @@
       <c r="G120" s="67"/>
       <c r="H120" s="67"/>
       <c r="I120" s="69"/>
-      <c r="J120" s="59" t="str">
+      <c r="J120" s="59">
         <f>IF(C119&lt;&gt;"",SUM(K120:DR120)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K120" s="20"/>
       <c r="L120" s="20"/>
@@ -18385,8 +18942,12 @@
       <c r="DR120" s="21"/>
     </row>
     <row r="121" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A121" s="70"/>
-      <c r="B121" s="70"/>
+      <c r="A121" s="70">
+        <v>14</v>
+      </c>
+      <c r="B121" s="70" t="s">
+        <v>110</v>
+      </c>
       <c r="C121" s="70"/>
       <c r="D121" s="70"/>
       <c r="E121" s="72"/>
@@ -18639,18 +19200,22 @@
       <c r="DR122" s="21"/>
     </row>
     <row r="123" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A123" s="66"/>
+      <c r="A123" s="66">
+        <v>14.1</v>
+      </c>
       <c r="B123" s="66"/>
-      <c r="C123" s="66"/>
+      <c r="C123" s="66" t="s">
+        <v>111</v>
+      </c>
       <c r="D123" s="66"/>
       <c r="E123" s="67"/>
       <c r="F123" s="67"/>
       <c r="G123" s="67"/>
       <c r="H123" s="67"/>
       <c r="I123" s="68"/>
-      <c r="J123" s="58" t="str">
+      <c r="J123" s="58">
         <f>IF(C123&lt;&gt;"",SUM(K123:DR123)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K123" s="18"/>
       <c r="L123" s="18"/>
@@ -18775,9 +19340,9 @@
       <c r="G124" s="67"/>
       <c r="H124" s="67"/>
       <c r="I124" s="69"/>
-      <c r="J124" s="59" t="str">
+      <c r="J124" s="59">
         <f>IF(C123&lt;&gt;"",SUM(K124:DR124)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K124" s="20"/>
       <c r="L124" s="20"/>
@@ -18893,18 +19458,22 @@
       <c r="DR124" s="21"/>
     </row>
     <row r="125" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A125" s="66"/>
+      <c r="A125" s="66">
+        <v>14.2</v>
+      </c>
       <c r="B125" s="66"/>
-      <c r="C125" s="66"/>
+      <c r="C125" s="66" t="s">
+        <v>80</v>
+      </c>
       <c r="D125" s="66"/>
       <c r="E125" s="67"/>
       <c r="F125" s="67"/>
       <c r="G125" s="67"/>
       <c r="H125" s="67"/>
       <c r="I125" s="68"/>
-      <c r="J125" s="58" t="str">
+      <c r="J125" s="58">
         <f>IF(C125&lt;&gt;"",SUM(K125:DR125)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K125" s="18"/>
       <c r="L125" s="18"/>
@@ -19029,9 +19598,9 @@
       <c r="G126" s="67"/>
       <c r="H126" s="67"/>
       <c r="I126" s="69"/>
-      <c r="J126" s="59" t="str">
+      <c r="J126" s="59">
         <f>IF(C125&lt;&gt;"",SUM(K126:DR126)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K126" s="20"/>
       <c r="L126" s="20"/>
@@ -19147,8 +19716,12 @@
       <c r="DR126" s="21"/>
     </row>
     <row r="127" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A127" s="66"/>
-      <c r="B127" s="66"/>
+      <c r="A127" s="66">
+        <v>15</v>
+      </c>
+      <c r="B127" s="66" t="s">
+        <v>112</v>
+      </c>
       <c r="C127" s="66"/>
       <c r="D127" s="66"/>
       <c r="E127" s="67"/>
@@ -19401,18 +19974,22 @@
       <c r="DR128" s="21"/>
     </row>
     <row r="129" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A129" s="66"/>
+      <c r="A129" s="66">
+        <v>15.1</v>
+      </c>
       <c r="B129" s="66"/>
-      <c r="C129" s="66"/>
+      <c r="C129" s="66" t="s">
+        <v>113</v>
+      </c>
       <c r="D129" s="66"/>
       <c r="E129" s="67"/>
       <c r="F129" s="67"/>
       <c r="G129" s="67"/>
       <c r="H129" s="67"/>
       <c r="I129" s="68"/>
-      <c r="J129" s="58" t="str">
+      <c r="J129" s="58">
         <f>IF(C129&lt;&gt;"",SUM(K129:DR129)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K129" s="18"/>
       <c r="L129" s="18"/>
@@ -19537,9 +20114,9 @@
       <c r="G130" s="67"/>
       <c r="H130" s="67"/>
       <c r="I130" s="69"/>
-      <c r="J130" s="59" t="str">
+      <c r="J130" s="59">
         <f>IF(C129&lt;&gt;"",SUM(K130:DR130)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K130" s="20"/>
       <c r="L130" s="20"/>
@@ -19655,18 +20232,22 @@
       <c r="DR130" s="21"/>
     </row>
     <row r="131" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A131" s="66"/>
+      <c r="A131" s="66">
+        <v>15.2</v>
+      </c>
       <c r="B131" s="66"/>
-      <c r="C131" s="66"/>
+      <c r="C131" s="66" t="s">
+        <v>114</v>
+      </c>
       <c r="D131" s="66"/>
       <c r="E131" s="67"/>
       <c r="F131" s="67"/>
       <c r="G131" s="67"/>
       <c r="H131" s="67"/>
       <c r="I131" s="68"/>
-      <c r="J131" s="58" t="str">
+      <c r="J131" s="58">
         <f>IF(C131&lt;&gt;"",SUM(K131:DR131)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K131" s="18"/>
       <c r="L131" s="18"/>
@@ -19791,9 +20372,9 @@
       <c r="G132" s="67"/>
       <c r="H132" s="67"/>
       <c r="I132" s="69"/>
-      <c r="J132" s="59" t="str">
+      <c r="J132" s="59">
         <f>IF(C131&lt;&gt;"",SUM(K132:DR132)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K132" s="20"/>
       <c r="L132" s="20"/>
@@ -19909,18 +20490,22 @@
       <c r="DR132" s="21"/>
     </row>
     <row r="133" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A133" s="66"/>
+      <c r="A133" s="66">
+        <v>15.3</v>
+      </c>
       <c r="B133" s="66"/>
-      <c r="C133" s="66"/>
+      <c r="C133" s="66" t="s">
+        <v>115</v>
+      </c>
       <c r="D133" s="66"/>
       <c r="E133" s="67"/>
       <c r="F133" s="67"/>
       <c r="G133" s="67"/>
       <c r="H133" s="67"/>
       <c r="I133" s="68"/>
-      <c r="J133" s="58" t="str">
+      <c r="J133" s="58">
         <f>IF(C133&lt;&gt;"",SUM(K133:DR133)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K133" s="18"/>
       <c r="L133" s="18"/>
@@ -20045,9 +20630,9 @@
       <c r="G134" s="67"/>
       <c r="H134" s="67"/>
       <c r="I134" s="69"/>
-      <c r="J134" s="59" t="str">
+      <c r="J134" s="59">
         <f>IF(C133&lt;&gt;"",SUM(K134:DR134)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K134" s="20"/>
       <c r="L134" s="20"/>
@@ -20163,18 +20748,22 @@
       <c r="DR134" s="21"/>
     </row>
     <row r="135" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A135" s="66"/>
+      <c r="A135" s="66">
+        <v>15.4</v>
+      </c>
       <c r="B135" s="66"/>
-      <c r="C135" s="66"/>
+      <c r="C135" s="66" t="s">
+        <v>116</v>
+      </c>
       <c r="D135" s="66"/>
       <c r="E135" s="67"/>
       <c r="F135" s="67"/>
       <c r="G135" s="67"/>
       <c r="H135" s="67"/>
       <c r="I135" s="68"/>
-      <c r="J135" s="58" t="str">
+      <c r="J135" s="58">
         <f>IF(C135&lt;&gt;"",SUM(K135:DR135)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K135" s="18"/>
       <c r="L135" s="18"/>
@@ -20299,9 +20888,9 @@
       <c r="G136" s="67"/>
       <c r="H136" s="67"/>
       <c r="I136" s="69"/>
-      <c r="J136" s="59" t="str">
+      <c r="J136" s="59">
         <f>IF(C135&lt;&gt;"",SUM(K136:DR136)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K136" s="20"/>
       <c r="L136" s="20"/>
@@ -20417,7 +21006,9 @@
       <c r="DR136" s="21"/>
     </row>
     <row r="137" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A137" s="66"/>
+      <c r="A137" s="66">
+        <v>15.5</v>
+      </c>
       <c r="B137" s="66"/>
       <c r="C137" s="66"/>
       <c r="D137" s="66"/>
@@ -56858,119 +57449,530 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="A4:DR70">
     <filterColumn colId="0" showButton="0"/>
   </autoFilter>
-  <mergeCells count="653">
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="E145:E146"/>
-    <mergeCell ref="F145:F146"/>
-    <mergeCell ref="G145:G146"/>
-    <mergeCell ref="H145:H146"/>
-    <mergeCell ref="I145:I146"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="D143:D144"/>
-    <mergeCell ref="E143:E144"/>
-    <mergeCell ref="F143:F144"/>
-    <mergeCell ref="G143:G144"/>
-    <mergeCell ref="H143:H144"/>
-    <mergeCell ref="I143:I144"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="D141:D142"/>
-    <mergeCell ref="E141:E142"/>
-    <mergeCell ref="F141:F142"/>
-    <mergeCell ref="G141:G142"/>
-    <mergeCell ref="H141:H142"/>
-    <mergeCell ref="I141:I142"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="C139:C140"/>
-    <mergeCell ref="D139:D140"/>
-    <mergeCell ref="E139:E140"/>
-    <mergeCell ref="F139:F140"/>
-    <mergeCell ref="G139:G140"/>
-    <mergeCell ref="H139:H140"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="D137:D138"/>
-    <mergeCell ref="E137:E138"/>
-    <mergeCell ref="F137:F138"/>
-    <mergeCell ref="G137:G138"/>
-    <mergeCell ref="H137:H138"/>
-    <mergeCell ref="I137:I138"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="D135:D136"/>
-    <mergeCell ref="E135:E136"/>
-    <mergeCell ref="F135:F136"/>
-    <mergeCell ref="G135:G136"/>
-    <mergeCell ref="H135:H136"/>
-    <mergeCell ref="I135:I136"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="E133:E134"/>
-    <mergeCell ref="F133:F134"/>
-    <mergeCell ref="G133:G134"/>
-    <mergeCell ref="H133:H134"/>
-    <mergeCell ref="I133:I134"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="E131:E132"/>
-    <mergeCell ref="F131:F132"/>
-    <mergeCell ref="G131:G132"/>
-    <mergeCell ref="H131:H132"/>
-    <mergeCell ref="I131:I132"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="D129:D130"/>
-    <mergeCell ref="E129:E130"/>
-    <mergeCell ref="F129:F130"/>
-    <mergeCell ref="G129:G130"/>
-    <mergeCell ref="H129:H130"/>
-    <mergeCell ref="I129:I130"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="E127:E128"/>
-    <mergeCell ref="F127:F128"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="H127:H128"/>
-    <mergeCell ref="I127:I128"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="E57:E58"/>
+  <mergeCells count="652">
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="F125:F126"/>
+    <mergeCell ref="G125:G126"/>
+    <mergeCell ref="H125:H126"/>
+    <mergeCell ref="I125:I126"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="G123:G124"/>
+    <mergeCell ref="H123:H124"/>
+    <mergeCell ref="I123:I124"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="G121:G122"/>
+    <mergeCell ref="H121:H122"/>
+    <mergeCell ref="I121:I122"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="H119:H120"/>
+    <mergeCell ref="I119:I120"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="H117:H118"/>
+    <mergeCell ref="I117:I118"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="G115:G116"/>
+    <mergeCell ref="H115:H116"/>
+    <mergeCell ref="I115:I116"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="H113:H114"/>
+    <mergeCell ref="I113:I114"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="H111:H112"/>
+    <mergeCell ref="I111:I112"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="H109:H110"/>
+    <mergeCell ref="I109:I110"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="H107:H108"/>
+    <mergeCell ref="I107:I108"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="H105:H106"/>
+    <mergeCell ref="I105:I106"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="I103:I104"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="H99:H100"/>
+    <mergeCell ref="I99:I100"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="H97:H98"/>
+    <mergeCell ref="I97:I98"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E1:O1"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AH1"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
     <mergeCell ref="G33:G34"/>
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="G35:G36"/>
@@ -56995,527 +57997,114 @@
     <mergeCell ref="E55:E56"/>
     <mergeCell ref="I55:I56"/>
     <mergeCell ref="B57:B58"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AD1:AH1"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E1:O1"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="I95:I96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="H97:H98"/>
-    <mergeCell ref="I97:I98"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="H99:H100"/>
-    <mergeCell ref="I99:I100"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="I103:I104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="H105:H106"/>
-    <mergeCell ref="I105:I106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="H107:H108"/>
-    <mergeCell ref="I107:I108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="H109:H110"/>
-    <mergeCell ref="I109:I110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="H111:H112"/>
-    <mergeCell ref="I111:I112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="H113:H114"/>
-    <mergeCell ref="I113:I114"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="H115:H116"/>
-    <mergeCell ref="I115:I116"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="H117:H118"/>
-    <mergeCell ref="I117:I118"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="H119:H120"/>
-    <mergeCell ref="I119:I120"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="F121:F122"/>
-    <mergeCell ref="G121:G122"/>
-    <mergeCell ref="H121:H122"/>
-    <mergeCell ref="I121:I122"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="G123:G124"/>
-    <mergeCell ref="H123:H124"/>
-    <mergeCell ref="I123:I124"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="E125:E126"/>
-    <mergeCell ref="F125:F126"/>
-    <mergeCell ref="G125:G126"/>
-    <mergeCell ref="H125:H126"/>
-    <mergeCell ref="I125:I126"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="F127:F128"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="H127:H128"/>
+    <mergeCell ref="I127:I128"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="D129:D130"/>
+    <mergeCell ref="E129:E130"/>
+    <mergeCell ref="F129:F130"/>
+    <mergeCell ref="G129:G130"/>
+    <mergeCell ref="H129:H130"/>
+    <mergeCell ref="I129:I130"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="F131:F132"/>
+    <mergeCell ref="G131:G132"/>
+    <mergeCell ref="H131:H132"/>
+    <mergeCell ref="I131:I132"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="F133:F134"/>
+    <mergeCell ref="G133:G134"/>
+    <mergeCell ref="H133:H134"/>
+    <mergeCell ref="I133:I134"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="D135:D136"/>
+    <mergeCell ref="E135:E136"/>
+    <mergeCell ref="F135:F136"/>
+    <mergeCell ref="G135:G136"/>
+    <mergeCell ref="H135:H136"/>
+    <mergeCell ref="I135:I136"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="D137:D138"/>
+    <mergeCell ref="E137:E138"/>
+    <mergeCell ref="F137:F138"/>
+    <mergeCell ref="G137:G138"/>
+    <mergeCell ref="H137:H138"/>
+    <mergeCell ref="I137:I138"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="E139:E140"/>
+    <mergeCell ref="F139:F140"/>
+    <mergeCell ref="G139:G140"/>
+    <mergeCell ref="H139:H140"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="G141:G142"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="I141:I142"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="G143:G144"/>
+    <mergeCell ref="H143:H144"/>
+    <mergeCell ref="I143:I144"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="E145:E146"/>
+    <mergeCell ref="F145:F146"/>
+    <mergeCell ref="G145:G146"/>
+    <mergeCell ref="H145:H146"/>
+    <mergeCell ref="I145:I146"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="K151:DR151 K4:DR70">
@@ -57857,7 +58446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A27:DI34"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
@@ -58958,21 +59547,21 @@
         <f ca="1">IF(TODAY()&gt;=AK$27,ガント!AT153,NA())</f>
         <v>0</v>
       </c>
-      <c r="AL29" s="30" t="e">
+      <c r="AL29" s="30">
         <f ca="1">IF(TODAY()&gt;=AL$27,ガント!AU153,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM29" s="30" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="30">
         <f ca="1">IF(TODAY()&gt;=AM$27,ガント!AV153,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN29" s="30" t="e">
+        <v>0</v>
+      </c>
+      <c r="AN29" s="30">
         <f ca="1">IF(TODAY()&gt;=AN$27,ガント!AW153,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO29" s="30" t="e">
+        <v>0</v>
+      </c>
+      <c r="AO29" s="30">
         <f ca="1">IF(TODAY()&gt;=AO$27,ガント!AX153,NA())</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="AP29" s="30" t="e">
         <f ca="1">IF(TODAY()&gt;=AP$27,ガント!AY153,NA())</f>
@@ -59412,21 +60001,21 @@
         <f ca="1">IF(TODAY()&gt;=AK$27,ガント!AT154,NA())</f>
         <v>2.8000000000000003</v>
       </c>
-      <c r="AL30" s="27" t="e">
+      <c r="AL30" s="27">
         <f ca="1">IF(TODAY()&gt;=AL$27,ガント!AU154,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM30" s="27" t="e">
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="AM30" s="27">
         <f ca="1">IF(TODAY()&gt;=AM$27,ガント!AV154,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN30" s="27" t="e">
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="AN30" s="27">
         <f ca="1">IF(TODAY()&gt;=AN$27,ガント!AW154,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO30" s="27" t="e">
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="AO30" s="27">
         <f ca="1">IF(TODAY()&gt;=AO$27,ガント!AX154,NA())</f>
-        <v>#N/A</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="AP30" s="27" t="e">
         <f ca="1">IF(TODAY()&gt;=AP$27,ガント!AY154,NA())</f>
@@ -59865,21 +60454,21 @@
         <f t="shared" ca="1" si="1"/>
         <v>-53.2</v>
       </c>
-      <c r="AL31" s="25" t="e">
+      <c r="AL31" s="25">
         <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AM31" s="25" t="e">
+        <v>-53.2</v>
+      </c>
+      <c r="AM31" s="25">
         <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN31" s="25" t="e">
+        <v>-53.2</v>
+      </c>
+      <c r="AN31" s="25">
         <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AO31" s="25" t="e">
+        <v>-53.2</v>
+      </c>
+      <c r="AO31" s="25">
         <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
+        <v>-53.2</v>
       </c>
       <c r="AP31" s="25" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -60318,21 +60907,21 @@
         <f t="shared" ca="1" si="5"/>
         <v>2.8000000000000003</v>
       </c>
-      <c r="AL32" s="23" t="e">
+      <c r="AL32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AM32" s="23" t="e">
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="AM32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN32" s="23" t="e">
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="AN32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AO32" s="23" t="e">
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="AO32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="AP32" s="23" t="e">
         <f t="shared" ca="1" si="5"/>
@@ -60771,21 +61360,21 @@
         <f t="shared" ca="1" si="9"/>
         <v>0.05</v>
       </c>
-      <c r="AL33" s="28" t="e">
+      <c r="AL33" s="28">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AM33" s="28" t="e">
+        <v>0.05</v>
+      </c>
+      <c r="AM33" s="28">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN33" s="28" t="e">
+        <v>0.05</v>
+      </c>
+      <c r="AN33" s="28">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AO33" s="28" t="e">
+        <v>0.05</v>
+      </c>
+      <c r="AO33" s="28">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
+        <v>0.05</v>
       </c>
       <c r="AP33" s="28" t="e">
         <f t="shared" ca="1" si="9"/>
@@ -62001,7 +62590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>

--- a/ガントチャート/PM演習_管理ツール_戸張研A班.xlsx
+++ b/ガントチャート/PM演習_管理ツール_戸張研A班.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\戸張　琢斗\Documents\GitHub\horiuchi-lab-teamA-\ガントチャート\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="585" windowWidth="18315" windowHeight="7110" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="585" windowWidth="18315" windowHeight="7110"/>
   </bookViews>
   <sheets>
     <sheet name="ガント" sheetId="1" r:id="rId1"/>
@@ -26,12 +21,12 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">ガント!$A:$J,ガント!$1:$4</definedName>
     <definedName name="Z_F3151B71_E979_4754_A481_4BA5C6EA412C_.wvu.FilterData" localSheetId="2" hidden="1">懸案!$A$3:$H$29</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="123">
   <si>
     <t>WBS番号</t>
     <rPh sb="3" eb="5">
@@ -384,19 +379,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>役割表、PJ環境</t>
-    <rPh sb="0" eb="2">
-      <t>ヤクワリ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カンキョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>○</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -577,17 +559,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>レビュー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プロジェクト憲章</t>
-    <rPh sb="6" eb="8">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プロジェクト憲章作成</t>
     <rPh sb="6" eb="8">
       <t>ケンショウ</t>
@@ -611,142 +582,6 @@
     <t>加藤</t>
     <rPh sb="0" eb="2">
       <t>カトウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.10.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プロジェクト計画書</t>
-    <rPh sb="6" eb="9">
-      <t>ケイカクショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>要求定義書</t>
-    <rPh sb="0" eb="5">
-      <t>ヨウキュウテイギショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">統合マネジメント
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スコープマネジメント</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タイムマネジメント</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コストマネジメント</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>品質マネジメント</t>
-    <rPh sb="0" eb="2">
-      <t>ヒンシツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>人的資源マネジメント</t>
-    <rPh sb="0" eb="4">
-      <t>ジンテキシゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コミュニケーションマネジメント</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リスクマネジメント</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>調達マネジメント</t>
-    <rPh sb="0" eb="2">
-      <t>チョウタツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステークホルダーマネジメント</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レビュー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コスト見積書</t>
-    <rPh sb="3" eb="6">
-      <t>ミツモリショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コスト見積書作成</t>
-    <rPh sb="3" eb="6">
-      <t>ミツモリショ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>仮契約書</t>
-    <rPh sb="0" eb="4">
-      <t>カリケイヤクショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>仮契約書作成</t>
-    <rPh sb="0" eb="4">
-      <t>カリケイヤクショ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>外部設計書</t>
-    <rPh sb="0" eb="5">
-      <t>ガイブセッケイショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プロジェクト憲章確認</t>
-    <rPh sb="6" eb="8">
-      <t>ケンショウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>システム概要設計書作成</t>
-    <rPh sb="4" eb="6">
-      <t>ガイヨウ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>セッケイショ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -777,19 +612,142 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>理論データ設計書作成</t>
-    <rPh sb="0" eb="2">
-      <t>リロン</t>
+    <t>本契約書作成</t>
+    <rPh sb="0" eb="4">
+      <t>ホンケイヤクショ</t>
     </rPh>
-    <rPh sb="5" eb="10">
-      <t>セッケイショサクセイ</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト報告書作成</t>
+    <rPh sb="3" eb="6">
+      <t>ホウコクショ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト立上げ</t>
+    <rPh sb="6" eb="8">
+      <t>タチア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト計画書</t>
+    <rPh sb="6" eb="9">
+      <t>ケイカクショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト計画書作成</t>
+    <rPh sb="6" eb="9">
+      <t>ケイカクショ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部設計書</t>
+    <rPh sb="0" eb="5">
+      <t>ガイブセッケイショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮契約書</t>
+    <rPh sb="0" eb="4">
+      <t>カリケイヤクショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>テスト計画書</t>
     <rPh sb="3" eb="6">
       <t>ケイカクショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中間発表資料</t>
+    <rPh sb="0" eb="6">
+      <t>チュウカンハッピョウシリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引き渡し書</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト計画書（見直し）</t>
+    <rPh sb="6" eb="9">
+      <t>ケイカクショ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ミナオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト計画</t>
+    <rPh sb="6" eb="8">
+      <t>ケイカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮契約書作成</t>
+    <rPh sb="0" eb="4">
+      <t>カリケイヤクショ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部設計</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム概要設計書作成</t>
+    <rPh sb="4" eb="6">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -804,22 +762,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>中間発表資料</t>
-    <rPh sb="0" eb="4">
-      <t>チュウカンハッピョウ</t>
+    <t>中間発表</t>
+    <rPh sb="0" eb="2">
+      <t>チュウカン</t>
     </rPh>
-    <rPh sb="4" eb="6">
-      <t>シリョウ</t>
+    <rPh sb="2" eb="4">
+      <t>ハッピョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>中間発表資料作成</t>
-    <rPh sb="0" eb="4">
-      <t>チュウカンハッピョウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シリョウ</t>
+    <rPh sb="0" eb="6">
+      <t>チュウカンハッピョウシリョウ</t>
     </rPh>
     <rPh sb="6" eb="8">
       <t>サクセイ</t>
@@ -827,123 +782,65 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>中間発表</t>
-    <rPh sb="0" eb="4">
-      <t>チュウカンハッピョウ</t>
+    <t>引き渡し書作成</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>引渡書</t>
-    <rPh sb="0" eb="3">
-      <t>ヒキワタシショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>引渡書作成</t>
-    <rPh sb="0" eb="3">
-      <t>ヒキワタシショ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
+    <rPh sb="5" eb="7">
       <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プロジェクトマネジメント計画書（見直し）</t>
-    <rPh sb="12" eb="15">
-      <t>ケイカクショ</t>
+    <t>プロジェクト計画見直し</t>
+    <rPh sb="6" eb="8">
+      <t>ケイカク</t>
     </rPh>
-    <rPh sb="16" eb="18">
+    <rPh sb="8" eb="10">
       <t>ミナオ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プロジェクトマネジメント計画書の変更</t>
-    <rPh sb="12" eb="15">
+    <t>プロジェクト計画書の見直し</t>
+    <rPh sb="6" eb="9">
       <t>ケイカクショ</t>
     </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヘンコウ</t>
+    <rPh sb="10" eb="12">
+      <t>ミナオ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>要件定義書の変更</t>
-    <rPh sb="0" eb="5">
-      <t>ヨウケンテイギショ</t>
+    <t>コスト見積書（概算）作成</t>
+    <rPh sb="3" eb="6">
+      <t>ミツモリショ</t>
     </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヘンコウ</t>
+    <rPh sb="7" eb="9">
+      <t>ガイサン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テスト計画書の変更</t>
-    <rPh sb="3" eb="6">
-      <t>ケイカクショ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>外部設計書の変更</t>
-    <rPh sb="0" eb="2">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>セッケイショ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コスト見積書（正式）</t>
+    <t>コスト見積書（正式）作成</t>
     <rPh sb="3" eb="6">
       <t>ミツモリショ</t>
     </rPh>
     <rPh sb="7" eb="9">
       <t>セイシキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>本契約</t>
-    <rPh sb="0" eb="3">
-      <t>ホンケイヤク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>本見積書作成</t>
-    <rPh sb="0" eb="4">
-      <t>ホンミツモリショ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
+    <rPh sb="10" eb="12">
       <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>本契約書作成</t>
+    <t>内部設計</t>
     <rPh sb="0" eb="4">
-      <t>ホンケイヤクショ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>内部設計書</t>
-    <rPh sb="0" eb="5">
-      <t>ナイブセッケイショ</t>
+      <t>ナイブセッケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -952,8 +849,11 @@
     <rPh sb="4" eb="6">
       <t>ショリ</t>
     </rPh>
-    <rPh sb="6" eb="9">
-      <t>セッケイショ</t>
+    <rPh sb="6" eb="8">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ショ</t>
     </rPh>
     <rPh sb="9" eb="11">
       <t>サクセイ</t>
@@ -982,23 +882,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テスト報告書</t>
-    <rPh sb="3" eb="6">
-      <t>ホウコクショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>単体テスト</t>
-    <rPh sb="0" eb="2">
-      <t>タンタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>総合テスト</t>
-    <rPh sb="0" eb="2">
-      <t>ソウゴウ</t>
+    <t>テスト報告</t>
+    <rPh sb="3" eb="5">
+      <t>ホウコク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1007,12 +893,201 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テスト報告書作成</t>
+    <t>納品準備</t>
+    <rPh sb="0" eb="2">
+      <t>ノウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>納品書作成</t>
+    <rPh sb="0" eb="3">
+      <t>ノウヒンショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マニュアル作成</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QCD評価報告書</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ホウコクショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品質の評価</t>
+    <rPh sb="0" eb="2">
+      <t>ヒンシツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コストの評価</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>納期の評価</t>
+    <rPh sb="0" eb="2">
+      <t>ノウキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マネジメントレポート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>議事録作成</t>
+    <rPh sb="0" eb="3">
+      <t>ギジロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マネジメントレポート作成</t>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終発表</t>
+    <rPh sb="0" eb="4">
+      <t>サイシュウハッピョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクトマネジメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義書</t>
+    <rPh sb="0" eb="5">
+      <t>ヨウケンテイギショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コスト見積書（概算）</t>
+    <rPh sb="3" eb="6">
+      <t>ミツモリショ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コスト見積書（正式）</t>
+    <rPh sb="3" eb="6">
+      <t>ミツモリショ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本契約書</t>
+    <rPh sb="0" eb="4">
+      <t>ホンケイヤクショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内部設計書</t>
+    <rPh sb="0" eb="5">
+      <t>ナイブセッケイショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト報告書</t>
     <rPh sb="3" eb="6">
       <t>ホウコクショ</t>
     </rPh>
-    <rPh sb="6" eb="8">
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>納品書</t>
+    <rPh sb="0" eb="3">
+      <t>ノウヒンショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マニュアル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終発表資料作成</t>
+    <rPh sb="0" eb="8">
+      <t>サイシュウハッピョウシリョウサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終発表資料</t>
+    <rPh sb="0" eb="2">
+      <t>サイシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハッピョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>議事録</t>
+    <rPh sb="0" eb="3">
+      <t>ギジロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業日報作成</t>
+    <rPh sb="0" eb="4">
+      <t>サギョウニッポウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
       <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業日報</t>
+    <rPh sb="0" eb="4">
+      <t>サギョウニッポウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1680,6 +1755,10 @@
     <xf numFmtId="176" fontId="5" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1778,10 +1857,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2759,12 +2834,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="439304792"/>
-        <c:axId val="439304008"/>
+        <c:axId val="106760192"/>
+        <c:axId val="108930752"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="439304792"/>
+        <c:axId val="106760192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2774,14 +2850,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="439304008"/>
+        <c:crossAx val="108930752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="439304008"/>
+        <c:axId val="108930752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2802,7 +2878,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439304792"/>
+        <c:crossAx val="106760192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3007,7 +3083,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3049,7 +3125,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3084,7 +3160,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3295,11 +3371,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DS227"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="K95" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="10" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C137" sqref="C137:C138"/>
+      <selection pane="bottomRight" activeCell="A73" sqref="A73:A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3318,65 +3394,65 @@
       <c r="A1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="87" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="88"/>
+      <c r="B1" s="88" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="89"/>
       <c r="D1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="85" t="s">
-        <v>59</v>
-      </c>
-      <c r="V1" s="75"/>
-      <c r="W1" s="75"/>
-      <c r="X1" s="75"/>
-      <c r="Y1" s="75"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="82" t="s">
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="86" t="s">
+        <v>58</v>
+      </c>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="AB1" s="83"/>
-      <c r="AC1" s="84"/>
-      <c r="AD1" s="85" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE1" s="75"/>
-      <c r="AF1" s="75"/>
-      <c r="AG1" s="75"/>
-      <c r="AH1" s="76"/>
-      <c r="AI1" s="79" t="s">
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="85"/>
+      <c r="AD1" s="86" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="76"/>
+      <c r="AH1" s="77"/>
+      <c r="AI1" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="AJ1" s="79"/>
-      <c r="AK1" s="79"/>
-      <c r="AL1" s="74">
+      <c r="AJ1" s="80"/>
+      <c r="AK1" s="80"/>
+      <c r="AL1" s="75">
         <v>42131</v>
       </c>
-      <c r="AM1" s="75"/>
-      <c r="AN1" s="75"/>
-      <c r="AO1" s="75"/>
-      <c r="AP1" s="76"/>
+      <c r="AM1" s="76"/>
+      <c r="AN1" s="76"/>
+      <c r="AO1" s="76"/>
+      <c r="AP1" s="77"/>
     </row>
     <row r="2" spans="1:122" x14ac:dyDescent="0.15">
       <c r="A2" s="48"/>
@@ -3385,7 +3461,7 @@
       </c>
       <c r="E2" s="50">
         <f t="array" ref="E2">SUM(IF(MOD(ROW(J5:J146),2)=1,J5:J146,0))/20</f>
-        <v>0.27500000000000002</v>
+        <v>0.35</v>
       </c>
       <c r="F2" s="51" t="s">
         <v>25</v>
@@ -3405,26 +3481,26 @@
       <c r="L2" s="51"/>
     </row>
     <row r="3" spans="1:122" ht="29.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="81" t="s">
-        <v>55</v>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="82" t="s">
+        <v>54</v>
       </c>
       <c r="J3" s="52" t="s">
         <v>17</v>
@@ -3551,10 +3627,10 @@
       <c r="DR3" s="54"/>
     </row>
     <row r="4" spans="1:122" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="78"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
       <c r="E4" s="56" t="str">
         <f>データ!A2</f>
         <v>佐藤</v>
@@ -3571,7 +3647,7 @@
         <f>IF(データ!A5&lt;&gt;"",データ!A5,"－")</f>
         <v>－</v>
       </c>
-      <c r="I4" s="81"/>
+      <c r="I4" s="82"/>
       <c r="J4" s="57" t="s">
         <v>18</v>
       </c>
@@ -3913,20 +3989,20 @@
       </c>
     </row>
     <row r="5" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A5" s="66">
-        <v>0</v>
-      </c>
-      <c r="B5" s="70" t="str">
+      <c r="A5" s="67">
+        <v>0</v>
+      </c>
+      <c r="B5" s="71" t="str">
         <f>B1</f>
         <v>会計職のためのweb会計管理システム</v>
       </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="86"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="87"/>
       <c r="J5" s="58" t="str">
         <f>IF(C5&lt;&gt;"",SUM(K5:DR5)/データ!$D$2,"")</f>
         <v/>
@@ -4045,15 +4121,15 @@
       <c r="DR5" s="19"/>
     </row>
     <row r="6" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A6" s="66"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="86"/>
+      <c r="A6" s="67"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="87"/>
       <c r="J6" s="59" t="str">
         <f>IF(C5&lt;&gt;"",SUM(K6:DR6)/データ!$D$2,"")</f>
         <v/>
@@ -4172,19 +4248,19 @@
       <c r="DR6" s="21"/>
     </row>
     <row r="7" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A7" s="66">
+      <c r="A7" s="67">
         <v>1</v>
       </c>
-      <c r="B7" s="66" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="86"/>
+      <c r="B7" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="87"/>
       <c r="J7" s="58" t="str">
         <f>IF(C7&lt;&gt;"",SUM(K7:DR7)/データ!$D$2,"")</f>
         <v/>
@@ -4303,15 +4379,15 @@
       <c r="DR7" s="19"/>
     </row>
     <row r="8" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A8" s="66"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="86"/>
+      <c r="A8" s="67"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="87"/>
       <c r="J8" s="59" t="str">
         <f>IF(C7&lt;&gt;"",SUM(K8:DR8)/データ!$D$2,"")</f>
         <v/>
@@ -4430,29 +4506,27 @@
       <c r="DR8" s="21"/>
     </row>
     <row r="9" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A9" s="66">
+      <c r="A9" s="67">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="70" t="s">
+      <c r="B9" s="67"/>
+      <c r="C9" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="70" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="72" t="s">
+      <c r="D9" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="72" t="s">
+      <c r="F9" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="72" t="s">
+      <c r="G9" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="68">
+      <c r="H9" s="73"/>
+      <c r="I9" s="69">
         <v>0.1</v>
       </c>
       <c r="J9" s="58">
@@ -4585,15 +4659,15 @@
       <c r="DR9" s="19"/>
     </row>
     <row r="10" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A10" s="66"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="69"/>
+      <c r="A10" s="67"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="70"/>
       <c r="J10" s="59">
         <f>IF(C9&lt;&gt;"",SUM(K10:DR10)/データ!$D$2,"")</f>
         <v>0</v>
@@ -4712,27 +4786,27 @@
       <c r="DR10" s="21"/>
     </row>
     <row r="11" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A11" s="66">
+      <c r="A11" s="67">
         <v>1.2</v>
       </c>
-      <c r="B11" s="66"/>
-      <c r="C11" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="72" t="s">
+      <c r="B11" s="67"/>
+      <c r="C11" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="72" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="72" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="72"/>
-      <c r="I11" s="68">
+      <c r="F11" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="73"/>
+      <c r="I11" s="69">
         <v>0</v>
       </c>
       <c r="J11" s="58">
@@ -4861,15 +4935,15 @@
       <c r="DR11" s="19"/>
     </row>
     <row r="12" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A12" s="66"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="69"/>
+      <c r="A12" s="67"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="70"/>
       <c r="J12" s="59">
         <f>IF(C11&lt;&gt;"",SUM(K12:DR12)/データ!$D$2,"")</f>
         <v>0</v>
@@ -4988,30 +5062,30 @@
       <c r="DR12" s="21"/>
     </row>
     <row r="13" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A13" s="66">
-        <v>2</v>
-      </c>
-      <c r="B13" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="72" t="s">
+      <c r="A13" s="67">
+        <v>1.3</v>
+      </c>
+      <c r="B13" s="67"/>
+      <c r="C13" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="71"/>
+      <c r="E13" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="72" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="72" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="72"/>
-      <c r="I13" s="68">
-        <v>0</v>
-      </c>
-      <c r="J13" s="58" t="str">
+      <c r="F13" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="73"/>
+      <c r="I13" s="69">
+        <v>0</v>
+      </c>
+      <c r="J13" s="58">
         <f>IF(C13&lt;&gt;"",SUM(K13:DR13)/データ!$D$2,"")</f>
-        <v/>
+        <v>1.5</v>
       </c>
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
@@ -5129,18 +5203,18 @@
       <c r="DR13" s="19"/>
     </row>
     <row r="14" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A14" s="66"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="59" t="str">
+      <c r="A14" s="67"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="59">
         <f>IF(C13&lt;&gt;"",SUM(K14:DR14)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K14" s="20"/>
       <c r="L14" s="20"/>
@@ -5256,28 +5330,28 @@
       <c r="DR14" s="21"/>
     </row>
     <row r="15" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A15" s="70">
-        <v>2.1</v>
-      </c>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="72" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="72" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" s="72" t="s">
-        <v>64</v>
-      </c>
-      <c r="H15" s="72"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="58">
+      <c r="A15" s="71">
+        <v>2</v>
+      </c>
+      <c r="B15" s="71" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="73"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="58" t="str">
         <f>IF(C15&lt;&gt;"",SUM(K15:DR15)/データ!$D$2,"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="K15" s="18"/>
       <c r="L15" s="18"/>
@@ -5393,18 +5467,18 @@
       <c r="DR15" s="19"/>
     </row>
     <row r="16" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A16" s="71"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="59">
+      <c r="A16" s="72"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="59" t="str">
         <f>IF(C15&lt;&gt;"",SUM(K16:DR16)/データ!$D$2,"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="K16" s="20"/>
       <c r="L16" s="20"/>
@@ -5520,25 +5594,27 @@
       <c r="DR16" s="21"/>
     </row>
     <row r="17" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A17" s="70">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70" t="s">
+      <c r="A17" s="71">
+        <v>2.1</v>
+      </c>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="71" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="70"/>
-      <c r="E17" s="72" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="72" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" s="72" t="s">
-        <v>64</v>
-      </c>
-      <c r="H17" s="72"/>
-      <c r="I17" s="68"/>
+      <c r="F17" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="73"/>
+      <c r="I17" s="69"/>
       <c r="J17" s="58">
         <f>IF(C17&lt;&gt;"",SUM(K17:DR17)/データ!$D$2,"")</f>
         <v>0</v>
@@ -5657,15 +5733,15 @@
       <c r="DR17" s="19"/>
     </row>
     <row r="18" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A18" s="71"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="69"/>
+      <c r="A18" s="72"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="70"/>
       <c r="J18" s="59">
         <f>IF(C17&lt;&gt;"",SUM(K18:DR18)/データ!$D$2,"")</f>
         <v>0</v>
@@ -5784,22 +5860,28 @@
       <c r="DR18" s="21"/>
     </row>
     <row r="19" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A19" s="70">
-        <v>3</v>
-      </c>
-      <c r="B19" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="58" t="str">
+      <c r="A19" s="71">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="71" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="58">
         <f>IF(C19&lt;&gt;"",SUM(K19:DR19)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K19" s="18"/>
       <c r="L19" s="18"/>
@@ -5915,18 +5997,18 @@
       <c r="DR19" s="19"/>
     </row>
     <row r="20" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A20" s="71"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="59" t="str">
+      <c r="A20" s="72"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="59">
         <f>IF(C19&lt;&gt;"",SUM(K20:DR20)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K20" s="20"/>
       <c r="L20" s="20"/>
@@ -6042,19 +6124,21 @@
       <c r="DR20" s="21"/>
     </row>
     <row r="21" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="70">
-        <v>3.1</v>
-      </c>
-      <c r="B21" s="70"/>
-      <c r="C21" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="70"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="68"/>
+      <c r="A21" s="71">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B21" s="71"/>
+      <c r="C21" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="69"/>
       <c r="J21" s="58">
         <f>IF(C21&lt;&gt;"",SUM(K21:DR21)/データ!$D$2,"")</f>
         <v>0</v>
@@ -6173,15 +6257,15 @@
       <c r="DR21" s="19"/>
     </row>
     <row r="22" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A22" s="71"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="69"/>
+      <c r="A22" s="72"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="70"/>
       <c r="J22" s="59">
         <f>IF(C21&lt;&gt;"",SUM(K22:DR22)/データ!$D$2,"")</f>
         <v>0</v>
@@ -6300,19 +6384,19 @@
       <c r="DR22" s="21"/>
     </row>
     <row r="23" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A23" s="70">
-        <v>3.2</v>
-      </c>
-      <c r="B23" s="70"/>
-      <c r="C23" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="70"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="68"/>
+      <c r="A23" s="71">
+        <v>2.4</v>
+      </c>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="71"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="69"/>
       <c r="J23" s="58">
         <f>IF(C23&lt;&gt;"",SUM(K23:DR23)/データ!$D$2,"")</f>
         <v>0</v>
@@ -6431,15 +6515,15 @@
       <c r="DR23" s="19"/>
     </row>
     <row r="24" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A24" s="71"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="69"/>
+      <c r="A24" s="72"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="70"/>
       <c r="J24" s="59">
         <f>IF(C23&lt;&gt;"",SUM(K24:DR24)/データ!$D$2,"")</f>
         <v>0</v>
@@ -6558,22 +6642,22 @@
       <c r="DR24" s="21"/>
     </row>
     <row r="25" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="70">
-        <v>3.3</v>
-      </c>
-      <c r="B25" s="70"/>
-      <c r="C25" s="70" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="70"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="58">
+      <c r="A25" s="71">
+        <v>3</v>
+      </c>
+      <c r="B25" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="58" t="str">
         <f>IF(C25&lt;&gt;"",SUM(K25:DR25)/データ!$D$2,"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="K25" s="18"/>
       <c r="L25" s="18"/>
@@ -6689,18 +6773,18 @@
       <c r="DR25" s="19"/>
     </row>
     <row r="26" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A26" s="71"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="59">
+      <c r="A26" s="72"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="59" t="str">
         <f>IF(C25&lt;&gt;"",SUM(K26:DR26)/データ!$D$2,"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="K26" s="20"/>
       <c r="L26" s="20"/>
@@ -6816,19 +6900,19 @@
       <c r="DR26" s="21"/>
     </row>
     <row r="27" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="70">
-        <v>3.4</v>
-      </c>
-      <c r="B27" s="70"/>
-      <c r="C27" s="70" t="s">
-        <v>73</v>
-      </c>
-      <c r="D27" s="70"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="68"/>
+      <c r="A27" s="71">
+        <v>3.1</v>
+      </c>
+      <c r="B27" s="71"/>
+      <c r="C27" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="71"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="69"/>
       <c r="J27" s="58">
         <f>IF(C27&lt;&gt;"",SUM(K27:DR27)/データ!$D$2,"")</f>
         <v>0</v>
@@ -6947,15 +7031,15 @@
       <c r="DR27" s="19"/>
     </row>
     <row r="28" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A28" s="71"/>
-      <c r="B28" s="71"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="69"/>
+      <c r="A28" s="72"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="70"/>
       <c r="J28" s="59">
         <f>IF(C27&lt;&gt;"",SUM(K28:DR28)/データ!$D$2,"")</f>
         <v>0</v>
@@ -7074,19 +7158,19 @@
       <c r="DR28" s="21"/>
     </row>
     <row r="29" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A29" s="70">
-        <v>3.5</v>
-      </c>
-      <c r="B29" s="70"/>
-      <c r="C29" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="70"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="68"/>
+      <c r="A29" s="71">
+        <v>3.2</v>
+      </c>
+      <c r="B29" s="71"/>
+      <c r="C29" s="71" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="71"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="69"/>
       <c r="J29" s="58">
         <f>IF(C29&lt;&gt;"",SUM(K29:DR29)/データ!$D$2,"")</f>
         <v>0</v>
@@ -7205,15 +7289,15 @@
       <c r="DR29" s="19"/>
     </row>
     <row r="30" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A30" s="71"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="69"/>
+      <c r="A30" s="72"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="70"/>
       <c r="J30" s="59">
         <f>IF(C29&lt;&gt;"",SUM(K30:DR30)/データ!$D$2,"")</f>
         <v>0</v>
@@ -7332,19 +7416,19 @@
       <c r="DR30" s="21"/>
     </row>
     <row r="31" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A31" s="70">
-        <v>3.6</v>
-      </c>
-      <c r="B31" s="70"/>
-      <c r="C31" s="70" t="s">
-        <v>75</v>
-      </c>
-      <c r="D31" s="70"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="68"/>
+      <c r="A31" s="71">
+        <v>3.3</v>
+      </c>
+      <c r="B31" s="71"/>
+      <c r="C31" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="71"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="73"/>
+      <c r="I31" s="69"/>
       <c r="J31" s="58">
         <f>IF(C31&lt;&gt;"",SUM(K31:DR31)/データ!$D$2,"")</f>
         <v>0</v>
@@ -7463,15 +7547,15 @@
       <c r="DR31" s="19"/>
     </row>
     <row r="32" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A32" s="71"/>
-      <c r="B32" s="71"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="69"/>
+      <c r="A32" s="72"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="70"/>
       <c r="J32" s="59">
         <f>IF(C31&lt;&gt;"",SUM(K32:DR32)/データ!$D$2,"")</f>
         <v>0</v>
@@ -7590,19 +7674,21 @@
       <c r="DR32" s="21"/>
     </row>
     <row r="33" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="70">
-        <v>3.7</v>
-      </c>
-      <c r="B33" s="70"/>
-      <c r="C33" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" s="70"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="68"/>
+      <c r="A33" s="71">
+        <v>3.4</v>
+      </c>
+      <c r="B33" s="71"/>
+      <c r="C33" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="69"/>
       <c r="J33" s="58">
         <f>IF(C33&lt;&gt;"",SUM(K33:DR33)/データ!$D$2,"")</f>
         <v>0</v>
@@ -7721,15 +7807,15 @@
       <c r="DR33" s="19"/>
     </row>
     <row r="34" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A34" s="71"/>
-      <c r="B34" s="71"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="73"/>
-      <c r="I34" s="69"/>
+      <c r="A34" s="72"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="70"/>
       <c r="J34" s="59">
         <f>IF(C33&lt;&gt;"",SUM(K34:DR34)/データ!$D$2,"")</f>
         <v>0</v>
@@ -7848,19 +7934,21 @@
       <c r="DR34" s="21"/>
     </row>
     <row r="35" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A35" s="70">
-        <v>3.8</v>
-      </c>
-      <c r="B35" s="70"/>
-      <c r="C35" s="70" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" s="70"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="68"/>
+      <c r="A35" s="71">
+        <v>3.5</v>
+      </c>
+      <c r="B35" s="71"/>
+      <c r="C35" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="69"/>
       <c r="J35" s="58">
         <f>IF(C35&lt;&gt;"",SUM(K35:DR35)/データ!$D$2,"")</f>
         <v>0</v>
@@ -7979,15 +8067,15 @@
       <c r="DR35" s="19"/>
     </row>
     <row r="36" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A36" s="71"/>
-      <c r="B36" s="71"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="73"/>
-      <c r="F36" s="73"/>
-      <c r="G36" s="73"/>
-      <c r="H36" s="73"/>
-      <c r="I36" s="69"/>
+      <c r="A36" s="72"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="74"/>
+      <c r="G36" s="74"/>
+      <c r="H36" s="74"/>
+      <c r="I36" s="70"/>
       <c r="J36" s="59">
         <f>IF(C35&lt;&gt;"",SUM(K36:DR36)/データ!$D$2,"")</f>
         <v>0</v>
@@ -8106,22 +8194,22 @@
       <c r="DR36" s="21"/>
     </row>
     <row r="37" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A37" s="70">
-        <v>3.9</v>
-      </c>
-      <c r="B37" s="70"/>
-      <c r="C37" s="70" t="s">
-        <v>78</v>
-      </c>
-      <c r="D37" s="70"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="68"/>
-      <c r="J37" s="58">
+      <c r="A37" s="71">
+        <v>4</v>
+      </c>
+      <c r="B37" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="73"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="58" t="str">
         <f>IF(C37&lt;&gt;"",SUM(K37:DR37)/データ!$D$2,"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="K37" s="18"/>
       <c r="L37" s="18"/>
@@ -8237,18 +8325,18 @@
       <c r="DR37" s="19"/>
     </row>
     <row r="38" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A38" s="71"/>
-      <c r="B38" s="71"/>
-      <c r="C38" s="71"/>
-      <c r="D38" s="71"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="73"/>
-      <c r="G38" s="73"/>
-      <c r="H38" s="73"/>
-      <c r="I38" s="69"/>
-      <c r="J38" s="59">
+      <c r="A38" s="72"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="74"/>
+      <c r="H38" s="74"/>
+      <c r="I38" s="70"/>
+      <c r="J38" s="59" t="str">
         <f>IF(C37&lt;&gt;"",SUM(K38:DR38)/データ!$D$2,"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="K38" s="20"/>
       <c r="L38" s="20"/>
@@ -8364,19 +8452,21 @@
       <c r="DR38" s="21"/>
     </row>
     <row r="39" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="70" t="s">
-        <v>67</v>
-      </c>
-      <c r="B39" s="70"/>
-      <c r="C39" s="70" t="s">
-        <v>79</v>
-      </c>
-      <c r="D39" s="70"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="72"/>
-      <c r="I39" s="68"/>
+      <c r="A39" s="71">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B39" s="71"/>
+      <c r="C39" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="E39" s="73"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="73"/>
+      <c r="I39" s="69"/>
       <c r="J39" s="58">
         <f>IF(C39&lt;&gt;"",SUM(K39:DR39)/データ!$D$2,"")</f>
         <v>0</v>
@@ -8495,15 +8585,15 @@
       <c r="DR39" s="19"/>
     </row>
     <row r="40" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A40" s="71"/>
-      <c r="B40" s="71"/>
-      <c r="C40" s="71"/>
-      <c r="D40" s="71"/>
-      <c r="E40" s="73"/>
-      <c r="F40" s="73"/>
-      <c r="G40" s="73"/>
-      <c r="H40" s="73"/>
-      <c r="I40" s="69"/>
+      <c r="A40" s="72"/>
+      <c r="B40" s="72"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="70"/>
       <c r="J40" s="59">
         <f>IF(C39&lt;&gt;"",SUM(K40:DR40)/データ!$D$2,"")</f>
         <v>0</v>
@@ -8622,19 +8712,21 @@
       <c r="DR40" s="21"/>
     </row>
     <row r="41" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A41" s="70">
-        <v>3.11</v>
-      </c>
-      <c r="B41" s="70"/>
-      <c r="C41" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="D41" s="70"/>
-      <c r="E41" s="72"/>
-      <c r="F41" s="72"/>
-      <c r="G41" s="72"/>
-      <c r="H41" s="72"/>
-      <c r="I41" s="68"/>
+      <c r="A41" s="71">
+        <v>4.2</v>
+      </c>
+      <c r="B41" s="71"/>
+      <c r="C41" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" s="71" t="s">
+        <v>77</v>
+      </c>
+      <c r="E41" s="73"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="73"/>
+      <c r="I41" s="69"/>
       <c r="J41" s="58">
         <f>IF(C41&lt;&gt;"",SUM(K41:DR41)/データ!$D$2,"")</f>
         <v>0</v>
@@ -8753,15 +8845,15 @@
       <c r="DR41" s="19"/>
     </row>
     <row r="42" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A42" s="71"/>
-      <c r="B42" s="71"/>
-      <c r="C42" s="71"/>
-      <c r="D42" s="71"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="73"/>
-      <c r="G42" s="73"/>
-      <c r="H42" s="73"/>
-      <c r="I42" s="69"/>
+      <c r="A42" s="72"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="74"/>
+      <c r="G42" s="74"/>
+      <c r="H42" s="74"/>
+      <c r="I42" s="70"/>
       <c r="J42" s="59">
         <f>IF(C41&lt;&gt;"",SUM(K42:DR42)/データ!$D$2,"")</f>
         <v>0</v>
@@ -8880,22 +8972,22 @@
       <c r="DR42" s="21"/>
     </row>
     <row r="43" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A43" s="66">
-        <v>4</v>
-      </c>
-      <c r="B43" s="66" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" s="66"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="67"/>
-      <c r="H43" s="67"/>
-      <c r="I43" s="68"/>
-      <c r="J43" s="58" t="str">
+      <c r="A43" s="67">
+        <v>4.3</v>
+      </c>
+      <c r="B43" s="67"/>
+      <c r="C43" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43" s="67"/>
+      <c r="E43" s="68"/>
+      <c r="F43" s="68"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="68"/>
+      <c r="I43" s="69"/>
+      <c r="J43" s="58">
         <f>IF(C43&lt;&gt;"",SUM(K43:DR43)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K43" s="18"/>
       <c r="L43" s="18"/>
@@ -9011,18 +9103,18 @@
       <c r="DR43" s="19"/>
     </row>
     <row r="44" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A44" s="66"/>
-      <c r="B44" s="66"/>
-      <c r="C44" s="66"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="67"/>
-      <c r="G44" s="67"/>
-      <c r="H44" s="67"/>
-      <c r="I44" s="69"/>
-      <c r="J44" s="59" t="str">
+      <c r="A44" s="67"/>
+      <c r="B44" s="67"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="68"/>
+      <c r="G44" s="68"/>
+      <c r="H44" s="68"/>
+      <c r="I44" s="70"/>
+      <c r="J44" s="59">
         <f>IF(C43&lt;&gt;"",SUM(K44:DR44)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K44" s="20"/>
       <c r="L44" s="20"/>
@@ -9138,22 +9230,22 @@
       <c r="DR44" s="21"/>
     </row>
     <row r="45" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A45" s="66">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B45" s="66"/>
-      <c r="C45" s="66" t="s">
-        <v>82</v>
-      </c>
-      <c r="D45" s="66"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="67"/>
-      <c r="G45" s="67"/>
-      <c r="H45" s="67"/>
-      <c r="I45" s="68"/>
-      <c r="J45" s="58">
+      <c r="A45" s="67">
+        <v>5</v>
+      </c>
+      <c r="B45" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="67"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="68"/>
+      <c r="H45" s="68"/>
+      <c r="I45" s="69"/>
+      <c r="J45" s="58" t="str">
         <f>IF(C45&lt;&gt;"",SUM(K45:DR45)/データ!$D$2,"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="K45" s="18"/>
       <c r="L45" s="18"/>
@@ -9269,18 +9361,18 @@
       <c r="DR45" s="19"/>
     </row>
     <row r="46" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A46" s="66"/>
-      <c r="B46" s="66"/>
-      <c r="C46" s="66"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="67"/>
-      <c r="H46" s="67"/>
-      <c r="I46" s="69"/>
-      <c r="J46" s="59">
+      <c r="A46" s="67"/>
+      <c r="B46" s="67"/>
+      <c r="C46" s="67"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="68"/>
+      <c r="H46" s="68"/>
+      <c r="I46" s="70"/>
+      <c r="J46" s="59" t="str">
         <f>IF(C45&lt;&gt;"",SUM(K46:DR46)/データ!$D$2,"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="K46" s="20"/>
       <c r="L46" s="20"/>
@@ -9396,19 +9488,21 @@
       <c r="DR46" s="21"/>
     </row>
     <row r="47" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A47" s="66">
-        <v>4.2</v>
-      </c>
-      <c r="B47" s="66"/>
-      <c r="C47" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="D47" s="66"/>
-      <c r="E47" s="67"/>
-      <c r="F47" s="67"/>
-      <c r="G47" s="67"/>
-      <c r="H47" s="67"/>
-      <c r="I47" s="68"/>
+      <c r="A47" s="67">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B47" s="67"/>
+      <c r="C47" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="D47" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="E47" s="68"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="68"/>
+      <c r="I47" s="69"/>
       <c r="J47" s="58">
         <f>IF(C47&lt;&gt;"",SUM(K47:DR47)/データ!$D$2,"")</f>
         <v>0</v>
@@ -9527,15 +9621,15 @@
       <c r="DR47" s="19"/>
     </row>
     <row r="48" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A48" s="66"/>
-      <c r="B48" s="66"/>
-      <c r="C48" s="66"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="67"/>
-      <c r="H48" s="67"/>
-      <c r="I48" s="69"/>
+      <c r="A48" s="67"/>
+      <c r="B48" s="67"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="68"/>
+      <c r="F48" s="68"/>
+      <c r="G48" s="68"/>
+      <c r="H48" s="68"/>
+      <c r="I48" s="70"/>
       <c r="J48" s="59">
         <f>IF(C47&lt;&gt;"",SUM(K48:DR48)/データ!$D$2,"")</f>
         <v>0</v>
@@ -9654,22 +9748,24 @@
       <c r="DR48" s="21"/>
     </row>
     <row r="49" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A49" s="66">
-        <v>5</v>
-      </c>
-      <c r="B49" s="66" t="s">
-        <v>83</v>
-      </c>
-      <c r="C49" s="66"/>
-      <c r="D49" s="66"/>
-      <c r="E49" s="67"/>
-      <c r="F49" s="67"/>
-      <c r="G49" s="67"/>
-      <c r="H49" s="67"/>
-      <c r="I49" s="68"/>
-      <c r="J49" s="58" t="str">
+      <c r="A49" s="67">
+        <v>5.2</v>
+      </c>
+      <c r="B49" s="67"/>
+      <c r="C49" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="D49" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="E49" s="68"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="68"/>
+      <c r="I49" s="69"/>
+      <c r="J49" s="58">
         <f>IF(C49&lt;&gt;"",SUM(K49:DR49)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K49" s="18"/>
       <c r="L49" s="18"/>
@@ -9785,18 +9881,18 @@
       <c r="DR49" s="19"/>
     </row>
     <row r="50" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A50" s="66"/>
-      <c r="B50" s="66"/>
-      <c r="C50" s="66"/>
-      <c r="D50" s="66"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="67"/>
-      <c r="G50" s="67"/>
-      <c r="H50" s="67"/>
-      <c r="I50" s="69"/>
-      <c r="J50" s="59" t="str">
+      <c r="A50" s="67"/>
+      <c r="B50" s="67"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="67"/>
+      <c r="E50" s="68"/>
+      <c r="F50" s="68"/>
+      <c r="G50" s="68"/>
+      <c r="H50" s="68"/>
+      <c r="I50" s="70"/>
+      <c r="J50" s="59">
         <f>IF(C49&lt;&gt;"",SUM(K50:DR50)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K50" s="20"/>
       <c r="L50" s="20"/>
@@ -9912,19 +10008,21 @@
       <c r="DR50" s="21"/>
     </row>
     <row r="51" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A51" s="66">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B51" s="66"/>
-      <c r="C51" s="66" t="s">
-        <v>84</v>
-      </c>
-      <c r="D51" s="66"/>
-      <c r="E51" s="67"/>
-      <c r="F51" s="67"/>
-      <c r="G51" s="67"/>
-      <c r="H51" s="67"/>
-      <c r="I51" s="68"/>
+      <c r="A51" s="67">
+        <v>5.3</v>
+      </c>
+      <c r="B51" s="67"/>
+      <c r="C51" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="D51" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="E51" s="68"/>
+      <c r="F51" s="68"/>
+      <c r="G51" s="68"/>
+      <c r="H51" s="68"/>
+      <c r="I51" s="69"/>
       <c r="J51" s="58">
         <f>IF(C51&lt;&gt;"",SUM(K51:DR51)/データ!$D$2,"")</f>
         <v>0</v>
@@ -10043,15 +10141,15 @@
       <c r="DR51" s="19"/>
     </row>
     <row r="52" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A52" s="66"/>
-      <c r="B52" s="66"/>
-      <c r="C52" s="66"/>
-      <c r="D52" s="66"/>
-      <c r="E52" s="67"/>
-      <c r="F52" s="67"/>
-      <c r="G52" s="67"/>
-      <c r="H52" s="67"/>
-      <c r="I52" s="69"/>
+      <c r="A52" s="67"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="67"/>
+      <c r="E52" s="68"/>
+      <c r="F52" s="68"/>
+      <c r="G52" s="68"/>
+      <c r="H52" s="68"/>
+      <c r="I52" s="70"/>
       <c r="J52" s="59">
         <f>IF(C51&lt;&gt;"",SUM(K52:DR52)/データ!$D$2,"")</f>
         <v>0</v>
@@ -10170,19 +10268,19 @@
       <c r="DR52" s="21"/>
     </row>
     <row r="53" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A53" s="66">
-        <v>5.2</v>
-      </c>
-      <c r="B53" s="66"/>
-      <c r="C53" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="D53" s="66"/>
-      <c r="E53" s="67"/>
-      <c r="F53" s="67"/>
-      <c r="G53" s="67"/>
-      <c r="H53" s="67"/>
-      <c r="I53" s="68"/>
+      <c r="A53" s="67">
+        <v>5.4</v>
+      </c>
+      <c r="B53" s="67"/>
+      <c r="C53" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="D53" s="67"/>
+      <c r="E53" s="68"/>
+      <c r="F53" s="68"/>
+      <c r="G53" s="68"/>
+      <c r="H53" s="68"/>
+      <c r="I53" s="69"/>
       <c r="J53" s="58">
         <f>IF(C53&lt;&gt;"",SUM(K53:DR53)/データ!$D$2,"")</f>
         <v>0</v>
@@ -10301,15 +10399,15 @@
       <c r="DR53" s="19"/>
     </row>
     <row r="54" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A54" s="66"/>
-      <c r="B54" s="66"/>
-      <c r="C54" s="66"/>
-      <c r="D54" s="66"/>
-      <c r="E54" s="67"/>
-      <c r="F54" s="67"/>
-      <c r="G54" s="67"/>
-      <c r="H54" s="67"/>
-      <c r="I54" s="69"/>
+      <c r="A54" s="67"/>
+      <c r="B54" s="67"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="68"/>
+      <c r="F54" s="68"/>
+      <c r="G54" s="68"/>
+      <c r="H54" s="68"/>
+      <c r="I54" s="70"/>
       <c r="J54" s="59">
         <f>IF(C53&lt;&gt;"",SUM(K54:DR54)/データ!$D$2,"")</f>
         <v>0</v>
@@ -10428,19 +10526,19 @@
       <c r="DR54" s="21"/>
     </row>
     <row r="55" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A55" s="66">
+      <c r="A55" s="67">
         <v>6</v>
       </c>
-      <c r="B55" s="66" t="s">
-        <v>85</v>
-      </c>
-      <c r="C55" s="66"/>
-      <c r="D55" s="66"/>
-      <c r="E55" s="67"/>
-      <c r="F55" s="67"/>
-      <c r="G55" s="67"/>
-      <c r="H55" s="67"/>
-      <c r="I55" s="68"/>
+      <c r="B55" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="C55" s="67"/>
+      <c r="D55" s="67"/>
+      <c r="E55" s="68"/>
+      <c r="F55" s="68"/>
+      <c r="G55" s="68"/>
+      <c r="H55" s="68"/>
+      <c r="I55" s="69"/>
       <c r="J55" s="58" t="str">
         <f>IF(C55&lt;&gt;"",SUM(K55:DR55)/データ!$D$2,"")</f>
         <v/>
@@ -10559,15 +10657,15 @@
       <c r="DR55" s="19"/>
     </row>
     <row r="56" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A56" s="66"/>
-      <c r="B56" s="66"/>
-      <c r="C56" s="66"/>
-      <c r="D56" s="66"/>
-      <c r="E56" s="67"/>
-      <c r="F56" s="67"/>
-      <c r="G56" s="67"/>
-      <c r="H56" s="67"/>
-      <c r="I56" s="69"/>
+      <c r="A56" s="67"/>
+      <c r="B56" s="67"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="68"/>
+      <c r="F56" s="68"/>
+      <c r="G56" s="68"/>
+      <c r="H56" s="68"/>
+      <c r="I56" s="70"/>
       <c r="J56" s="59" t="str">
         <f>IF(C55&lt;&gt;"",SUM(K56:DR56)/データ!$D$2,"")</f>
         <v/>
@@ -10686,19 +10784,19 @@
       <c r="DR56" s="21"/>
     </row>
     <row r="57" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A57" s="66">
+      <c r="A57" s="67">
         <v>6.1</v>
       </c>
-      <c r="B57" s="66"/>
-      <c r="C57" s="66" t="s">
-        <v>86</v>
-      </c>
-      <c r="D57" s="66"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="67"/>
-      <c r="H57" s="67"/>
-      <c r="I57" s="68"/>
+      <c r="B57" s="67"/>
+      <c r="C57" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="D57" s="67"/>
+      <c r="E57" s="68"/>
+      <c r="F57" s="68"/>
+      <c r="G57" s="68"/>
+      <c r="H57" s="68"/>
+      <c r="I57" s="69"/>
       <c r="J57" s="58">
         <f>IF(C57&lt;&gt;"",SUM(K57:DR57)/データ!$D$2,"")</f>
         <v>0</v>
@@ -10817,15 +10915,15 @@
       <c r="DR57" s="19"/>
     </row>
     <row r="58" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A58" s="66"/>
-      <c r="B58" s="66"/>
-      <c r="C58" s="66"/>
-      <c r="D58" s="66"/>
-      <c r="E58" s="67"/>
-      <c r="F58" s="67"/>
-      <c r="G58" s="67"/>
-      <c r="H58" s="67"/>
-      <c r="I58" s="69"/>
+      <c r="A58" s="67"/>
+      <c r="B58" s="67"/>
+      <c r="C58" s="67"/>
+      <c r="D58" s="67"/>
+      <c r="E58" s="68"/>
+      <c r="F58" s="68"/>
+      <c r="G58" s="68"/>
+      <c r="H58" s="68"/>
+      <c r="I58" s="70"/>
       <c r="J58" s="59">
         <f>IF(C57&lt;&gt;"",SUM(K58:DR58)/データ!$D$2,"")</f>
         <v>0</v>
@@ -10944,19 +11042,19 @@
       <c r="DR58" s="21"/>
     </row>
     <row r="59" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A59" s="66">
+      <c r="A59" s="67">
         <v>6.2</v>
       </c>
-      <c r="B59" s="66"/>
-      <c r="C59" s="66" t="s">
-        <v>87</v>
-      </c>
-      <c r="D59" s="66"/>
-      <c r="E59" s="67"/>
-      <c r="F59" s="67"/>
-      <c r="G59" s="67"/>
-      <c r="H59" s="67"/>
-      <c r="I59" s="68"/>
+      <c r="B59" s="67"/>
+      <c r="C59" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="D59" s="67"/>
+      <c r="E59" s="68"/>
+      <c r="F59" s="68"/>
+      <c r="G59" s="68"/>
+      <c r="H59" s="68"/>
+      <c r="I59" s="69"/>
       <c r="J59" s="58">
         <f>IF(C59&lt;&gt;"",SUM(K59:DR59)/データ!$D$2,"")</f>
         <v>0</v>
@@ -11075,15 +11173,15 @@
       <c r="DR59" s="19"/>
     </row>
     <row r="60" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A60" s="66"/>
-      <c r="B60" s="66"/>
-      <c r="C60" s="66"/>
-      <c r="D60" s="66"/>
-      <c r="E60" s="67"/>
-      <c r="F60" s="67"/>
-      <c r="G60" s="67"/>
-      <c r="H60" s="67"/>
-      <c r="I60" s="69"/>
+      <c r="A60" s="67"/>
+      <c r="B60" s="67"/>
+      <c r="C60" s="67"/>
+      <c r="D60" s="67"/>
+      <c r="E60" s="68"/>
+      <c r="F60" s="68"/>
+      <c r="G60" s="68"/>
+      <c r="H60" s="68"/>
+      <c r="I60" s="70"/>
       <c r="J60" s="59">
         <f>IF(C59&lt;&gt;"",SUM(K60:DR60)/データ!$D$2,"")</f>
         <v>0</v>
@@ -11202,19 +11300,21 @@
       <c r="DR60" s="21"/>
     </row>
     <row r="61" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A61" s="66">
+      <c r="A61" s="67">
         <v>6.3</v>
       </c>
-      <c r="B61" s="66"/>
-      <c r="C61" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="D61" s="66"/>
-      <c r="E61" s="67"/>
-      <c r="F61" s="67"/>
-      <c r="G61" s="67"/>
-      <c r="H61" s="67"/>
-      <c r="I61" s="68"/>
+      <c r="B61" s="67"/>
+      <c r="C61" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="D61" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="E61" s="68"/>
+      <c r="F61" s="68"/>
+      <c r="G61" s="68"/>
+      <c r="H61" s="68"/>
+      <c r="I61" s="69"/>
       <c r="J61" s="58">
         <f>IF(C61&lt;&gt;"",SUM(K61:DR61)/データ!$D$2,"")</f>
         <v>0</v>
@@ -11333,15 +11433,15 @@
       <c r="DR61" s="19"/>
     </row>
     <row r="62" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A62" s="66"/>
-      <c r="B62" s="66"/>
-      <c r="C62" s="66"/>
-      <c r="D62" s="66"/>
-      <c r="E62" s="67"/>
-      <c r="F62" s="67"/>
-      <c r="G62" s="67"/>
-      <c r="H62" s="67"/>
-      <c r="I62" s="69"/>
+      <c r="A62" s="67"/>
+      <c r="B62" s="67"/>
+      <c r="C62" s="67"/>
+      <c r="D62" s="67"/>
+      <c r="E62" s="68"/>
+      <c r="F62" s="68"/>
+      <c r="G62" s="68"/>
+      <c r="H62" s="68"/>
+      <c r="I62" s="70"/>
       <c r="J62" s="59">
         <f>IF(C61&lt;&gt;"",SUM(K62:DR62)/データ!$D$2,"")</f>
         <v>0</v>
@@ -11460,22 +11560,22 @@
       <c r="DR62" s="21"/>
     </row>
     <row r="63" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A63" s="66">
-        <v>6.4</v>
-      </c>
-      <c r="B63" s="66"/>
-      <c r="C63" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="D63" s="66"/>
-      <c r="E63" s="67"/>
-      <c r="F63" s="67"/>
-      <c r="G63" s="67"/>
-      <c r="H63" s="67"/>
-      <c r="I63" s="68"/>
-      <c r="J63" s="58">
+      <c r="A63" s="67">
+        <v>7</v>
+      </c>
+      <c r="B63" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="C63" s="67"/>
+      <c r="D63" s="67"/>
+      <c r="E63" s="68"/>
+      <c r="F63" s="68"/>
+      <c r="G63" s="68"/>
+      <c r="H63" s="68"/>
+      <c r="I63" s="69"/>
+      <c r="J63" s="58" t="str">
         <f>IF(C63&lt;&gt;"",SUM(K63:DR63)/データ!$D$2,"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="K63" s="18"/>
       <c r="L63" s="18"/>
@@ -11591,18 +11691,18 @@
       <c r="DR63" s="19"/>
     </row>
     <row r="64" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A64" s="66"/>
-      <c r="B64" s="66"/>
-      <c r="C64" s="66"/>
-      <c r="D64" s="66"/>
-      <c r="E64" s="67"/>
-      <c r="F64" s="67"/>
-      <c r="G64" s="67"/>
-      <c r="H64" s="67"/>
-      <c r="I64" s="69"/>
-      <c r="J64" s="59">
+      <c r="A64" s="67"/>
+      <c r="B64" s="67"/>
+      <c r="C64" s="67"/>
+      <c r="D64" s="67"/>
+      <c r="E64" s="68"/>
+      <c r="F64" s="68"/>
+      <c r="G64" s="68"/>
+      <c r="H64" s="68"/>
+      <c r="I64" s="70"/>
+      <c r="J64" s="59" t="str">
         <f>IF(C63&lt;&gt;"",SUM(K64:DR64)/データ!$D$2,"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="K64" s="20"/>
       <c r="L64" s="20"/>
@@ -11718,19 +11818,21 @@
       <c r="DR64" s="21"/>
     </row>
     <row r="65" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A65" s="66">
-        <v>6.5</v>
-      </c>
-      <c r="B65" s="70"/>
-      <c r="C65" s="70" t="s">
-        <v>90</v>
-      </c>
-      <c r="D65" s="70"/>
-      <c r="E65" s="72"/>
-      <c r="F65" s="72"/>
-      <c r="G65" s="72"/>
-      <c r="H65" s="72"/>
-      <c r="I65" s="68"/>
+      <c r="A65" s="67">
+        <v>7.1</v>
+      </c>
+      <c r="B65" s="71"/>
+      <c r="C65" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="D65" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="E65" s="73"/>
+      <c r="F65" s="73"/>
+      <c r="G65" s="73"/>
+      <c r="H65" s="73"/>
+      <c r="I65" s="69"/>
       <c r="J65" s="58">
         <f>IF(C65&lt;&gt;"",SUM(K65:DR65)/データ!$D$2,"")</f>
         <v>0</v>
@@ -11849,15 +11951,15 @@
       <c r="DR65" s="19"/>
     </row>
     <row r="66" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A66" s="66"/>
-      <c r="B66" s="71"/>
-      <c r="C66" s="71"/>
-      <c r="D66" s="71"/>
-      <c r="E66" s="73"/>
-      <c r="F66" s="73"/>
-      <c r="G66" s="73"/>
-      <c r="H66" s="73"/>
-      <c r="I66" s="69"/>
+      <c r="A66" s="67"/>
+      <c r="B66" s="72"/>
+      <c r="C66" s="72"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="74"/>
+      <c r="F66" s="74"/>
+      <c r="G66" s="74"/>
+      <c r="H66" s="74"/>
+      <c r="I66" s="70"/>
       <c r="J66" s="59">
         <f>IF(C65&lt;&gt;"",SUM(K66:DR66)/データ!$D$2,"")</f>
         <v>0</v>
@@ -11976,19 +12078,19 @@
       <c r="DR66" s="21"/>
     </row>
     <row r="67" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A67" s="66">
-        <v>6.6</v>
-      </c>
-      <c r="B67" s="66"/>
-      <c r="C67" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="D67" s="66"/>
-      <c r="E67" s="67"/>
-      <c r="F67" s="67"/>
-      <c r="G67" s="67"/>
-      <c r="H67" s="67"/>
-      <c r="I67" s="68"/>
+      <c r="A67" s="67">
+        <v>7.2</v>
+      </c>
+      <c r="B67" s="67"/>
+      <c r="C67" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="D67" s="67"/>
+      <c r="E67" s="68"/>
+      <c r="F67" s="68"/>
+      <c r="G67" s="68"/>
+      <c r="H67" s="68"/>
+      <c r="I67" s="69"/>
       <c r="J67" s="58">
         <f>IF(C67&lt;&gt;"",SUM(K67:DR67)/データ!$D$2,"")</f>
         <v>0</v>
@@ -12107,15 +12209,15 @@
       <c r="DR67" s="19"/>
     </row>
     <row r="68" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A68" s="66"/>
-      <c r="B68" s="66"/>
-      <c r="C68" s="66"/>
-      <c r="D68" s="66"/>
-      <c r="E68" s="67"/>
-      <c r="F68" s="67"/>
-      <c r="G68" s="67"/>
-      <c r="H68" s="67"/>
-      <c r="I68" s="69"/>
+      <c r="A68" s="67"/>
+      <c r="B68" s="67"/>
+      <c r="C68" s="67"/>
+      <c r="D68" s="67"/>
+      <c r="E68" s="68"/>
+      <c r="F68" s="68"/>
+      <c r="G68" s="68"/>
+      <c r="H68" s="68"/>
+      <c r="I68" s="70"/>
       <c r="J68" s="59">
         <f>IF(C67&lt;&gt;"",SUM(K68:DR68)/データ!$D$2,"")</f>
         <v>0</v>
@@ -12234,19 +12336,19 @@
       <c r="DR68" s="21"/>
     </row>
     <row r="69" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A69" s="66">
-        <v>7</v>
-      </c>
-      <c r="B69" s="66" t="s">
-        <v>91</v>
-      </c>
-      <c r="C69" s="66"/>
-      <c r="D69" s="66"/>
-      <c r="E69" s="67"/>
-      <c r="F69" s="67"/>
-      <c r="G69" s="67"/>
-      <c r="H69" s="67"/>
-      <c r="I69" s="68"/>
+      <c r="A69" s="67">
+        <v>8</v>
+      </c>
+      <c r="B69" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="C69" s="67"/>
+      <c r="D69" s="67"/>
+      <c r="E69" s="68"/>
+      <c r="F69" s="68"/>
+      <c r="G69" s="68"/>
+      <c r="H69" s="68"/>
+      <c r="I69" s="69"/>
       <c r="J69" s="58" t="str">
         <f>IF(C69&lt;&gt;"",SUM(K69:DR69)/データ!$D$2,"")</f>
         <v/>
@@ -12365,15 +12467,15 @@
       <c r="DR69" s="19"/>
     </row>
     <row r="70" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A70" s="66"/>
-      <c r="B70" s="66"/>
-      <c r="C70" s="66"/>
-      <c r="D70" s="66"/>
-      <c r="E70" s="67"/>
-      <c r="F70" s="67"/>
-      <c r="G70" s="67"/>
-      <c r="H70" s="67"/>
-      <c r="I70" s="69"/>
+      <c r="A70" s="67"/>
+      <c r="B70" s="67"/>
+      <c r="C70" s="67"/>
+      <c r="D70" s="67"/>
+      <c r="E70" s="68"/>
+      <c r="F70" s="68"/>
+      <c r="G70" s="68"/>
+      <c r="H70" s="68"/>
+      <c r="I70" s="70"/>
       <c r="J70" s="59" t="str">
         <f>IF(C69&lt;&gt;"",SUM(K70:DR70)/データ!$D$2,"")</f>
         <v/>
@@ -12492,19 +12594,19 @@
       <c r="DR70" s="21"/>
     </row>
     <row r="71" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A71" s="70">
-        <v>7.1</v>
-      </c>
-      <c r="B71" s="70"/>
-      <c r="C71" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="D71" s="70"/>
-      <c r="E71" s="72"/>
-      <c r="F71" s="72"/>
-      <c r="G71" s="72"/>
-      <c r="H71" s="72"/>
-      <c r="I71" s="68"/>
+      <c r="A71" s="71">
+        <v>8.1</v>
+      </c>
+      <c r="B71" s="71"/>
+      <c r="C71" s="71" t="s">
+        <v>97</v>
+      </c>
+      <c r="D71" s="71"/>
+      <c r="E71" s="73"/>
+      <c r="F71" s="73"/>
+      <c r="G71" s="73"/>
+      <c r="H71" s="73"/>
+      <c r="I71" s="69"/>
       <c r="J71" s="58">
         <f>IF(C71&lt;&gt;"",SUM(K71:DR71)/データ!$D$2,"")</f>
         <v>0</v>
@@ -12623,15 +12725,15 @@
       <c r="DR71" s="19"/>
     </row>
     <row r="72" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A72" s="71"/>
-      <c r="B72" s="71"/>
-      <c r="C72" s="71"/>
-      <c r="D72" s="71"/>
-      <c r="E72" s="73"/>
-      <c r="F72" s="73"/>
-      <c r="G72" s="73"/>
-      <c r="H72" s="73"/>
-      <c r="I72" s="69"/>
+      <c r="A72" s="72"/>
+      <c r="B72" s="72"/>
+      <c r="C72" s="72"/>
+      <c r="D72" s="72"/>
+      <c r="E72" s="74"/>
+      <c r="F72" s="74"/>
+      <c r="G72" s="74"/>
+      <c r="H72" s="74"/>
+      <c r="I72" s="70"/>
       <c r="J72" s="59">
         <f>IF(C71&lt;&gt;"",SUM(K72:DR72)/データ!$D$2,"")</f>
         <v>0</v>
@@ -12750,19 +12852,21 @@
       <c r="DR72" s="21"/>
     </row>
     <row r="73" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A73" s="70">
-        <v>7.2</v>
-      </c>
-      <c r="B73" s="70"/>
-      <c r="C73" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="D73" s="70"/>
-      <c r="E73" s="72"/>
-      <c r="F73" s="72"/>
-      <c r="G73" s="72"/>
-      <c r="H73" s="72"/>
-      <c r="I73" s="68"/>
+      <c r="A73" s="71">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B73" s="71"/>
+      <c r="C73" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="D73" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="E73" s="73"/>
+      <c r="F73" s="73"/>
+      <c r="G73" s="73"/>
+      <c r="H73" s="73"/>
+      <c r="I73" s="69"/>
       <c r="J73" s="58">
         <f>IF(C73&lt;&gt;"",SUM(K73:DR73)/データ!$D$2,"")</f>
         <v>0</v>
@@ -12881,15 +12985,15 @@
       <c r="DR73" s="19"/>
     </row>
     <row r="74" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A74" s="71"/>
-      <c r="B74" s="71"/>
-      <c r="C74" s="71"/>
-      <c r="D74" s="71"/>
-      <c r="E74" s="73"/>
-      <c r="F74" s="73"/>
-      <c r="G74" s="73"/>
-      <c r="H74" s="73"/>
-      <c r="I74" s="69"/>
+      <c r="A74" s="72"/>
+      <c r="B74" s="72"/>
+      <c r="C74" s="72"/>
+      <c r="D74" s="72"/>
+      <c r="E74" s="74"/>
+      <c r="F74" s="74"/>
+      <c r="G74" s="74"/>
+      <c r="H74" s="74"/>
+      <c r="I74" s="70"/>
       <c r="J74" s="59">
         <f>IF(C73&lt;&gt;"",SUM(K74:DR74)/データ!$D$2,"")</f>
         <v>0</v>
@@ -13008,22 +13112,22 @@
       <c r="DR74" s="21"/>
     </row>
     <row r="75" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A75" s="70">
-        <v>8</v>
-      </c>
-      <c r="B75" s="70" t="s">
-        <v>93</v>
-      </c>
-      <c r="C75" s="70"/>
-      <c r="D75" s="70"/>
-      <c r="E75" s="72"/>
-      <c r="F75" s="72"/>
-      <c r="G75" s="72"/>
-      <c r="H75" s="72"/>
-      <c r="I75" s="68"/>
-      <c r="J75" s="58" t="str">
+      <c r="A75" s="71">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="B75" s="71"/>
+      <c r="C75" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="D75" s="71"/>
+      <c r="E75" s="73"/>
+      <c r="F75" s="73"/>
+      <c r="G75" s="73"/>
+      <c r="H75" s="73"/>
+      <c r="I75" s="69"/>
+      <c r="J75" s="58">
         <f>IF(C75&lt;&gt;"",SUM(K75:DR75)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K75" s="18"/>
       <c r="L75" s="18"/>
@@ -13139,18 +13243,18 @@
       <c r="DR75" s="19"/>
     </row>
     <row r="76" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A76" s="71"/>
-      <c r="B76" s="71"/>
-      <c r="C76" s="71"/>
-      <c r="D76" s="71"/>
-      <c r="E76" s="73"/>
-      <c r="F76" s="73"/>
-      <c r="G76" s="73"/>
-      <c r="H76" s="73"/>
-      <c r="I76" s="69"/>
-      <c r="J76" s="59" t="str">
+      <c r="A76" s="72"/>
+      <c r="B76" s="72"/>
+      <c r="C76" s="72"/>
+      <c r="D76" s="72"/>
+      <c r="E76" s="74"/>
+      <c r="F76" s="74"/>
+      <c r="G76" s="74"/>
+      <c r="H76" s="74"/>
+      <c r="I76" s="70"/>
+      <c r="J76" s="59">
         <f>IF(C75&lt;&gt;"",SUM(K76:DR76)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K76" s="20"/>
       <c r="L76" s="20"/>
@@ -13266,22 +13370,22 @@
       <c r="DR76" s="21"/>
     </row>
     <row r="77" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="70">
-        <v>8.1</v>
-      </c>
-      <c r="B77" s="70"/>
-      <c r="C77" s="70" t="s">
-        <v>94</v>
-      </c>
-      <c r="D77" s="70"/>
-      <c r="E77" s="72"/>
-      <c r="F77" s="72"/>
-      <c r="G77" s="72"/>
-      <c r="H77" s="72"/>
-      <c r="I77" s="68"/>
-      <c r="J77" s="58">
+      <c r="A77" s="71">
+        <v>9</v>
+      </c>
+      <c r="B77" s="71" t="s">
+        <v>98</v>
+      </c>
+      <c r="C77" s="71"/>
+      <c r="D77" s="71"/>
+      <c r="E77" s="73"/>
+      <c r="F77" s="73"/>
+      <c r="G77" s="73"/>
+      <c r="H77" s="73"/>
+      <c r="I77" s="69"/>
+      <c r="J77" s="58" t="str">
         <f>IF(C77&lt;&gt;"",SUM(K77:DR77)/データ!$D$2,"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="K77" s="18"/>
       <c r="L77" s="18"/>
@@ -13397,18 +13501,18 @@
       <c r="DR77" s="19"/>
     </row>
     <row r="78" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A78" s="71"/>
-      <c r="B78" s="71"/>
-      <c r="C78" s="71"/>
-      <c r="D78" s="71"/>
-      <c r="E78" s="73"/>
-      <c r="F78" s="73"/>
-      <c r="G78" s="73"/>
-      <c r="H78" s="73"/>
-      <c r="I78" s="69"/>
-      <c r="J78" s="59">
+      <c r="A78" s="72"/>
+      <c r="B78" s="72"/>
+      <c r="C78" s="72"/>
+      <c r="D78" s="72"/>
+      <c r="E78" s="74"/>
+      <c r="F78" s="74"/>
+      <c r="G78" s="74"/>
+      <c r="H78" s="74"/>
+      <c r="I78" s="70"/>
+      <c r="J78" s="59" t="str">
         <f>IF(C77&lt;&gt;"",SUM(K78:DR78)/データ!$D$2,"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="K78" s="20"/>
       <c r="L78" s="20"/>
@@ -13524,19 +13628,21 @@
       <c r="DR78" s="21"/>
     </row>
     <row r="79" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A79" s="70">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="B79" s="70"/>
-      <c r="C79" s="70" t="s">
-        <v>95</v>
-      </c>
-      <c r="D79" s="70"/>
-      <c r="E79" s="72"/>
-      <c r="F79" s="72"/>
-      <c r="G79" s="72"/>
-      <c r="H79" s="72"/>
-      <c r="I79" s="68"/>
+      <c r="A79" s="71">
+        <v>9.1</v>
+      </c>
+      <c r="B79" s="71"/>
+      <c r="C79" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="D79" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="E79" s="73"/>
+      <c r="F79" s="73"/>
+      <c r="G79" s="73"/>
+      <c r="H79" s="73"/>
+      <c r="I79" s="69"/>
       <c r="J79" s="58">
         <f>IF(C79&lt;&gt;"",SUM(K79:DR79)/データ!$D$2,"")</f>
         <v>0</v>
@@ -13655,15 +13761,15 @@
       <c r="DR79" s="19"/>
     </row>
     <row r="80" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A80" s="71"/>
-      <c r="B80" s="71"/>
-      <c r="C80" s="71"/>
-      <c r="D80" s="71"/>
-      <c r="E80" s="73"/>
-      <c r="F80" s="73"/>
-      <c r="G80" s="73"/>
-      <c r="H80" s="73"/>
-      <c r="I80" s="69"/>
+      <c r="A80" s="72"/>
+      <c r="B80" s="72"/>
+      <c r="C80" s="72"/>
+      <c r="D80" s="72"/>
+      <c r="E80" s="74"/>
+      <c r="F80" s="74"/>
+      <c r="G80" s="74"/>
+      <c r="H80" s="74"/>
+      <c r="I80" s="70"/>
       <c r="J80" s="59">
         <f>IF(C79&lt;&gt;"",SUM(K80:DR80)/データ!$D$2,"")</f>
         <v>0</v>
@@ -13782,22 +13888,24 @@
       <c r="DR80" s="21"/>
     </row>
     <row r="81" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="70">
-        <v>9</v>
-      </c>
-      <c r="B81" s="70" t="s">
-        <v>96</v>
-      </c>
-      <c r="C81" s="70"/>
-      <c r="D81" s="70"/>
-      <c r="E81" s="72"/>
-      <c r="F81" s="72"/>
-      <c r="G81" s="72"/>
-      <c r="H81" s="72"/>
-      <c r="I81" s="68"/>
-      <c r="J81" s="58" t="str">
+      <c r="A81" s="71">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="B81" s="71"/>
+      <c r="C81" s="71" t="s">
+        <v>100</v>
+      </c>
+      <c r="D81" s="71" t="s">
+        <v>117</v>
+      </c>
+      <c r="E81" s="73"/>
+      <c r="F81" s="73"/>
+      <c r="G81" s="73"/>
+      <c r="H81" s="73"/>
+      <c r="I81" s="69"/>
+      <c r="J81" s="58">
         <f>IF(C81&lt;&gt;"",SUM(K81:DR81)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K81" s="18"/>
       <c r="L81" s="18"/>
@@ -13913,18 +14021,18 @@
       <c r="DR81" s="19"/>
     </row>
     <row r="82" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A82" s="71"/>
-      <c r="B82" s="71"/>
-      <c r="C82" s="71"/>
-      <c r="D82" s="71"/>
-      <c r="E82" s="73"/>
-      <c r="F82" s="73"/>
-      <c r="G82" s="73"/>
-      <c r="H82" s="73"/>
-      <c r="I82" s="69"/>
-      <c r="J82" s="59" t="str">
+      <c r="A82" s="72"/>
+      <c r="B82" s="72"/>
+      <c r="C82" s="72"/>
+      <c r="D82" s="72"/>
+      <c r="E82" s="74"/>
+      <c r="F82" s="74"/>
+      <c r="G82" s="74"/>
+      <c r="H82" s="74"/>
+      <c r="I82" s="70"/>
+      <c r="J82" s="59">
         <f>IF(C81&lt;&gt;"",SUM(K82:DR82)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K82" s="20"/>
       <c r="L82" s="20"/>
@@ -14040,19 +14148,19 @@
       <c r="DR82" s="21"/>
     </row>
     <row r="83" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="70">
-        <v>9.1</v>
-      </c>
-      <c r="B83" s="70"/>
-      <c r="C83" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="D83" s="70"/>
-      <c r="E83" s="72"/>
-      <c r="F83" s="72"/>
-      <c r="G83" s="72"/>
-      <c r="H83" s="72"/>
-      <c r="I83" s="68"/>
+      <c r="A83" s="71">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="B83" s="71"/>
+      <c r="C83" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="D83" s="71"/>
+      <c r="E83" s="73"/>
+      <c r="F83" s="73"/>
+      <c r="G83" s="73"/>
+      <c r="H83" s="73"/>
+      <c r="I83" s="69"/>
       <c r="J83" s="58">
         <f>IF(C83&lt;&gt;"",SUM(K83:DR83)/データ!$D$2,"")</f>
         <v>0</v>
@@ -14171,15 +14279,15 @@
       <c r="DR83" s="19"/>
     </row>
     <row r="84" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A84" s="71"/>
-      <c r="B84" s="71"/>
-      <c r="C84" s="71"/>
-      <c r="D84" s="71"/>
-      <c r="E84" s="73"/>
-      <c r="F84" s="73"/>
-      <c r="G84" s="73"/>
-      <c r="H84" s="73"/>
-      <c r="I84" s="69"/>
+      <c r="A84" s="72"/>
+      <c r="B84" s="72"/>
+      <c r="C84" s="72"/>
+      <c r="D84" s="72"/>
+      <c r="E84" s="74"/>
+      <c r="F84" s="74"/>
+      <c r="G84" s="74"/>
+      <c r="H84" s="74"/>
+      <c r="I84" s="70"/>
       <c r="J84" s="59">
         <f>IF(C83&lt;&gt;"",SUM(K84:DR84)/データ!$D$2,"")</f>
         <v>0</v>
@@ -14298,22 +14406,22 @@
       <c r="DR84" s="21"/>
     </row>
     <row r="85" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A85" s="70">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="B85" s="70"/>
-      <c r="C85" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="D85" s="70"/>
-      <c r="E85" s="72"/>
-      <c r="F85" s="72"/>
-      <c r="G85" s="72"/>
-      <c r="H85" s="72"/>
-      <c r="I85" s="68"/>
-      <c r="J85" s="58">
+      <c r="A85" s="71">
+        <v>10</v>
+      </c>
+      <c r="B85" s="71" t="s">
+        <v>101</v>
+      </c>
+      <c r="C85" s="71"/>
+      <c r="D85" s="71"/>
+      <c r="E85" s="73"/>
+      <c r="F85" s="73"/>
+      <c r="G85" s="73"/>
+      <c r="H85" s="73"/>
+      <c r="I85" s="69"/>
+      <c r="J85" s="58" t="str">
         <f>IF(C85&lt;&gt;"",SUM(K85:DR85)/データ!$D$2,"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="K85" s="18"/>
       <c r="L85" s="18"/>
@@ -14429,18 +14537,18 @@
       <c r="DR85" s="19"/>
     </row>
     <row r="86" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A86" s="71"/>
-      <c r="B86" s="71"/>
-      <c r="C86" s="71"/>
-      <c r="D86" s="71"/>
-      <c r="E86" s="73"/>
-      <c r="F86" s="73"/>
-      <c r="G86" s="73"/>
-      <c r="H86" s="73"/>
-      <c r="I86" s="69"/>
-      <c r="J86" s="59">
+      <c r="A86" s="72"/>
+      <c r="B86" s="72"/>
+      <c r="C86" s="72"/>
+      <c r="D86" s="72"/>
+      <c r="E86" s="74"/>
+      <c r="F86" s="74"/>
+      <c r="G86" s="74"/>
+      <c r="H86" s="74"/>
+      <c r="I86" s="70"/>
+      <c r="J86" s="59" t="str">
         <f>IF(C85&lt;&gt;"",SUM(K86:DR86)/データ!$D$2,"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="K86" s="20"/>
       <c r="L86" s="20"/>
@@ -14556,22 +14664,22 @@
       <c r="DR86" s="21"/>
     </row>
     <row r="87" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A87" s="70">
-        <v>10</v>
-      </c>
-      <c r="B87" s="70" t="s">
-        <v>98</v>
-      </c>
-      <c r="C87" s="70"/>
-      <c r="D87" s="70"/>
-      <c r="E87" s="72"/>
-      <c r="F87" s="72"/>
-      <c r="G87" s="72"/>
-      <c r="H87" s="72"/>
-      <c r="I87" s="68"/>
-      <c r="J87" s="58" t="str">
+      <c r="A87" s="71">
+        <v>10.1</v>
+      </c>
+      <c r="B87" s="71"/>
+      <c r="C87" s="71" t="s">
+        <v>102</v>
+      </c>
+      <c r="D87" s="71"/>
+      <c r="E87" s="73"/>
+      <c r="F87" s="73"/>
+      <c r="G87" s="73"/>
+      <c r="H87" s="73"/>
+      <c r="I87" s="69"/>
+      <c r="J87" s="58">
         <f>IF(C87&lt;&gt;"",SUM(K87:DR87)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K87" s="18"/>
       <c r="L87" s="18"/>
@@ -14687,18 +14795,18 @@
       <c r="DR87" s="19"/>
     </row>
     <row r="88" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A88" s="71"/>
-      <c r="B88" s="71"/>
-      <c r="C88" s="71"/>
-      <c r="D88" s="71"/>
-      <c r="E88" s="73"/>
-      <c r="F88" s="73"/>
-      <c r="G88" s="73"/>
-      <c r="H88" s="73"/>
-      <c r="I88" s="69"/>
-      <c r="J88" s="59" t="str">
+      <c r="A88" s="72"/>
+      <c r="B88" s="72"/>
+      <c r="C88" s="72"/>
+      <c r="D88" s="72"/>
+      <c r="E88" s="74"/>
+      <c r="F88" s="74"/>
+      <c r="G88" s="74"/>
+      <c r="H88" s="74"/>
+      <c r="I88" s="70"/>
+      <c r="J88" s="59">
         <f>IF(C87&lt;&gt;"",SUM(K88:DR88)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K88" s="20"/>
       <c r="L88" s="20"/>
@@ -14814,19 +14922,19 @@
       <c r="DR88" s="21"/>
     </row>
     <row r="89" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="70">
-        <v>10.1</v>
-      </c>
-      <c r="B89" s="93"/>
-      <c r="C89" s="70" t="s">
-        <v>99</v>
-      </c>
-      <c r="D89" s="70"/>
-      <c r="E89" s="72"/>
-      <c r="F89" s="72"/>
-      <c r="G89" s="72"/>
-      <c r="H89" s="72"/>
-      <c r="I89" s="68"/>
+      <c r="A89" s="71">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="B89" s="66"/>
+      <c r="C89" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="D89" s="71"/>
+      <c r="E89" s="73"/>
+      <c r="F89" s="73"/>
+      <c r="G89" s="73"/>
+      <c r="H89" s="73"/>
+      <c r="I89" s="69"/>
       <c r="J89" s="58">
         <f>IF(C89&lt;&gt;"",SUM(K89:DR89)/データ!$D$2,"")</f>
         <v>0</v>
@@ -14945,15 +15053,15 @@
       <c r="DR89" s="19"/>
     </row>
     <row r="90" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A90" s="71"/>
-      <c r="B90" s="93"/>
-      <c r="C90" s="71"/>
-      <c r="D90" s="71"/>
-      <c r="E90" s="73"/>
-      <c r="F90" s="73"/>
-      <c r="G90" s="73"/>
-      <c r="H90" s="73"/>
-      <c r="I90" s="69"/>
+      <c r="A90" s="72"/>
+      <c r="B90" s="66"/>
+      <c r="C90" s="72"/>
+      <c r="D90" s="72"/>
+      <c r="E90" s="74"/>
+      <c r="F90" s="74"/>
+      <c r="G90" s="74"/>
+      <c r="H90" s="74"/>
+      <c r="I90" s="70"/>
       <c r="J90" s="59">
         <f>IF(C89&lt;&gt;"",SUM(K90:DR90)/データ!$D$2,"")</f>
         <v>0</v>
@@ -15072,19 +15180,19 @@
       <c r="DR90" s="21"/>
     </row>
     <row r="91" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="70">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="B91" s="70"/>
-      <c r="C91" s="70" t="s">
-        <v>100</v>
-      </c>
-      <c r="D91" s="70"/>
-      <c r="E91" s="72"/>
-      <c r="F91" s="72"/>
-      <c r="G91" s="72"/>
-      <c r="H91" s="72"/>
-      <c r="I91" s="68"/>
+      <c r="A91" s="71">
+        <v>10.3</v>
+      </c>
+      <c r="B91" s="71"/>
+      <c r="C91" s="71" t="s">
+        <v>104</v>
+      </c>
+      <c r="D91" s="71"/>
+      <c r="E91" s="73"/>
+      <c r="F91" s="73"/>
+      <c r="G91" s="73"/>
+      <c r="H91" s="73"/>
+      <c r="I91" s="69"/>
       <c r="J91" s="58">
         <f>IF(C91&lt;&gt;"",SUM(K91:DR91)/データ!$D$2,"")</f>
         <v>0</v>
@@ -15203,15 +15311,15 @@
       <c r="DR91" s="19"/>
     </row>
     <row r="92" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A92" s="71"/>
-      <c r="B92" s="71"/>
-      <c r="C92" s="71"/>
-      <c r="D92" s="71"/>
-      <c r="E92" s="73"/>
-      <c r="F92" s="73"/>
-      <c r="G92" s="73"/>
-      <c r="H92" s="73"/>
-      <c r="I92" s="69"/>
+      <c r="A92" s="72"/>
+      <c r="B92" s="72"/>
+      <c r="C92" s="72"/>
+      <c r="D92" s="72"/>
+      <c r="E92" s="74"/>
+      <c r="F92" s="74"/>
+      <c r="G92" s="74"/>
+      <c r="H92" s="74"/>
+      <c r="I92" s="70"/>
       <c r="J92" s="59">
         <f>IF(C91&lt;&gt;"",SUM(K92:DR92)/データ!$D$2,"")</f>
         <v>0</v>
@@ -15330,19 +15438,21 @@
       <c r="DR92" s="21"/>
     </row>
     <row r="93" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A93" s="70">
-        <v>10.3</v>
-      </c>
-      <c r="B93" s="70"/>
-      <c r="C93" s="70" t="s">
-        <v>102</v>
-      </c>
-      <c r="D93" s="70"/>
-      <c r="E93" s="72"/>
-      <c r="F93" s="72"/>
-      <c r="G93" s="72"/>
-      <c r="H93" s="72"/>
-      <c r="I93" s="68"/>
+      <c r="A93" s="71">
+        <v>10.4</v>
+      </c>
+      <c r="B93" s="71"/>
+      <c r="C93" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="D93" s="71" t="s">
+        <v>101</v>
+      </c>
+      <c r="E93" s="73"/>
+      <c r="F93" s="73"/>
+      <c r="G93" s="73"/>
+      <c r="H93" s="73"/>
+      <c r="I93" s="69"/>
       <c r="J93" s="58">
         <f>IF(C93&lt;&gt;"",SUM(K93:DR93)/データ!$D$2,"")</f>
         <v>0</v>
@@ -15461,15 +15571,15 @@
       <c r="DR93" s="19"/>
     </row>
     <row r="94" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A94" s="71"/>
-      <c r="B94" s="71"/>
-      <c r="C94" s="71"/>
-      <c r="D94" s="71"/>
-      <c r="E94" s="73"/>
-      <c r="F94" s="73"/>
-      <c r="G94" s="73"/>
-      <c r="H94" s="73"/>
-      <c r="I94" s="69"/>
+      <c r="A94" s="72"/>
+      <c r="B94" s="72"/>
+      <c r="C94" s="72"/>
+      <c r="D94" s="72"/>
+      <c r="E94" s="74"/>
+      <c r="F94" s="74"/>
+      <c r="G94" s="74"/>
+      <c r="H94" s="74"/>
+      <c r="I94" s="70"/>
       <c r="J94" s="59">
         <f>IF(C93&lt;&gt;"",SUM(K94:DR94)/データ!$D$2,"")</f>
         <v>0</v>
@@ -15588,22 +15698,22 @@
       <c r="DR94" s="21"/>
     </row>
     <row r="95" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="70">
-        <v>10.4</v>
-      </c>
-      <c r="B95" s="70"/>
-      <c r="C95" s="70" t="s">
-        <v>101</v>
-      </c>
-      <c r="D95" s="70"/>
-      <c r="E95" s="72"/>
-      <c r="F95" s="72"/>
-      <c r="G95" s="72"/>
-      <c r="H95" s="72"/>
-      <c r="I95" s="68"/>
-      <c r="J95" s="58">
+      <c r="A95" s="71">
+        <v>11</v>
+      </c>
+      <c r="B95" s="71" t="s">
+        <v>108</v>
+      </c>
+      <c r="C95" s="71"/>
+      <c r="D95" s="71"/>
+      <c r="E95" s="73"/>
+      <c r="F95" s="73"/>
+      <c r="G95" s="73"/>
+      <c r="H95" s="73"/>
+      <c r="I95" s="69"/>
+      <c r="J95" s="58" t="str">
         <f>IF(C95&lt;&gt;"",SUM(K95:DR95)/データ!$D$2,"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="K95" s="18"/>
       <c r="L95" s="18"/>
@@ -15719,18 +15829,18 @@
       <c r="DR95" s="19"/>
     </row>
     <row r="96" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A96" s="71"/>
-      <c r="B96" s="71"/>
-      <c r="C96" s="71"/>
-      <c r="D96" s="71"/>
-      <c r="E96" s="73"/>
-      <c r="F96" s="73"/>
-      <c r="G96" s="73"/>
-      <c r="H96" s="73"/>
-      <c r="I96" s="69"/>
-      <c r="J96" s="59">
+      <c r="A96" s="72"/>
+      <c r="B96" s="72"/>
+      <c r="C96" s="72"/>
+      <c r="D96" s="72"/>
+      <c r="E96" s="74"/>
+      <c r="F96" s="74"/>
+      <c r="G96" s="74"/>
+      <c r="H96" s="74"/>
+      <c r="I96" s="70"/>
+      <c r="J96" s="59" t="str">
         <f>IF(C95&lt;&gt;"",SUM(K96:DR96)/データ!$D$2,"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="K96" s="20"/>
       <c r="L96" s="20"/>
@@ -15846,19 +15956,21 @@
       <c r="DR96" s="21"/>
     </row>
     <row r="97" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A97" s="70">
-        <v>10.5</v>
-      </c>
-      <c r="B97" s="70"/>
-      <c r="C97" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="D97" s="70"/>
-      <c r="E97" s="72"/>
-      <c r="F97" s="72"/>
-      <c r="G97" s="72"/>
-      <c r="H97" s="72"/>
-      <c r="I97" s="68"/>
+      <c r="A97" s="71">
+        <v>11.1</v>
+      </c>
+      <c r="B97" s="71"/>
+      <c r="C97" s="71" t="s">
+        <v>107</v>
+      </c>
+      <c r="D97" s="71" t="s">
+        <v>105</v>
+      </c>
+      <c r="E97" s="73"/>
+      <c r="F97" s="73"/>
+      <c r="G97" s="73"/>
+      <c r="H97" s="73"/>
+      <c r="I97" s="69"/>
       <c r="J97" s="58">
         <f>IF(C97&lt;&gt;"",SUM(K97:DR97)/データ!$D$2,"")</f>
         <v>0</v>
@@ -15977,15 +16089,15 @@
       <c r="DR97" s="19"/>
     </row>
     <row r="98" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A98" s="71"/>
-      <c r="B98" s="71"/>
-      <c r="C98" s="71"/>
-      <c r="D98" s="71"/>
-      <c r="E98" s="73"/>
-      <c r="F98" s="73"/>
-      <c r="G98" s="73"/>
-      <c r="H98" s="73"/>
-      <c r="I98" s="69"/>
+      <c r="A98" s="72"/>
+      <c r="B98" s="72"/>
+      <c r="C98" s="72"/>
+      <c r="D98" s="72"/>
+      <c r="E98" s="74"/>
+      <c r="F98" s="74"/>
+      <c r="G98" s="74"/>
+      <c r="H98" s="74"/>
+      <c r="I98" s="70"/>
       <c r="J98" s="59">
         <f>IF(C97&lt;&gt;"",SUM(K98:DR98)/データ!$D$2,"")</f>
         <v>0</v>
@@ -16104,22 +16216,24 @@
       <c r="DR98" s="21"/>
     </row>
     <row r="99" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A99" s="66">
-        <v>11</v>
-      </c>
-      <c r="B99" s="66" t="s">
-        <v>103</v>
-      </c>
-      <c r="C99" s="66"/>
-      <c r="D99" s="66"/>
-      <c r="E99" s="67"/>
-      <c r="F99" s="67"/>
-      <c r="G99" s="67"/>
-      <c r="H99" s="67"/>
-      <c r="I99" s="68"/>
-      <c r="J99" s="58" t="str">
+      <c r="A99" s="67">
+        <v>11.2</v>
+      </c>
+      <c r="B99" s="67"/>
+      <c r="C99" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="D99" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="E99" s="68"/>
+      <c r="F99" s="68"/>
+      <c r="G99" s="68"/>
+      <c r="H99" s="68"/>
+      <c r="I99" s="69"/>
+      <c r="J99" s="58">
         <f>IF(C99&lt;&gt;"",SUM(K99:DR99)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K99" s="18"/>
       <c r="L99" s="18"/>
@@ -16235,18 +16349,18 @@
       <c r="DR99" s="19"/>
     </row>
     <row r="100" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A100" s="66"/>
-      <c r="B100" s="66"/>
-      <c r="C100" s="66"/>
-      <c r="D100" s="66"/>
-      <c r="E100" s="67"/>
-      <c r="F100" s="67"/>
-      <c r="G100" s="67"/>
-      <c r="H100" s="67"/>
-      <c r="I100" s="69"/>
-      <c r="J100" s="59" t="str">
+      <c r="A100" s="67"/>
+      <c r="B100" s="67"/>
+      <c r="C100" s="67"/>
+      <c r="D100" s="67"/>
+      <c r="E100" s="68"/>
+      <c r="F100" s="68"/>
+      <c r="G100" s="68"/>
+      <c r="H100" s="68"/>
+      <c r="I100" s="70"/>
+      <c r="J100" s="59">
         <f>IF(C99&lt;&gt;"",SUM(K100:DR100)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K100" s="20"/>
       <c r="L100" s="20"/>
@@ -16362,19 +16476,19 @@
       <c r="DR100" s="21"/>
     </row>
     <row r="101" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A101" s="66">
-        <v>11.1</v>
-      </c>
-      <c r="B101" s="66"/>
-      <c r="C101" s="66" t="s">
-        <v>82</v>
-      </c>
-      <c r="D101" s="66"/>
-      <c r="E101" s="67"/>
-      <c r="F101" s="67"/>
-      <c r="G101" s="67"/>
-      <c r="H101" s="67"/>
-      <c r="I101" s="68"/>
+      <c r="A101" s="67">
+        <v>11.3</v>
+      </c>
+      <c r="B101" s="67"/>
+      <c r="C101" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="D101" s="67"/>
+      <c r="E101" s="68"/>
+      <c r="F101" s="68"/>
+      <c r="G101" s="68"/>
+      <c r="H101" s="68"/>
+      <c r="I101" s="69"/>
       <c r="J101" s="58">
         <f>IF(C101&lt;&gt;"",SUM(K101:DR101)/データ!$D$2,"")</f>
         <v>0</v>
@@ -16493,15 +16607,15 @@
       <c r="DR101" s="19"/>
     </row>
     <row r="102" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A102" s="66"/>
-      <c r="B102" s="66"/>
-      <c r="C102" s="66"/>
-      <c r="D102" s="66"/>
-      <c r="E102" s="67"/>
-      <c r="F102" s="67"/>
-      <c r="G102" s="67"/>
-      <c r="H102" s="67"/>
-      <c r="I102" s="69"/>
+      <c r="A102" s="67"/>
+      <c r="B102" s="67"/>
+      <c r="C102" s="67"/>
+      <c r="D102" s="67"/>
+      <c r="E102" s="68"/>
+      <c r="F102" s="68"/>
+      <c r="G102" s="68"/>
+      <c r="H102" s="68"/>
+      <c r="I102" s="70"/>
       <c r="J102" s="59">
         <f>IF(C101&lt;&gt;"",SUM(K102:DR102)/データ!$D$2,"")</f>
         <v>0</v>
@@ -16620,22 +16734,22 @@
       <c r="DR102" s="21"/>
     </row>
     <row r="103" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A103" s="66">
-        <v>11.2</v>
-      </c>
-      <c r="B103" s="66"/>
-      <c r="C103" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="D103" s="66"/>
-      <c r="E103" s="67"/>
-      <c r="F103" s="67"/>
-      <c r="G103" s="67"/>
-      <c r="H103" s="67"/>
-      <c r="I103" s="68"/>
-      <c r="J103" s="58">
+      <c r="A103" s="67">
+        <v>12</v>
+      </c>
+      <c r="B103" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="C103" s="67"/>
+      <c r="D103" s="67"/>
+      <c r="E103" s="68"/>
+      <c r="F103" s="68"/>
+      <c r="G103" s="68"/>
+      <c r="H103" s="68"/>
+      <c r="I103" s="69"/>
+      <c r="J103" s="58" t="str">
         <f>IF(C103&lt;&gt;"",SUM(K103:DR103)/データ!$D$2,"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="K103" s="18"/>
       <c r="L103" s="18"/>
@@ -16751,18 +16865,18 @@
       <c r="DR103" s="19"/>
     </row>
     <row r="104" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A104" s="66"/>
-      <c r="B104" s="66"/>
-      <c r="C104" s="66"/>
-      <c r="D104" s="66"/>
-      <c r="E104" s="67"/>
-      <c r="F104" s="67"/>
-      <c r="G104" s="67"/>
-      <c r="H104" s="67"/>
-      <c r="I104" s="69"/>
-      <c r="J104" s="59">
+      <c r="A104" s="67"/>
+      <c r="B104" s="67"/>
+      <c r="C104" s="67"/>
+      <c r="D104" s="67"/>
+      <c r="E104" s="68"/>
+      <c r="F104" s="68"/>
+      <c r="G104" s="68"/>
+      <c r="H104" s="68"/>
+      <c r="I104" s="70"/>
+      <c r="J104" s="59" t="str">
         <f>IF(C103&lt;&gt;"",SUM(K104:DR104)/データ!$D$2,"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="K104" s="20"/>
       <c r="L104" s="20"/>
@@ -16878,22 +16992,24 @@
       <c r="DR104" s="21"/>
     </row>
     <row r="105" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A105" s="66">
-        <v>12</v>
-      </c>
-      <c r="B105" s="66" t="s">
-        <v>104</v>
-      </c>
-      <c r="C105" s="66"/>
-      <c r="D105" s="66"/>
-      <c r="E105" s="67"/>
-      <c r="F105" s="67"/>
-      <c r="G105" s="67"/>
-      <c r="H105" s="67"/>
-      <c r="I105" s="68"/>
-      <c r="J105" s="58" t="str">
+      <c r="A105" s="67">
+        <v>12.1</v>
+      </c>
+      <c r="B105" s="67"/>
+      <c r="C105" s="67" t="s">
+        <v>121</v>
+      </c>
+      <c r="D105" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="E105" s="68"/>
+      <c r="F105" s="68"/>
+      <c r="G105" s="68"/>
+      <c r="H105" s="68"/>
+      <c r="I105" s="69"/>
+      <c r="J105" s="58">
         <f>IF(C105&lt;&gt;"",SUM(K105:DR105)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K105" s="18"/>
       <c r="L105" s="18"/>
@@ -17009,18 +17125,18 @@
       <c r="DR105" s="19"/>
     </row>
     <row r="106" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A106" s="66"/>
-      <c r="B106" s="66"/>
-      <c r="C106" s="66"/>
-      <c r="D106" s="66"/>
-      <c r="E106" s="67"/>
-      <c r="F106" s="67"/>
-      <c r="G106" s="67"/>
-      <c r="H106" s="67"/>
-      <c r="I106" s="69"/>
-      <c r="J106" s="59" t="str">
+      <c r="A106" s="67"/>
+      <c r="B106" s="67"/>
+      <c r="C106" s="67"/>
+      <c r="D106" s="67"/>
+      <c r="E106" s="68"/>
+      <c r="F106" s="68"/>
+      <c r="G106" s="68"/>
+      <c r="H106" s="68"/>
+      <c r="I106" s="70"/>
+      <c r="J106" s="59">
         <f>IF(C105&lt;&gt;"",SUM(K106:DR106)/データ!$D$2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K106" s="20"/>
       <c r="L106" s="20"/>
@@ -17136,19 +17252,21 @@
       <c r="DR106" s="21"/>
     </row>
     <row r="107" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A107" s="66">
-        <v>12.1</v>
-      </c>
-      <c r="B107" s="66"/>
-      <c r="C107" s="66" t="s">
-        <v>105</v>
-      </c>
-      <c r="D107" s="66"/>
-      <c r="E107" s="67"/>
-      <c r="F107" s="67"/>
-      <c r="G107" s="67"/>
-      <c r="H107" s="67"/>
-      <c r="I107" s="68"/>
+      <c r="A107" s="67">
+        <v>12.2</v>
+      </c>
+      <c r="B107" s="67"/>
+      <c r="C107" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="D107" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="E107" s="68"/>
+      <c r="F107" s="68"/>
+      <c r="G107" s="68"/>
+      <c r="H107" s="68"/>
+      <c r="I107" s="69"/>
       <c r="J107" s="58">
         <f>IF(C107&lt;&gt;"",SUM(K107:DR107)/データ!$D$2,"")</f>
         <v>0</v>
@@ -17267,15 +17385,15 @@
       <c r="DR107" s="19"/>
     </row>
     <row r="108" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A108" s="66"/>
-      <c r="B108" s="66"/>
-      <c r="C108" s="66"/>
-      <c r="D108" s="66"/>
-      <c r="E108" s="67"/>
-      <c r="F108" s="67"/>
-      <c r="G108" s="67"/>
-      <c r="H108" s="67"/>
-      <c r="I108" s="69"/>
+      <c r="A108" s="67"/>
+      <c r="B108" s="67"/>
+      <c r="C108" s="67"/>
+      <c r="D108" s="67"/>
+      <c r="E108" s="68"/>
+      <c r="F108" s="68"/>
+      <c r="G108" s="68"/>
+      <c r="H108" s="68"/>
+      <c r="I108" s="70"/>
       <c r="J108" s="59">
         <f>IF(C107&lt;&gt;"",SUM(K108:DR108)/データ!$D$2,"")</f>
         <v>0</v>
@@ -17394,19 +17512,19 @@
       <c r="DR108" s="21"/>
     </row>
     <row r="109" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A109" s="66">
-        <v>12.2</v>
-      </c>
-      <c r="B109" s="66"/>
-      <c r="C109" s="66" t="s">
-        <v>106</v>
-      </c>
-      <c r="D109" s="66"/>
-      <c r="E109" s="67"/>
-      <c r="F109" s="67"/>
-      <c r="G109" s="67"/>
-      <c r="H109" s="67"/>
-      <c r="I109" s="68"/>
+      <c r="A109" s="67">
+        <v>12.3</v>
+      </c>
+      <c r="B109" s="67"/>
+      <c r="C109" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="D109" s="67"/>
+      <c r="E109" s="68"/>
+      <c r="F109" s="68"/>
+      <c r="G109" s="68"/>
+      <c r="H109" s="68"/>
+      <c r="I109" s="69"/>
       <c r="J109" s="58">
         <f>IF(C109&lt;&gt;"",SUM(K109:DR109)/データ!$D$2,"")</f>
         <v>0</v>
@@ -17525,15 +17643,15 @@
       <c r="DR109" s="19"/>
     </row>
     <row r="110" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A110" s="66"/>
-      <c r="B110" s="66"/>
-      <c r="C110" s="66"/>
-      <c r="D110" s="66"/>
-      <c r="E110" s="67"/>
-      <c r="F110" s="67"/>
-      <c r="G110" s="67"/>
-      <c r="H110" s="67"/>
-      <c r="I110" s="69"/>
+      <c r="A110" s="67"/>
+      <c r="B110" s="67"/>
+      <c r="C110" s="67"/>
+      <c r="D110" s="67"/>
+      <c r="E110" s="68"/>
+      <c r="F110" s="68"/>
+      <c r="G110" s="68"/>
+      <c r="H110" s="68"/>
+      <c r="I110" s="70"/>
       <c r="J110" s="59">
         <f>IF(C109&lt;&gt;"",SUM(K110:DR110)/データ!$D$2,"")</f>
         <v>0</v>
@@ -17652,22 +17770,18 @@
       <c r="DR110" s="21"/>
     </row>
     <row r="111" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A111" s="66">
-        <v>12.3</v>
-      </c>
-      <c r="B111" s="66"/>
-      <c r="C111" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="D111" s="66"/>
-      <c r="E111" s="67"/>
-      <c r="F111" s="67"/>
-      <c r="G111" s="67"/>
-      <c r="H111" s="67"/>
-      <c r="I111" s="68"/>
-      <c r="J111" s="58">
+      <c r="A111" s="67"/>
+      <c r="B111" s="67"/>
+      <c r="C111" s="67"/>
+      <c r="D111" s="67"/>
+      <c r="E111" s="68"/>
+      <c r="F111" s="68"/>
+      <c r="G111" s="68"/>
+      <c r="H111" s="68"/>
+      <c r="I111" s="69"/>
+      <c r="J111" s="58" t="str">
         <f>IF(C111&lt;&gt;"",SUM(K111:DR111)/データ!$D$2,"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="K111" s="18"/>
       <c r="L111" s="18"/>
@@ -17783,18 +17897,18 @@
       <c r="DR111" s="19"/>
     </row>
     <row r="112" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A112" s="66"/>
-      <c r="B112" s="66"/>
-      <c r="C112" s="66"/>
-      <c r="D112" s="66"/>
-      <c r="E112" s="67"/>
-      <c r="F112" s="67"/>
-      <c r="G112" s="67"/>
-      <c r="H112" s="67"/>
-      <c r="I112" s="69"/>
-      <c r="J112" s="59">
+      <c r="A112" s="67"/>
+      <c r="B112" s="67"/>
+      <c r="C112" s="67"/>
+      <c r="D112" s="67"/>
+      <c r="E112" s="68"/>
+      <c r="F112" s="68"/>
+      <c r="G112" s="68"/>
+      <c r="H112" s="68"/>
+      <c r="I112" s="70"/>
+      <c r="J112" s="59" t="str">
         <f>IF(C111&lt;&gt;"",SUM(K112:DR112)/データ!$D$2,"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="K112" s="20"/>
       <c r="L112" s="20"/>
@@ -17910,19 +18024,15 @@
       <c r="DR112" s="21"/>
     </row>
     <row r="113" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A113" s="66">
-        <v>13</v>
-      </c>
-      <c r="B113" s="66" t="s">
-        <v>107</v>
-      </c>
-      <c r="C113" s="66"/>
-      <c r="D113" s="66"/>
-      <c r="E113" s="67"/>
-      <c r="F113" s="67"/>
-      <c r="G113" s="67"/>
-      <c r="H113" s="67"/>
-      <c r="I113" s="68"/>
+      <c r="A113" s="67"/>
+      <c r="B113" s="67"/>
+      <c r="C113" s="67"/>
+      <c r="D113" s="67"/>
+      <c r="E113" s="68"/>
+      <c r="F113" s="68"/>
+      <c r="G113" s="68"/>
+      <c r="H113" s="68"/>
+      <c r="I113" s="69"/>
       <c r="J113" s="58" t="str">
         <f>IF(C113&lt;&gt;"",SUM(K113:DR113)/データ!$D$2,"")</f>
         <v/>
@@ -18041,15 +18151,15 @@
       <c r="DR113" s="19"/>
     </row>
     <row r="114" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A114" s="66"/>
-      <c r="B114" s="66"/>
-      <c r="C114" s="66"/>
-      <c r="D114" s="66"/>
-      <c r="E114" s="67"/>
-      <c r="F114" s="67"/>
-      <c r="G114" s="67"/>
-      <c r="H114" s="67"/>
-      <c r="I114" s="69"/>
+      <c r="A114" s="67"/>
+      <c r="B114" s="67"/>
+      <c r="C114" s="67"/>
+      <c r="D114" s="67"/>
+      <c r="E114" s="68"/>
+      <c r="F114" s="68"/>
+      <c r="G114" s="68"/>
+      <c r="H114" s="68"/>
+      <c r="I114" s="70"/>
       <c r="J114" s="59" t="str">
         <f>IF(C113&lt;&gt;"",SUM(K114:DR114)/データ!$D$2,"")</f>
         <v/>
@@ -18168,22 +18278,18 @@
       <c r="DR114" s="21"/>
     </row>
     <row r="115" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A115" s="66">
-        <v>13.1</v>
-      </c>
-      <c r="B115" s="66"/>
-      <c r="C115" s="66" t="s">
-        <v>108</v>
-      </c>
-      <c r="D115" s="66"/>
-      <c r="E115" s="67"/>
-      <c r="F115" s="67"/>
-      <c r="G115" s="67"/>
-      <c r="H115" s="67"/>
-      <c r="I115" s="68"/>
-      <c r="J115" s="58">
+      <c r="A115" s="67"/>
+      <c r="B115" s="67"/>
+      <c r="C115" s="67"/>
+      <c r="D115" s="67"/>
+      <c r="E115" s="68"/>
+      <c r="F115" s="68"/>
+      <c r="G115" s="68"/>
+      <c r="H115" s="68"/>
+      <c r="I115" s="69"/>
+      <c r="J115" s="58" t="str">
         <f>IF(C115&lt;&gt;"",SUM(K115:DR115)/データ!$D$2,"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="K115" s="18"/>
       <c r="L115" s="18"/>
@@ -18299,18 +18405,18 @@
       <c r="DR115" s="19"/>
     </row>
     <row r="116" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A116" s="66"/>
-      <c r="B116" s="66"/>
-      <c r="C116" s="66"/>
-      <c r="D116" s="66"/>
-      <c r="E116" s="67"/>
-      <c r="F116" s="67"/>
-      <c r="G116" s="67"/>
-      <c r="H116" s="67"/>
-      <c r="I116" s="69"/>
-      <c r="J116" s="59">
+      <c r="A116" s="67"/>
+      <c r="B116" s="67"/>
+      <c r="C116" s="67"/>
+      <c r="D116" s="67"/>
+      <c r="E116" s="68"/>
+      <c r="F116" s="68"/>
+      <c r="G116" s="68"/>
+      <c r="H116" s="68"/>
+      <c r="I116" s="70"/>
+      <c r="J116" s="59" t="str">
         <f>IF(C115&lt;&gt;"",SUM(K116:DR116)/データ!$D$2,"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="K116" s="20"/>
       <c r="L116" s="20"/>
@@ -18426,22 +18532,18 @@
       <c r="DR116" s="21"/>
     </row>
     <row r="117" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A117" s="66">
-        <v>13.2</v>
-      </c>
-      <c r="B117" s="66"/>
-      <c r="C117" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="D117" s="66"/>
-      <c r="E117" s="67"/>
-      <c r="F117" s="67"/>
-      <c r="G117" s="67"/>
-      <c r="H117" s="67"/>
-      <c r="I117" s="68"/>
-      <c r="J117" s="58">
+      <c r="A117" s="67"/>
+      <c r="B117" s="67"/>
+      <c r="C117" s="67"/>
+      <c r="D117" s="67"/>
+      <c r="E117" s="68"/>
+      <c r="F117" s="68"/>
+      <c r="G117" s="68"/>
+      <c r="H117" s="68"/>
+      <c r="I117" s="69"/>
+      <c r="J117" s="58" t="str">
         <f>IF(C117&lt;&gt;"",SUM(K117:DR117)/データ!$D$2,"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="K117" s="18"/>
       <c r="L117" s="18"/>
@@ -18557,18 +18659,18 @@
       <c r="DR117" s="19"/>
     </row>
     <row r="118" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A118" s="66"/>
-      <c r="B118" s="66"/>
-      <c r="C118" s="66"/>
-      <c r="D118" s="66"/>
-      <c r="E118" s="67"/>
-      <c r="F118" s="67"/>
-      <c r="G118" s="67"/>
-      <c r="H118" s="67"/>
-      <c r="I118" s="69"/>
-      <c r="J118" s="59">
+      <c r="A118" s="67"/>
+      <c r="B118" s="67"/>
+      <c r="C118" s="67"/>
+      <c r="D118" s="67"/>
+      <c r="E118" s="68"/>
+      <c r="F118" s="68"/>
+      <c r="G118" s="68"/>
+      <c r="H118" s="68"/>
+      <c r="I118" s="70"/>
+      <c r="J118" s="59" t="str">
         <f>IF(C117&lt;&gt;"",SUM(K118:DR118)/データ!$D$2,"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="K118" s="20"/>
       <c r="L118" s="20"/>
@@ -18684,22 +18786,18 @@
       <c r="DR118" s="21"/>
     </row>
     <row r="119" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A119" s="66">
-        <v>13.3</v>
-      </c>
-      <c r="B119" s="66"/>
-      <c r="C119" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="D119" s="66"/>
-      <c r="E119" s="67"/>
-      <c r="F119" s="67"/>
-      <c r="G119" s="67"/>
-      <c r="H119" s="67"/>
-      <c r="I119" s="68"/>
-      <c r="J119" s="58">
+      <c r="A119" s="67"/>
+      <c r="B119" s="67"/>
+      <c r="C119" s="67"/>
+      <c r="D119" s="67"/>
+      <c r="E119" s="68"/>
+      <c r="F119" s="68"/>
+      <c r="G119" s="68"/>
+      <c r="H119" s="68"/>
+      <c r="I119" s="69"/>
+      <c r="J119" s="58" t="str">
         <f>IF(C119&lt;&gt;"",SUM(K119:DR119)/データ!$D$2,"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="K119" s="18"/>
       <c r="L119" s="18"/>
@@ -18815,18 +18913,18 @@
       <c r="DR119" s="19"/>
     </row>
     <row r="120" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A120" s="66"/>
-      <c r="B120" s="66"/>
-      <c r="C120" s="66"/>
-      <c r="D120" s="66"/>
-      <c r="E120" s="67"/>
-      <c r="F120" s="67"/>
-      <c r="G120" s="67"/>
-      <c r="H120" s="67"/>
-      <c r="I120" s="69"/>
-      <c r="J120" s="59">
+      <c r="A120" s="67"/>
+      <c r="B120" s="67"/>
+      <c r="C120" s="67"/>
+      <c r="D120" s="67"/>
+      <c r="E120" s="68"/>
+      <c r="F120" s="68"/>
+      <c r="G120" s="68"/>
+      <c r="H120" s="68"/>
+      <c r="I120" s="70"/>
+      <c r="J120" s="59" t="str">
         <f>IF(C119&lt;&gt;"",SUM(K120:DR120)/データ!$D$2,"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="K120" s="20"/>
       <c r="L120" s="20"/>
@@ -18942,19 +19040,15 @@
       <c r="DR120" s="21"/>
     </row>
     <row r="121" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A121" s="70">
-        <v>14</v>
-      </c>
-      <c r="B121" s="70" t="s">
-        <v>110</v>
-      </c>
-      <c r="C121" s="70"/>
-      <c r="D121" s="70"/>
-      <c r="E121" s="72"/>
-      <c r="F121" s="72"/>
-      <c r="G121" s="72"/>
-      <c r="H121" s="72"/>
-      <c r="I121" s="68"/>
+      <c r="A121" s="71"/>
+      <c r="B121" s="71"/>
+      <c r="C121" s="71"/>
+      <c r="D121" s="71"/>
+      <c r="E121" s="73"/>
+      <c r="F121" s="73"/>
+      <c r="G121" s="73"/>
+      <c r="H121" s="73"/>
+      <c r="I121" s="69"/>
       <c r="J121" s="58" t="str">
         <f>IF(C121&lt;&gt;"",SUM(K121:DR121)/データ!$D$2,"")</f>
         <v/>
@@ -19073,15 +19167,15 @@
       <c r="DR121" s="19"/>
     </row>
     <row r="122" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A122" s="71"/>
-      <c r="B122" s="71"/>
-      <c r="C122" s="71"/>
-      <c r="D122" s="71"/>
-      <c r="E122" s="73"/>
-      <c r="F122" s="73"/>
-      <c r="G122" s="73"/>
-      <c r="H122" s="73"/>
-      <c r="I122" s="69"/>
+      <c r="A122" s="72"/>
+      <c r="B122" s="72"/>
+      <c r="C122" s="72"/>
+      <c r="D122" s="72"/>
+      <c r="E122" s="74"/>
+      <c r="F122" s="74"/>
+      <c r="G122" s="74"/>
+      <c r="H122" s="74"/>
+      <c r="I122" s="70"/>
       <c r="J122" s="59" t="str">
         <f>IF(C121&lt;&gt;"",SUM(K122:DR122)/データ!$D$2,"")</f>
         <v/>
@@ -19200,22 +19294,18 @@
       <c r="DR122" s="21"/>
     </row>
     <row r="123" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A123" s="66">
-        <v>14.1</v>
-      </c>
-      <c r="B123" s="66"/>
-      <c r="C123" s="66" t="s">
-        <v>111</v>
-      </c>
-      <c r="D123" s="66"/>
-      <c r="E123" s="67"/>
-      <c r="F123" s="67"/>
-      <c r="G123" s="67"/>
-      <c r="H123" s="67"/>
-      <c r="I123" s="68"/>
-      <c r="J123" s="58">
+      <c r="A123" s="67"/>
+      <c r="B123" s="67"/>
+      <c r="C123" s="67"/>
+      <c r="D123" s="67"/>
+      <c r="E123" s="68"/>
+      <c r="F123" s="68"/>
+      <c r="G123" s="68"/>
+      <c r="H123" s="68"/>
+      <c r="I123" s="69"/>
+      <c r="J123" s="58" t="str">
         <f>IF(C123&lt;&gt;"",SUM(K123:DR123)/データ!$D$2,"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="K123" s="18"/>
       <c r="L123" s="18"/>
@@ -19331,18 +19421,18 @@
       <c r="DR123" s="19"/>
     </row>
     <row r="124" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A124" s="66"/>
-      <c r="B124" s="66"/>
-      <c r="C124" s="66"/>
-      <c r="D124" s="66"/>
-      <c r="E124" s="67"/>
-      <c r="F124" s="67"/>
-      <c r="G124" s="67"/>
-      <c r="H124" s="67"/>
-      <c r="I124" s="69"/>
-      <c r="J124" s="59">
+      <c r="A124" s="67"/>
+      <c r="B124" s="67"/>
+      <c r="C124" s="67"/>
+      <c r="D124" s="67"/>
+      <c r="E124" s="68"/>
+      <c r="F124" s="68"/>
+      <c r="G124" s="68"/>
+      <c r="H124" s="68"/>
+      <c r="I124" s="70"/>
+      <c r="J124" s="59" t="str">
         <f>IF(C123&lt;&gt;"",SUM(K124:DR124)/データ!$D$2,"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="K124" s="20"/>
       <c r="L124" s="20"/>
@@ -19458,22 +19548,18 @@
       <c r="DR124" s="21"/>
     </row>
     <row r="125" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A125" s="66">
-        <v>14.2</v>
-      </c>
-      <c r="B125" s="66"/>
-      <c r="C125" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="D125" s="66"/>
-      <c r="E125" s="67"/>
-      <c r="F125" s="67"/>
-      <c r="G125" s="67"/>
-      <c r="H125" s="67"/>
-      <c r="I125" s="68"/>
-      <c r="J125" s="58">
+      <c r="A125" s="67"/>
+      <c r="B125" s="67"/>
+      <c r="C125" s="67"/>
+      <c r="D125" s="67"/>
+      <c r="E125" s="68"/>
+      <c r="F125" s="68"/>
+      <c r="G125" s="68"/>
+      <c r="H125" s="68"/>
+      <c r="I125" s="69"/>
+      <c r="J125" s="58" t="str">
         <f>IF(C125&lt;&gt;"",SUM(K125:DR125)/データ!$D$2,"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="K125" s="18"/>
       <c r="L125" s="18"/>
@@ -19589,18 +19675,18 @@
       <c r="DR125" s="19"/>
     </row>
     <row r="126" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A126" s="66"/>
-      <c r="B126" s="66"/>
-      <c r="C126" s="66"/>
-      <c r="D126" s="66"/>
-      <c r="E126" s="67"/>
-      <c r="F126" s="67"/>
-      <c r="G126" s="67"/>
-      <c r="H126" s="67"/>
-      <c r="I126" s="69"/>
-      <c r="J126" s="59">
+      <c r="A126" s="67"/>
+      <c r="B126" s="67"/>
+      <c r="C126" s="67"/>
+      <c r="D126" s="67"/>
+      <c r="E126" s="68"/>
+      <c r="F126" s="68"/>
+      <c r="G126" s="68"/>
+      <c r="H126" s="68"/>
+      <c r="I126" s="70"/>
+      <c r="J126" s="59" t="str">
         <f>IF(C125&lt;&gt;"",SUM(K126:DR126)/データ!$D$2,"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="K126" s="20"/>
       <c r="L126" s="20"/>
@@ -19716,19 +19802,15 @@
       <c r="DR126" s="21"/>
     </row>
     <row r="127" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A127" s="66">
-        <v>15</v>
-      </c>
-      <c r="B127" s="66" t="s">
-        <v>112</v>
-      </c>
-      <c r="C127" s="66"/>
-      <c r="D127" s="66"/>
-      <c r="E127" s="67"/>
-      <c r="F127" s="67"/>
-      <c r="G127" s="67"/>
-      <c r="H127" s="67"/>
-      <c r="I127" s="68"/>
+      <c r="A127" s="67"/>
+      <c r="B127" s="67"/>
+      <c r="C127" s="67"/>
+      <c r="D127" s="67"/>
+      <c r="E127" s="68"/>
+      <c r="F127" s="68"/>
+      <c r="G127" s="68"/>
+      <c r="H127" s="68"/>
+      <c r="I127" s="69"/>
       <c r="J127" s="58" t="str">
         <f>IF(C127&lt;&gt;"",SUM(K127:DR127)/データ!$D$2,"")</f>
         <v/>
@@ -19847,15 +19929,15 @@
       <c r="DR127" s="19"/>
     </row>
     <row r="128" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A128" s="66"/>
-      <c r="B128" s="66"/>
-      <c r="C128" s="66"/>
-      <c r="D128" s="66"/>
-      <c r="E128" s="67"/>
-      <c r="F128" s="67"/>
-      <c r="G128" s="67"/>
-      <c r="H128" s="67"/>
-      <c r="I128" s="69"/>
+      <c r="A128" s="67"/>
+      <c r="B128" s="67"/>
+      <c r="C128" s="67"/>
+      <c r="D128" s="67"/>
+      <c r="E128" s="68"/>
+      <c r="F128" s="68"/>
+      <c r="G128" s="68"/>
+      <c r="H128" s="68"/>
+      <c r="I128" s="70"/>
       <c r="J128" s="59" t="str">
         <f>IF(C127&lt;&gt;"",SUM(K128:DR128)/データ!$D$2,"")</f>
         <v/>
@@ -19974,22 +20056,18 @@
       <c r="DR128" s="21"/>
     </row>
     <row r="129" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A129" s="66">
-        <v>15.1</v>
-      </c>
-      <c r="B129" s="66"/>
-      <c r="C129" s="66" t="s">
-        <v>113</v>
-      </c>
-      <c r="D129" s="66"/>
-      <c r="E129" s="67"/>
-      <c r="F129" s="67"/>
-      <c r="G129" s="67"/>
-      <c r="H129" s="67"/>
-      <c r="I129" s="68"/>
-      <c r="J129" s="58">
+      <c r="A129" s="67"/>
+      <c r="B129" s="67"/>
+      <c r="C129" s="67"/>
+      <c r="D129" s="67"/>
+      <c r="E129" s="68"/>
+      <c r="F129" s="68"/>
+      <c r="G129" s="68"/>
+      <c r="H129" s="68"/>
+      <c r="I129" s="69"/>
+      <c r="J129" s="58" t="str">
         <f>IF(C129&lt;&gt;"",SUM(K129:DR129)/データ!$D$2,"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="K129" s="18"/>
       <c r="L129" s="18"/>
@@ -20105,18 +20183,18 @@
       <c r="DR129" s="19"/>
     </row>
     <row r="130" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A130" s="66"/>
-      <c r="B130" s="66"/>
-      <c r="C130" s="66"/>
-      <c r="D130" s="66"/>
-      <c r="E130" s="67"/>
-      <c r="F130" s="67"/>
-      <c r="G130" s="67"/>
-      <c r="H130" s="67"/>
-      <c r="I130" s="69"/>
-      <c r="J130" s="59">
+      <c r="A130" s="67"/>
+      <c r="B130" s="67"/>
+      <c r="C130" s="67"/>
+      <c r="D130" s="67"/>
+      <c r="E130" s="68"/>
+      <c r="F130" s="68"/>
+      <c r="G130" s="68"/>
+      <c r="H130" s="68"/>
+      <c r="I130" s="70"/>
+      <c r="J130" s="59" t="str">
         <f>IF(C129&lt;&gt;"",SUM(K130:DR130)/データ!$D$2,"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="K130" s="20"/>
       <c r="L130" s="20"/>
@@ -20232,22 +20310,18 @@
       <c r="DR130" s="21"/>
     </row>
     <row r="131" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A131" s="66">
-        <v>15.2</v>
-      </c>
-      <c r="B131" s="66"/>
-      <c r="C131" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="D131" s="66"/>
-      <c r="E131" s="67"/>
-      <c r="F131" s="67"/>
-      <c r="G131" s="67"/>
-      <c r="H131" s="67"/>
-      <c r="I131" s="68"/>
-      <c r="J131" s="58">
+      <c r="A131" s="67"/>
+      <c r="B131" s="67"/>
+      <c r="C131" s="67"/>
+      <c r="D131" s="67"/>
+      <c r="E131" s="68"/>
+      <c r="F131" s="68"/>
+      <c r="G131" s="68"/>
+      <c r="H131" s="68"/>
+      <c r="I131" s="69"/>
+      <c r="J131" s="58" t="str">
         <f>IF(C131&lt;&gt;"",SUM(K131:DR131)/データ!$D$2,"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="K131" s="18"/>
       <c r="L131" s="18"/>
@@ -20363,18 +20437,18 @@
       <c r="DR131" s="19"/>
     </row>
     <row r="132" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A132" s="66"/>
-      <c r="B132" s="66"/>
-      <c r="C132" s="66"/>
-      <c r="D132" s="66"/>
-      <c r="E132" s="67"/>
-      <c r="F132" s="67"/>
-      <c r="G132" s="67"/>
-      <c r="H132" s="67"/>
-      <c r="I132" s="69"/>
-      <c r="J132" s="59">
+      <c r="A132" s="67"/>
+      <c r="B132" s="67"/>
+      <c r="C132" s="67"/>
+      <c r="D132" s="67"/>
+      <c r="E132" s="68"/>
+      <c r="F132" s="68"/>
+      <c r="G132" s="68"/>
+      <c r="H132" s="68"/>
+      <c r="I132" s="70"/>
+      <c r="J132" s="59" t="str">
         <f>IF(C131&lt;&gt;"",SUM(K132:DR132)/データ!$D$2,"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="K132" s="20"/>
       <c r="L132" s="20"/>
@@ -20490,22 +20564,18 @@
       <c r="DR132" s="21"/>
     </row>
     <row r="133" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A133" s="66">
-        <v>15.3</v>
-      </c>
-      <c r="B133" s="66"/>
-      <c r="C133" s="66" t="s">
-        <v>115</v>
-      </c>
-      <c r="D133" s="66"/>
-      <c r="E133" s="67"/>
-      <c r="F133" s="67"/>
-      <c r="G133" s="67"/>
-      <c r="H133" s="67"/>
-      <c r="I133" s="68"/>
-      <c r="J133" s="58">
+      <c r="A133" s="67"/>
+      <c r="B133" s="67"/>
+      <c r="C133" s="67"/>
+      <c r="D133" s="67"/>
+      <c r="E133" s="68"/>
+      <c r="F133" s="68"/>
+      <c r="G133" s="68"/>
+      <c r="H133" s="68"/>
+      <c r="I133" s="69"/>
+      <c r="J133" s="58" t="str">
         <f>IF(C133&lt;&gt;"",SUM(K133:DR133)/データ!$D$2,"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="K133" s="18"/>
       <c r="L133" s="18"/>
@@ -20621,18 +20691,18 @@
       <c r="DR133" s="19"/>
     </row>
     <row r="134" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A134" s="66"/>
-      <c r="B134" s="66"/>
-      <c r="C134" s="66"/>
-      <c r="D134" s="66"/>
-      <c r="E134" s="67"/>
-      <c r="F134" s="67"/>
-      <c r="G134" s="67"/>
-      <c r="H134" s="67"/>
-      <c r="I134" s="69"/>
-      <c r="J134" s="59">
+      <c r="A134" s="67"/>
+      <c r="B134" s="67"/>
+      <c r="C134" s="67"/>
+      <c r="D134" s="67"/>
+      <c r="E134" s="68"/>
+      <c r="F134" s="68"/>
+      <c r="G134" s="68"/>
+      <c r="H134" s="68"/>
+      <c r="I134" s="70"/>
+      <c r="J134" s="59" t="str">
         <f>IF(C133&lt;&gt;"",SUM(K134:DR134)/データ!$D$2,"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="K134" s="20"/>
       <c r="L134" s="20"/>
@@ -20748,22 +20818,18 @@
       <c r="DR134" s="21"/>
     </row>
     <row r="135" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A135" s="66">
-        <v>15.4</v>
-      </c>
-      <c r="B135" s="66"/>
-      <c r="C135" s="66" t="s">
-        <v>116</v>
-      </c>
-      <c r="D135" s="66"/>
-      <c r="E135" s="67"/>
-      <c r="F135" s="67"/>
-      <c r="G135" s="67"/>
-      <c r="H135" s="67"/>
-      <c r="I135" s="68"/>
-      <c r="J135" s="58">
+      <c r="A135" s="67"/>
+      <c r="B135" s="67"/>
+      <c r="C135" s="67"/>
+      <c r="D135" s="67"/>
+      <c r="E135" s="68"/>
+      <c r="F135" s="68"/>
+      <c r="G135" s="68"/>
+      <c r="H135" s="68"/>
+      <c r="I135" s="69"/>
+      <c r="J135" s="58" t="str">
         <f>IF(C135&lt;&gt;"",SUM(K135:DR135)/データ!$D$2,"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="K135" s="18"/>
       <c r="L135" s="18"/>
@@ -20879,18 +20945,18 @@
       <c r="DR135" s="19"/>
     </row>
     <row r="136" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A136" s="66"/>
-      <c r="B136" s="66"/>
-      <c r="C136" s="66"/>
-      <c r="D136" s="66"/>
-      <c r="E136" s="67"/>
-      <c r="F136" s="67"/>
-      <c r="G136" s="67"/>
-      <c r="H136" s="67"/>
-      <c r="I136" s="69"/>
-      <c r="J136" s="59">
+      <c r="A136" s="67"/>
+      <c r="B136" s="67"/>
+      <c r="C136" s="67"/>
+      <c r="D136" s="67"/>
+      <c r="E136" s="68"/>
+      <c r="F136" s="68"/>
+      <c r="G136" s="68"/>
+      <c r="H136" s="68"/>
+      <c r="I136" s="70"/>
+      <c r="J136" s="59" t="str">
         <f>IF(C135&lt;&gt;"",SUM(K136:DR136)/データ!$D$2,"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="K136" s="20"/>
       <c r="L136" s="20"/>
@@ -21006,17 +21072,15 @@
       <c r="DR136" s="21"/>
     </row>
     <row r="137" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A137" s="66">
-        <v>15.5</v>
-      </c>
-      <c r="B137" s="66"/>
-      <c r="C137" s="66"/>
-      <c r="D137" s="66"/>
-      <c r="E137" s="67"/>
-      <c r="F137" s="67"/>
-      <c r="G137" s="67"/>
-      <c r="H137" s="67"/>
-      <c r="I137" s="68"/>
+      <c r="A137" s="67"/>
+      <c r="B137" s="67"/>
+      <c r="C137" s="67"/>
+      <c r="D137" s="67"/>
+      <c r="E137" s="68"/>
+      <c r="F137" s="68"/>
+      <c r="G137" s="68"/>
+      <c r="H137" s="68"/>
+      <c r="I137" s="69"/>
       <c r="J137" s="58" t="str">
         <f>IF(C137&lt;&gt;"",SUM(K137:DR137)/データ!$D$2,"")</f>
         <v/>
@@ -21135,15 +21199,15 @@
       <c r="DR137" s="19"/>
     </row>
     <row r="138" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A138" s="66"/>
-      <c r="B138" s="66"/>
-      <c r="C138" s="66"/>
-      <c r="D138" s="66"/>
-      <c r="E138" s="67"/>
-      <c r="F138" s="67"/>
-      <c r="G138" s="67"/>
-      <c r="H138" s="67"/>
-      <c r="I138" s="69"/>
+      <c r="A138" s="67"/>
+      <c r="B138" s="67"/>
+      <c r="C138" s="67"/>
+      <c r="D138" s="67"/>
+      <c r="E138" s="68"/>
+      <c r="F138" s="68"/>
+      <c r="G138" s="68"/>
+      <c r="H138" s="68"/>
+      <c r="I138" s="70"/>
       <c r="J138" s="59" t="str">
         <f>IF(C137&lt;&gt;"",SUM(K138:DR138)/データ!$D$2,"")</f>
         <v/>
@@ -21262,15 +21326,15 @@
       <c r="DR138" s="21"/>
     </row>
     <row r="139" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A139" s="66"/>
-      <c r="B139" s="66"/>
-      <c r="C139" s="66"/>
-      <c r="D139" s="66"/>
-      <c r="E139" s="67"/>
-      <c r="F139" s="67"/>
-      <c r="G139" s="67"/>
-      <c r="H139" s="67"/>
-      <c r="I139" s="68"/>
+      <c r="A139" s="67"/>
+      <c r="B139" s="67"/>
+      <c r="C139" s="67"/>
+      <c r="D139" s="67"/>
+      <c r="E139" s="68"/>
+      <c r="F139" s="68"/>
+      <c r="G139" s="68"/>
+      <c r="H139" s="68"/>
+      <c r="I139" s="69"/>
       <c r="J139" s="58" t="str">
         <f>IF(C139&lt;&gt;"",SUM(K139:DR139)/データ!$D$2,"")</f>
         <v/>
@@ -21389,15 +21453,15 @@
       <c r="DR139" s="19"/>
     </row>
     <row r="140" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A140" s="66"/>
-      <c r="B140" s="66"/>
-      <c r="C140" s="66"/>
-      <c r="D140" s="66"/>
-      <c r="E140" s="67"/>
-      <c r="F140" s="67"/>
-      <c r="G140" s="67"/>
-      <c r="H140" s="67"/>
-      <c r="I140" s="69"/>
+      <c r="A140" s="67"/>
+      <c r="B140" s="67"/>
+      <c r="C140" s="67"/>
+      <c r="D140" s="67"/>
+      <c r="E140" s="68"/>
+      <c r="F140" s="68"/>
+      <c r="G140" s="68"/>
+      <c r="H140" s="68"/>
+      <c r="I140" s="70"/>
       <c r="J140" s="59" t="str">
         <f>IF(C139&lt;&gt;"",SUM(K140:DR140)/データ!$D$2,"")</f>
         <v/>
@@ -21516,15 +21580,15 @@
       <c r="DR140" s="21"/>
     </row>
     <row r="141" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A141" s="70"/>
-      <c r="B141" s="70"/>
-      <c r="C141" s="70"/>
-      <c r="D141" s="70"/>
-      <c r="E141" s="72"/>
-      <c r="F141" s="72"/>
-      <c r="G141" s="72"/>
-      <c r="H141" s="72"/>
-      <c r="I141" s="68"/>
+      <c r="A141" s="71"/>
+      <c r="B141" s="71"/>
+      <c r="C141" s="71"/>
+      <c r="D141" s="71"/>
+      <c r="E141" s="73"/>
+      <c r="F141" s="73"/>
+      <c r="G141" s="73"/>
+      <c r="H141" s="73"/>
+      <c r="I141" s="69"/>
       <c r="J141" s="58" t="str">
         <f>IF(C141&lt;&gt;"",SUM(K141:DR141)/データ!$D$2,"")</f>
         <v/>
@@ -21643,15 +21707,15 @@
       <c r="DR141" s="19"/>
     </row>
     <row r="142" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A142" s="71"/>
-      <c r="B142" s="71"/>
-      <c r="C142" s="71"/>
-      <c r="D142" s="71"/>
-      <c r="E142" s="73"/>
-      <c r="F142" s="73"/>
-      <c r="G142" s="73"/>
-      <c r="H142" s="73"/>
-      <c r="I142" s="69"/>
+      <c r="A142" s="72"/>
+      <c r="B142" s="72"/>
+      <c r="C142" s="72"/>
+      <c r="D142" s="72"/>
+      <c r="E142" s="74"/>
+      <c r="F142" s="74"/>
+      <c r="G142" s="74"/>
+      <c r="H142" s="74"/>
+      <c r="I142" s="70"/>
       <c r="J142" s="59" t="str">
         <f>IF(C141&lt;&gt;"",SUM(K142:DR142)/データ!$D$2,"")</f>
         <v/>
@@ -21770,15 +21834,15 @@
       <c r="DR142" s="21"/>
     </row>
     <row r="143" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A143" s="66"/>
-      <c r="B143" s="66"/>
-      <c r="C143" s="66"/>
-      <c r="D143" s="66"/>
-      <c r="E143" s="67"/>
-      <c r="F143" s="67"/>
-      <c r="G143" s="67"/>
-      <c r="H143" s="67"/>
-      <c r="I143" s="68"/>
+      <c r="A143" s="67"/>
+      <c r="B143" s="67"/>
+      <c r="C143" s="67"/>
+      <c r="D143" s="67"/>
+      <c r="E143" s="68"/>
+      <c r="F143" s="68"/>
+      <c r="G143" s="68"/>
+      <c r="H143" s="68"/>
+      <c r="I143" s="69"/>
       <c r="J143" s="58" t="str">
         <f>IF(C143&lt;&gt;"",SUM(K143:DR143)/データ!$D$2,"")</f>
         <v/>
@@ -21897,15 +21961,15 @@
       <c r="DR143" s="19"/>
     </row>
     <row r="144" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A144" s="66"/>
-      <c r="B144" s="66"/>
-      <c r="C144" s="66"/>
-      <c r="D144" s="66"/>
-      <c r="E144" s="67"/>
-      <c r="F144" s="67"/>
-      <c r="G144" s="67"/>
-      <c r="H144" s="67"/>
-      <c r="I144" s="69"/>
+      <c r="A144" s="67"/>
+      <c r="B144" s="67"/>
+      <c r="C144" s="67"/>
+      <c r="D144" s="67"/>
+      <c r="E144" s="68"/>
+      <c r="F144" s="68"/>
+      <c r="G144" s="68"/>
+      <c r="H144" s="68"/>
+      <c r="I144" s="70"/>
       <c r="J144" s="59" t="str">
         <f>IF(C143&lt;&gt;"",SUM(K144:DR144)/データ!$D$2,"")</f>
         <v/>
@@ -22024,15 +22088,15 @@
       <c r="DR144" s="21"/>
     </row>
     <row r="145" spans="1:123" x14ac:dyDescent="0.15">
-      <c r="A145" s="66"/>
-      <c r="B145" s="66"/>
-      <c r="C145" s="66"/>
-      <c r="D145" s="66"/>
-      <c r="E145" s="67"/>
-      <c r="F145" s="67"/>
-      <c r="G145" s="67"/>
-      <c r="H145" s="67"/>
-      <c r="I145" s="68"/>
+      <c r="A145" s="67"/>
+      <c r="B145" s="67"/>
+      <c r="C145" s="67"/>
+      <c r="D145" s="67"/>
+      <c r="E145" s="68"/>
+      <c r="F145" s="68"/>
+      <c r="G145" s="68"/>
+      <c r="H145" s="68"/>
+      <c r="I145" s="69"/>
       <c r="J145" s="58" t="str">
         <f>IF(C145&lt;&gt;"",SUM(K145:DR145)/データ!$D$2,"")</f>
         <v/>
@@ -22151,15 +22215,15 @@
       <c r="DR145" s="19"/>
     </row>
     <row r="146" spans="1:123" x14ac:dyDescent="0.15">
-      <c r="A146" s="66"/>
-      <c r="B146" s="66"/>
-      <c r="C146" s="66"/>
-      <c r="D146" s="66"/>
-      <c r="E146" s="67"/>
-      <c r="F146" s="67"/>
-      <c r="G146" s="67"/>
-      <c r="H146" s="67"/>
-      <c r="I146" s="69"/>
+      <c r="A146" s="67"/>
+      <c r="B146" s="67"/>
+      <c r="C146" s="67"/>
+      <c r="D146" s="67"/>
+      <c r="E146" s="68"/>
+      <c r="F146" s="68"/>
+      <c r="G146" s="68"/>
+      <c r="H146" s="68"/>
+      <c r="I146" s="70"/>
       <c r="J146" s="59" t="str">
         <f>IF(C145&lt;&gt;"",SUM(K146:DR146)/データ!$D$2,"")</f>
         <v/>
@@ -59563,13 +59627,13 @@
         <f ca="1">IF(TODAY()&gt;=AO$27,ガント!AX153,NA())</f>
         <v>0</v>
       </c>
-      <c r="AP29" s="30" t="e">
+      <c r="AP29" s="30">
         <f ca="1">IF(TODAY()&gt;=AP$27,ガント!AY153,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AQ29" s="30" t="e">
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="30">
         <f ca="1">IF(TODAY()&gt;=AQ$27,ガント!AZ153,NA())</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="AR29" s="30" t="e">
         <f ca="1">IF(TODAY()&gt;=AR$27,ガント!BA153,NA())</f>
@@ -60017,13 +60081,13 @@
         <f ca="1">IF(TODAY()&gt;=AO$27,ガント!AX154,NA())</f>
         <v>2.8000000000000003</v>
       </c>
-      <c r="AP30" s="27" t="e">
+      <c r="AP30" s="27">
         <f ca="1">IF(TODAY()&gt;=AP$27,ガント!AY154,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AQ30" s="27" t="e">
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="AQ30" s="27">
         <f ca="1">IF(TODAY()&gt;=AQ$27,ガント!AZ154,NA())</f>
-        <v>#N/A</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="AR30" s="27" t="e">
         <f ca="1">IF(TODAY()&gt;=AR$27,ガント!BA154,NA())</f>
@@ -60470,13 +60534,13 @@
         <f t="shared" ca="1" si="1"/>
         <v>-53.2</v>
       </c>
-      <c r="AP31" s="25" t="e">
+      <c r="AP31" s="25">
         <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AQ31" s="25" t="e">
+        <v>-53.2</v>
+      </c>
+      <c r="AQ31" s="25">
         <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
+        <v>-53.2</v>
       </c>
       <c r="AR31" s="25" t="e">
         <f t="shared" ca="1" si="1"/>
@@ -60923,13 +60987,13 @@
         <f t="shared" ca="1" si="5"/>
         <v>2.8000000000000003</v>
       </c>
-      <c r="AP32" s="23" t="e">
+      <c r="AP32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AQ32" s="23" t="e">
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="AQ32" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="AR32" s="23" t="e">
         <f t="shared" ca="1" si="5"/>
@@ -61376,13 +61440,13 @@
         <f t="shared" ca="1" si="9"/>
         <v>0.05</v>
       </c>
-      <c r="AP33" s="28" t="e">
+      <c r="AP33" s="28">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AQ33" s="28" t="e">
+        <v>0.05</v>
+      </c>
+      <c r="AQ33" s="28">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
+        <v>0.05</v>
       </c>
       <c r="AR33" s="28" t="e">
         <f t="shared" ca="1" si="9"/>
@@ -62164,53 +62228,53 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A1" s="38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="34" t="s">
+      <c r="D3" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="E3" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="F3" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="34" t="s">
+      <c r="H3" s="34" t="s">
         <v>46</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="C4" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="37" t="s">
+      <c r="E4" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="37" t="s">
         <v>53</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>54</v>
       </c>
       <c r="G4" s="36" t="s">
         <v>21</v>
@@ -62590,8 +62654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -62604,17 +62668,17 @@
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="92"/>
+      <c r="C1" s="93"/>
       <c r="D1" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B2" s="8">
         <v>42124</v>
@@ -62628,7 +62692,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B3" s="8">
         <v>42125</v>
@@ -62639,7 +62703,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="7"/>
